--- a/back/public/export/arquivo.xlsx
+++ b/back/public/export/arquivo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>nmUsuario</t>
   </si>
@@ -37,301 +37,724 @@
     <t>ZIIZ TECH INNOVATION E IA - SAAS WEB E SERVIÇOS DIGITAIS LTDA</t>
   </si>
   <si>
+    <t>PME CAMP PROMO BRASIL 10</t>
+  </si>
+  <si>
+    <t>21.9915.0067</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:53:32 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 08</t>
+  </si>
+  <si>
+    <t>21.9915.0065</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:48:27 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 09</t>
+  </si>
+  <si>
+    <t>21.9915.0066</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:50:40 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 06</t>
+  </si>
+  <si>
+    <t>21.9915.0063</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:44:36 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 07</t>
+  </si>
+  <si>
+    <t>21.9915.0064</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:46:34 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 05</t>
+  </si>
+  <si>
+    <t>21.9915.0062</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:42:38 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 04</t>
+  </si>
+  <si>
+    <t>21.9915.0061</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:40:12 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 03</t>
+  </si>
+  <si>
+    <t>21.9915.0060</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:36:23 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 02</t>
+  </si>
+  <si>
+    <t>21.9915.0059</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:33:09 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PME CAMP PROMO BRASIL 01</t>
+  </si>
+  <si>
+    <t>21.9915.0058</t>
+  </si>
+  <si>
+    <t>Sat Dec 07 2024 09:30:09 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MYCARDCITY MASTER</t>
+  </si>
+  <si>
+    <t>MEI PROMO DIR RESERVA</t>
+  </si>
+  <si>
+    <t>61.9920.0057</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 16:36:42 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 14:56:24 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>MEI PROMO DIR QUIMAS</t>
+  </si>
+  <si>
+    <t>61.9920.0055</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 14:54:26 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>DANIEL JOAQUIM</t>
+  </si>
+  <si>
+    <t>MEI PROMO DIR DANIEL</t>
+  </si>
+  <si>
+    <t>27.9919.0054</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 14:51:59 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>NFN SOLUÇÕES &amp; TECNOLOGIA</t>
+  </si>
+  <si>
+    <t>MEI PROMO DIR NILTON</t>
+  </si>
+  <si>
+    <t>11.9985.0053</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 14:49:15 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>QUALY EMPREENDIMENTOS - PAULA</t>
+  </si>
+  <si>
+    <t>MEI PROMO DIR PAULA </t>
+  </si>
+  <si>
+    <t>31.9983.0052</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 14:46:20 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PROMO VALORIZAÇÃO, PÚBLICO E SOCIAL MSF</t>
+  </si>
+  <si>
+    <t>61.9920.0051</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 11:14:17 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>19999</t>
+  </si>
+  <si>
+    <t>AMANDA PICCHI - ANGELA</t>
+  </si>
+  <si>
+    <t>PROMO MASTER ANGELA SP</t>
+  </si>
+  <si>
+    <t>61.9988.0050</t>
+  </si>
+  <si>
+    <t>Wed Dec 04 2024 11:09:55 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 030</t>
+  </si>
+  <si>
+    <t>21.9915.0049</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:28:13 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 029</t>
+  </si>
+  <si>
+    <t>21.9915.0048</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:26:24 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 028</t>
+  </si>
+  <si>
+    <t>21.9915.0047</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:24:25 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 027</t>
+  </si>
+  <si>
+    <t>21.9915.0046</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:22:55 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 026</t>
+  </si>
+  <si>
+    <t>21.9915.0045</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:21:12 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 025</t>
+  </si>
+  <si>
+    <t>21.9915.0044</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:18:17 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 024</t>
+  </si>
+  <si>
+    <t>21.9915.0043</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:14:55 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 023</t>
+  </si>
+  <si>
+    <t>21.9915.0042</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:12:57 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 022</t>
+  </si>
+  <si>
+    <t>21.9915.0041</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:07:29 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 021</t>
+  </si>
+  <si>
+    <t>21.9915.0040</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 20:05:31 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 020</t>
+  </si>
+  <si>
+    <t>21.9915.0039</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:57:32 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 019</t>
+  </si>
+  <si>
+    <t>21.9915.0038</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:54:52 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 018</t>
+  </si>
+  <si>
+    <t>21.9915.0037</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:51:50 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 017</t>
+  </si>
+  <si>
+    <t>21.9915.0036</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:44:13 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 016</t>
+  </si>
+  <si>
+    <t>21.9915.0035</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:42:48 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 015</t>
+  </si>
+  <si>
+    <t>21.9915.0034</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:37:37 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 014</t>
+  </si>
+  <si>
+    <t>21.9915.0033</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:28:50 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 013</t>
+  </si>
+  <si>
+    <t>21.9915.0032</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:26:51 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 012</t>
+  </si>
+  <si>
+    <t>21.9915.0031</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:24:33 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 011</t>
+  </si>
+  <si>
+    <t>21.9915.0030</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:20:16 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 010</t>
+  </si>
+  <si>
+    <t>21.9915.0029</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:18:43 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 009</t>
+  </si>
+  <si>
+    <t>21.9915.0028</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:14:45 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 008</t>
+  </si>
+  <si>
+    <t>21.9915.0027</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:10:44 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 007</t>
+  </si>
+  <si>
+    <t>21.9915.0026</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:08:49 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 006</t>
+  </si>
+  <si>
+    <t>21.9915.0025</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:06:52 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 005</t>
+  </si>
+  <si>
+    <t>21.9915.0024</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:04:56 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 004</t>
+  </si>
+  <si>
+    <t>21.9915.0023</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:02:42 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 003</t>
+  </si>
+  <si>
+    <t>21.9915.0022</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 19:00:55 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 002</t>
+  </si>
+  <si>
+    <t>21.9915.0021</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 17:21:07 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>MEI CAMP PROMO BRASIL 001</t>
+  </si>
+  <si>
+    <t>21.9915.0020</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 17:16:47 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>PLANEJE SOLUÇÕES - VALDIVINO</t>
+  </si>
+  <si>
+    <t>PROMO MASTER PLANEJE VALD</t>
+  </si>
+  <si>
+    <t>63.9987.0019</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 15:29:53 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>GLOBALTECH - JUAREZ</t>
+  </si>
+  <si>
+    <t>PROMO MASTER GLOBALTECH Juarez</t>
+  </si>
+  <si>
+    <t>11.9986.0018</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 14:08:24 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>PROMO MASTER DIR QUAL PAULA sp</t>
+  </si>
+  <si>
+    <t>31.9983.0017</t>
+  </si>
+  <si>
+    <t>Tue Dec 03 2024 07:58:14 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>ENG SILVIO MARCOS</t>
+  </si>
+  <si>
+    <t>PROMO MASTER ENG SILVIO PR</t>
+  </si>
+  <si>
+    <t>41.9979.0016</t>
+  </si>
+  <si>
+    <t>Mon Dec 02 2024 18:58:29 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>PROMO MASTER DIR QUIMAS</t>
+  </si>
+  <si>
+    <t>61.9920.0015</t>
+  </si>
+  <si>
+    <t>Mon Dec 02 2024 17:01:46 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>171999</t>
+  </si>
+  <si>
+    <t>PAULO ROBERTO -TAKINALOJA</t>
+  </si>
+  <si>
+    <t>PROMO MASTER PAULO TAKIN</t>
+  </si>
+  <si>
+    <t>21.9977.0014</t>
+  </si>
+  <si>
+    <t>Mon Dec 02 2024 16:08:05 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>ANA PAULA - PAULO AF - BA</t>
+  </si>
+  <si>
+    <t>PROMO MASTER ANA PAULA - PA BA</t>
+  </si>
+  <si>
+    <t>71.9974.0013</t>
+  </si>
+  <si>
+    <t>Sat Nov 30 2024 16:12:44 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>NFN SOLUÇÕES - NILTON SP</t>
+  </si>
+  <si>
+    <t>PROMO MASTER DIR NILTON NFN</t>
+  </si>
+  <si>
+    <t>11.9975.0012</t>
+  </si>
+  <si>
+    <t>Sat Nov 30 2024 16:08:19 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>20694</t>
+  </si>
+  <si>
+    <t>LOTUS BOREAL DIGITAL</t>
+  </si>
+  <si>
+    <t>PROMO MASTER DIR VALQUIRIA</t>
+  </si>
+  <si>
+    <t>41.9921.0012</t>
+  </si>
+  <si>
+    <t>Sat Nov 30 2024 08:49:56 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>testamdo saldo utilizado</t>
+  </si>
+  <si>
+    <t>85.9967.0011</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 2024 17:15:05 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>PROMO MASTER DIR DANIEL</t>
+  </si>
+  <si>
+    <t>27.9919.0010</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 2024 14:03:53 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>25400</t>
+  </si>
+  <si>
+    <t>alterar</t>
+  </si>
+  <si>
+    <t>PROMO MASTER DIR QUAL PAULA</t>
+  </si>
+  <si>
+    <t>31.9918.0009</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 2024 14:02:22 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>RGL SERVIÇOS RONEY</t>
+  </si>
+  <si>
+    <t>PROMO MASTER RONEY</t>
+  </si>
+  <si>
+    <t>61.9973.0007</t>
+  </si>
+  <si>
+    <t>Fri Nov 29 2024 10:11:43 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>ID TESTE3</t>
+  </si>
+  <si>
+    <t>85.9967.0006</t>
+  </si>
+  <si>
+    <t>Tue Nov 26 2024 17:15:11 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>PRO VALOR 3LT MARCAS E PAT - PERMUTA   CP</t>
+  </si>
+  <si>
+    <t>61.9920.0007</t>
+  </si>
+  <si>
+    <t>Sat Nov 23 2024 16:27:38 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Ziiz</t>
+  </si>
+  <si>
+    <t>id demonstrativo</t>
+  </si>
+  <si>
+    <t>21.9946.0005</t>
+  </si>
+  <si>
+    <t>Tue Nov 19 2024 14:01:04 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>id de demonstração</t>
+  </si>
+  <si>
+    <t>21.9915.0004</t>
+  </si>
+  <si>
+    <t>Tue Nov 19 2024 10:15:21 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
     <t>PROMO VALORIZAÇÃO - SP</t>
   </si>
   <si>
     <t>21.9915.0002</t>
   </si>
   <si>
-    <t>2024-11-04T15:22:12.000Z</t>
+    <t>Mon Nov 04 2024 12:22:12 GMT-0300 (Horário Padrão de Brasília)</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>id de demonstração</t>
-  </si>
-  <si>
-    <t>21.9915.0004</t>
-  </si>
-  <si>
-    <t>2024-11-19T13:15:21.000Z</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 001</t>
-  </si>
-  <si>
-    <t>21.9915.0020</t>
-  </si>
-  <si>
-    <t>2024-12-03T20:16:47.000Z</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 002</t>
-  </si>
-  <si>
-    <t>21.9915.0021</t>
-  </si>
-  <si>
-    <t>2024-12-03T20:21:07.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 003</t>
-  </si>
-  <si>
-    <t>21.9915.0022</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:00:55.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 004</t>
-  </si>
-  <si>
-    <t>21.9915.0023</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:02:42.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 005</t>
-  </si>
-  <si>
-    <t>21.9915.0024</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:04:56.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 006</t>
-  </si>
-  <si>
-    <t>21.9915.0025</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:06:52.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 007</t>
-  </si>
-  <si>
-    <t>21.9915.0026</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:08:49.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 008</t>
-  </si>
-  <si>
-    <t>21.9915.0027</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:10:44.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 009</t>
-  </si>
-  <si>
-    <t>21.9915.0028</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:14:45.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 010</t>
-  </si>
-  <si>
-    <t>21.9915.0029</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:18:43.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 011</t>
-  </si>
-  <si>
-    <t>21.9915.0030</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:20:16.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 012</t>
-  </si>
-  <si>
-    <t>21.9915.0031</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:24:33.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 013</t>
-  </si>
-  <si>
-    <t>21.9915.0032</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:26:51.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 014</t>
-  </si>
-  <si>
-    <t>21.9915.0033</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:28:50.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 015</t>
-  </si>
-  <si>
-    <t>21.9915.0034</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:37:37.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 016</t>
-  </si>
-  <si>
-    <t>21.9915.0035</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:42:48.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 017</t>
-  </si>
-  <si>
-    <t>21.9915.0036</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:44:13.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 018</t>
-  </si>
-  <si>
-    <t>21.9915.0037</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:51:50.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 019</t>
-  </si>
-  <si>
-    <t>21.9915.0038</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:54:52.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 020</t>
-  </si>
-  <si>
-    <t>21.9915.0039</t>
-  </si>
-  <si>
-    <t>2024-12-03T22:57:32.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 021</t>
-  </si>
-  <si>
-    <t>21.9915.0040</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:05:31.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 022</t>
-  </si>
-  <si>
-    <t>21.9915.0041</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:07:29.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 023</t>
-  </si>
-  <si>
-    <t>21.9915.0042</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:12:57.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 024</t>
-  </si>
-  <si>
-    <t>21.9915.0043</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:14:55.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 025</t>
-  </si>
-  <si>
-    <t>21.9915.0044</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:18:17.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 026</t>
-  </si>
-  <si>
-    <t>21.9915.0045</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:21:12.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 027</t>
-  </si>
-  <si>
-    <t>21.9915.0046</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:22:55.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 028</t>
-  </si>
-  <si>
-    <t>21.9915.0047</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:24:25.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 029</t>
-  </si>
-  <si>
-    <t>21.9915.0048</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:26:24.000Z</t>
-  </si>
-  <si>
-    <t>MEI CAMP PROMO BRASIL 030</t>
-  </si>
-  <si>
-    <t>21.9915.0049</t>
-  </si>
-  <si>
-    <t>2024-12-03T23:28:13.000Z</t>
+    <t>devkledisom_não apagar</t>
+  </si>
+  <si>
+    <t>valor padrao</t>
+  </si>
+  <si>
+    <t>00.000.0000</t>
+  </si>
+  <si>
+    <t>Sat Jul 27 2024 01:13:14 GMT-0300 (Horário Padrão de Brasília)</t>
+  </si>
+  <si>
+    <t>promoção MEI 26.07</t>
+  </si>
+  <si>
+    <t>21.064.0002</t>
   </si>
 </sst>
 </file>
@@ -392,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -465,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -476,16 +899,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -496,16 +919,16 @@
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -516,16 +939,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -536,16 +959,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -556,16 +979,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -576,16 +999,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -596,16 +1019,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -616,47 +1039,47 @@
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="F11" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="0" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="0" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>45</v>
@@ -665,127 +1088,127 @@
         <v>46</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="0" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="0" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="0" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="0" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="0" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -796,16 +1219,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -816,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -836,16 +1259,16 @@
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -856,16 +1279,16 @@
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -876,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -896,16 +1319,16 @@
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -916,16 +1339,16 @@
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -936,16 +1359,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -956,16 +1379,16 @@
         <v>5</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -976,16 +1399,16 @@
         <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -996,16 +1419,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1016,16 +1439,16 @@
         <v>5</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1036,16 +1459,16 @@
         <v>5</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1056,16 +1479,736 @@
         <v>5</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/back/public/export/arquivo.xlsx
+++ b/back/public/export/arquivo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7226" uniqueCount="7226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7224" uniqueCount="7224">
   <si>
     <t>id</t>
   </si>
@@ -12487,241 +12487,241 @@
     <t>GESTÃO DE ATIVOS INTANGÍVEIS NÃO FINANCEIROS</t>
   </si>
   <si>
+    <t>Gestão de instalações de esportes</t>
+  </si>
+  <si>
+    <t>GESTÃO DE INSTALAÇÕES DE ESPORTES</t>
+  </si>
+  <si>
+    <t>Gestão de redes de esgoto</t>
+  </si>
+  <si>
+    <t>GESTÃO DE REDES DE ESGOTO</t>
+  </si>
+  <si>
+    <t>Gestão de terminais aquaviários</t>
+  </si>
+  <si>
+    <t>GESTÃO DE TERMINAIS AQUAVIÁRIOS</t>
+  </si>
+  <si>
+    <t>Gestão e administração da propriedade imobiliária</t>
+  </si>
+  <si>
+    <t>GESTÃO E ADMINISTRAÇÃO DA PROPRIEDADE IMOBILIÁRIA</t>
+  </si>
+  <si>
+    <t>Gestão e manutenção de cemitérios</t>
+  </si>
+  <si>
+    <t>GESTÃO E MANUTENÇÃO DE CEMITÉRIOS</t>
+  </si>
+  <si>
+    <t>Ginástica - Ap</t>
+  </si>
+  <si>
+    <t>GINÁSTICA - AP</t>
+  </si>
+  <si>
+    <t>Ginástica Laboral Preventiva</t>
+  </si>
+  <si>
+    <t>GINÁSTICA LABORAL PREVENTIVA</t>
+  </si>
+  <si>
+    <t>Giz</t>
+  </si>
+  <si>
+    <t>GIZ</t>
+  </si>
+  <si>
+    <t>GPS - Aparelhos</t>
+  </si>
+  <si>
+    <t>GPS - APARELHOS</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>GRADES</t>
+  </si>
+  <si>
+    <t>Gráficas</t>
+  </si>
+  <si>
+    <t>GRÁFICAS</t>
+  </si>
+  <si>
+    <t>Gráficas - Art e Equip</t>
+  </si>
+  <si>
+    <t>GRÁFICAS - ART E EQUIP</t>
+  </si>
+  <si>
+    <t>Grama</t>
+  </si>
+  <si>
+    <t>GRAMA</t>
+  </si>
+  <si>
+    <t>Grama Sintética</t>
+  </si>
+  <si>
+    <t>GRAMA SINTÉTICA</t>
+  </si>
+  <si>
+    <t>Grampeadores</t>
+  </si>
+  <si>
+    <t>GRAMPEADORES</t>
+  </si>
+  <si>
+    <t>Grampeadores e Pregadores Pneumáticos</t>
+  </si>
+  <si>
+    <t>GRAMPEADORES E PREGADORES PNEUMÁTICOS</t>
+  </si>
+  <si>
+    <t>Grampos</t>
+  </si>
+  <si>
+    <t>GRAMPOS</t>
+  </si>
+  <si>
+    <t>Granito</t>
+  </si>
+  <si>
+    <t>GRANITO</t>
+  </si>
+  <si>
+    <t>Granjas</t>
+  </si>
+  <si>
+    <t>GRANJAS</t>
+  </si>
+  <si>
+    <t>Gravação em Chapas Metálicas</t>
+  </si>
+  <si>
+    <t>GRAVAÇÃO EM CHAPAS METÁLICAS</t>
+  </si>
+  <si>
+    <t>Gravação Pantográfica</t>
+  </si>
+  <si>
+    <t>GRAVAÇÃO PANTOGRÁFICA</t>
+  </si>
+  <si>
+    <t>GRAVADOR(A) DE CARIMBOS</t>
+  </si>
+  <si>
+    <t>Gravadores</t>
+  </si>
+  <si>
+    <t>GRAVADORES</t>
+  </si>
+  <si>
+    <t>Grelhados (Restaurantes)</t>
+  </si>
+  <si>
+    <t>GRELHADOS (RESTAURANTES)</t>
+  </si>
+  <si>
+    <t>Grupos Geradores</t>
+  </si>
+  <si>
+    <t>GRUPOS GERADORES</t>
+  </si>
+  <si>
+    <t>Guaraná</t>
+  </si>
+  <si>
+    <t>GUARANÁ</t>
+  </si>
+  <si>
+    <t>Guarda-Chuvas</t>
+  </si>
+  <si>
+    <t>GUARDA-CHUVAS</t>
+  </si>
+  <si>
+    <t>Guarda-Documentos</t>
+  </si>
+  <si>
+    <t>GUARDA-DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>Guarda-Móveis</t>
+  </si>
+  <si>
+    <t>GUARDA-MÓVEIS</t>
+  </si>
+  <si>
+    <t>Guarda-móveis</t>
+  </si>
+  <si>
+    <t>Guarda-Sóis</t>
+  </si>
+  <si>
+    <t>GUARDA-SÓIS</t>
+  </si>
+  <si>
+    <t>Guarda-Volumes</t>
+  </si>
+  <si>
+    <t>GUARDA-VOLUMES</t>
+  </si>
+  <si>
+    <t>GUARDADOR(A) DE MÓVEIS</t>
+  </si>
+  <si>
+    <t>GUIA DE TURISMO</t>
+  </si>
+  <si>
+    <t>Guilhotinas</t>
+  </si>
+  <si>
+    <t>GUILHOTINAS</t>
+  </si>
+  <si>
+    <t>GUINCHEIRO INDEPENDENTE - REBOQUE DE VEÍCULOS</t>
+  </si>
+  <si>
+    <t>Guinchos</t>
+  </si>
+  <si>
+    <t>GUINCHOS</t>
+  </si>
+  <si>
+    <t>Guinchos - Fab e Manutenção</t>
+  </si>
+  <si>
+    <t>GUINCHOS - FAB E MANUTENÇÃO</t>
+  </si>
+  <si>
+    <t>Guindastes</t>
+  </si>
+  <si>
+    <t>GUINDASTES</t>
+  </si>
+  <si>
+    <t>Guindastes - Conserto e Peças</t>
+  </si>
+  <si>
+    <t>GUINDASTES - CONSERTO E PEÇAS</t>
+  </si>
+  <si>
+    <t>Guindastes - Fab</t>
+  </si>
+  <si>
+    <t>GUINDASTES - FAB</t>
+  </si>
+  <si>
     <t>Gestão de espaços para artes cênicas, espetáculos e outras atividades artísticas</t>
   </si>
   <si>
-    <t>GESTÃO DE ESPAÇOS PARA ARTES CÊNICAS, ESPETÁCULOS E OUTRAS ATIVIDADES ARTÍSTICAS</t>
-  </si>
-  <si>
-    <t>Gestão de instalações de esportes</t>
-  </si>
-  <si>
-    <t>GESTÃO DE INSTALAÇÕES DE ESPORTES</t>
-  </si>
-  <si>
-    <t>Gestão de redes de esgoto</t>
-  </si>
-  <si>
-    <t>GESTÃO DE REDES DE ESGOTO</t>
-  </si>
-  <si>
-    <t>Gestão de terminais aquaviários</t>
-  </si>
-  <si>
-    <t>GESTÃO DE TERMINAIS AQUAVIÁRIOS</t>
-  </si>
-  <si>
-    <t>Gestão e administração da propriedade imobiliária</t>
-  </si>
-  <si>
-    <t>GESTÃO E ADMINISTRAÇÃO DA PROPRIEDADE IMOBILIÁRIA</t>
-  </si>
-  <si>
-    <t>Gestão e manutenção de cemitérios</t>
-  </si>
-  <si>
-    <t>GESTÃO E MANUTENÇÃO DE CEMITÉRIOS</t>
-  </si>
-  <si>
-    <t>Ginástica - Ap</t>
-  </si>
-  <si>
-    <t>GINÁSTICA - AP</t>
-  </si>
-  <si>
-    <t>Ginástica Laboral Preventiva</t>
-  </si>
-  <si>
-    <t>GINÁSTICA LABORAL PREVENTIVA</t>
-  </si>
-  <si>
-    <t>Giz</t>
-  </si>
-  <si>
-    <t>GIZ</t>
-  </si>
-  <si>
-    <t>GPS - Aparelhos</t>
-  </si>
-  <si>
-    <t>GPS - APARELHOS</t>
-  </si>
-  <si>
-    <t>Grades</t>
-  </si>
-  <si>
-    <t>GRADES</t>
-  </si>
-  <si>
-    <t>Gráficas</t>
-  </si>
-  <si>
-    <t>GRÁFICAS</t>
-  </si>
-  <si>
-    <t>Gráficas - Art e Equip</t>
-  </si>
-  <si>
-    <t>GRÁFICAS - ART E EQUIP</t>
-  </si>
-  <si>
-    <t>Grama</t>
-  </si>
-  <si>
-    <t>GRAMA</t>
-  </si>
-  <si>
-    <t>Grama Sintética</t>
-  </si>
-  <si>
-    <t>GRAMA SINTÉTICA</t>
-  </si>
-  <si>
-    <t>Grampeadores</t>
-  </si>
-  <si>
-    <t>GRAMPEADORES</t>
-  </si>
-  <si>
-    <t>Grampeadores e Pregadores Pneumáticos</t>
-  </si>
-  <si>
-    <t>GRAMPEADORES E PREGADORES PNEUMÁTICOS</t>
-  </si>
-  <si>
-    <t>Grampos</t>
-  </si>
-  <si>
-    <t>GRAMPOS</t>
-  </si>
-  <si>
-    <t>Granito</t>
-  </si>
-  <si>
-    <t>GRANITO</t>
-  </si>
-  <si>
-    <t>Granjas</t>
-  </si>
-  <si>
-    <t>GRANJAS</t>
-  </si>
-  <si>
-    <t>Gravação em Chapas Metálicas</t>
-  </si>
-  <si>
-    <t>GRAVAÇÃO EM CHAPAS METÁLICAS</t>
-  </si>
-  <si>
-    <t>Gravação Pantográfica</t>
-  </si>
-  <si>
-    <t>GRAVAÇÃO PANTOGRÁFICA</t>
-  </si>
-  <si>
-    <t>GRAVADOR(A) DE CARIMBOS</t>
-  </si>
-  <si>
-    <t>Gravadores</t>
-  </si>
-  <si>
-    <t>GRAVADORES</t>
-  </si>
-  <si>
-    <t>Grelhados (Restaurantes)</t>
-  </si>
-  <si>
-    <t>GRELHADOS (RESTAURANTES)</t>
-  </si>
-  <si>
-    <t>Grupos Geradores</t>
-  </si>
-  <si>
-    <t>GRUPOS GERADORES</t>
-  </si>
-  <si>
-    <t>Guaraná</t>
-  </si>
-  <si>
-    <t>GUARANÁ</t>
-  </si>
-  <si>
-    <t>Guarda-Chuvas</t>
-  </si>
-  <si>
-    <t>GUARDA-CHUVAS</t>
-  </si>
-  <si>
-    <t>Guarda-Documentos</t>
-  </si>
-  <si>
-    <t>GUARDA-DOCUMENTOS</t>
-  </si>
-  <si>
-    <t>Guarda-Móveis</t>
-  </si>
-  <si>
-    <t>GUARDA-MÓVEIS</t>
-  </si>
-  <si>
-    <t>Guarda-móveis</t>
-  </si>
-  <si>
-    <t>Guarda-Sóis</t>
-  </si>
-  <si>
-    <t>GUARDA-SÓIS</t>
-  </si>
-  <si>
-    <t>Guarda-Volumes</t>
-  </si>
-  <si>
-    <t>GUARDA-VOLUMES</t>
-  </si>
-  <si>
-    <t>GUARDADOR(A) DE MÓVEIS</t>
-  </si>
-  <si>
-    <t>GUIA DE TURISMO</t>
-  </si>
-  <si>
-    <t>Guilhotinas</t>
-  </si>
-  <si>
-    <t>GUILHOTINAS</t>
-  </si>
-  <si>
-    <t>GUINCHEIRO INDEPENDENTE - REBOQUE DE VEÍCULOS</t>
-  </si>
-  <si>
-    <t>Guinchos</t>
-  </si>
-  <si>
-    <t>GUINCHOS</t>
-  </si>
-  <si>
-    <t>Guinchos - Fab e Manutenção</t>
-  </si>
-  <si>
-    <t>GUINCHOS - FAB E MANUTENÇÃO</t>
-  </si>
-  <si>
-    <t>Guindastes</t>
-  </si>
-  <si>
-    <t>GUINDASTES</t>
-  </si>
-  <si>
-    <t>Guindastes - Conserto e Peças</t>
-  </si>
-  <si>
-    <t>GUINDASTES - CONSERTO E PEÇAS</t>
-  </si>
-  <si>
-    <t>Guindastes - Fab</t>
-  </si>
-  <si>
-    <t>GUINDASTES - FAB</t>
+    <t>TEATROS1</t>
   </si>
   <si>
     <t>Hamburguerias</t>
@@ -18994,6 +18994,9 @@
     <t>ROUPAS UNISSEX - LOJAS</t>
   </si>
   <si>
+    <t>Serviços advocatícios</t>
+  </si>
+  <si>
     <t>Serviços de arquitetura</t>
   </si>
   <si>
@@ -19426,12 +19429,6 @@
     <t>SERVIÇO MÓVEL ESPECIALIZADO - SME</t>
   </si>
   <si>
-    <t>Serviços advocatícios</t>
-  </si>
-  <si>
-    <t>SERVIÇOS ADVOCATÍCIOS</t>
-  </si>
-  <si>
     <t>Serviços ambulantes de alimentação</t>
   </si>
   <si>
@@ -20188,6 +20185,9 @@
     <t>SURF - ART E EQUIP</t>
   </si>
   <si>
+    <t>Teatros</t>
+  </si>
+  <si>
     <t>Tabacaria</t>
   </si>
   <si>
@@ -20306,12 +20306,6 @@
   </si>
   <si>
     <t>TEAR MANUAL</t>
-  </si>
-  <si>
-    <t>Teatros</t>
-  </si>
-  <si>
-    <t>TEATROS</t>
   </si>
   <si>
     <t>Tecelagem de fios de algodão</t>
@@ -52122,7 +52116,7 @@
     </row>
     <row r="2171" spans="1:4">
       <c r="A2171" s="0" t="n">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="B2171" s="0" t="s">
         <v>4158</v>
@@ -52136,7 +52130,7 @@
     </row>
     <row r="2172" spans="1:4">
       <c r="A2172" s="0" t="n">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="B2172" s="0" t="s">
         <v>4160</v>
@@ -52150,7 +52144,7 @@
     </row>
     <row r="2173" spans="1:4">
       <c r="A2173" s="0" t="n">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="B2173" s="0" t="s">
         <v>4162</v>
@@ -52164,7 +52158,7 @@
     </row>
     <row r="2174" spans="1:4">
       <c r="A2174" s="0" t="n">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="B2174" s="0" t="s">
         <v>4164</v>
@@ -52178,7 +52172,7 @@
     </row>
     <row r="2175" spans="1:4">
       <c r="A2175" s="0" t="n">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="B2175" s="0" t="s">
         <v>4166</v>
@@ -52192,7 +52186,7 @@
     </row>
     <row r="2176" spans="1:4">
       <c r="A2176" s="0" t="n">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="B2176" s="0" t="s">
         <v>4168</v>
@@ -52206,7 +52200,7 @@
     </row>
     <row r="2177" spans="1:4">
       <c r="A2177" s="0" t="n">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="B2177" s="0" t="s">
         <v>4170</v>
@@ -52220,7 +52214,7 @@
     </row>
     <row r="2178" spans="1:4">
       <c r="A2178" s="0" t="n">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="B2178" s="0" t="s">
         <v>4172</v>
@@ -52234,7 +52228,7 @@
     </row>
     <row r="2179" spans="1:4">
       <c r="A2179" s="0" t="n">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="B2179" s="0" t="s">
         <v>4174</v>
@@ -52248,7 +52242,7 @@
     </row>
     <row r="2180" spans="1:4">
       <c r="A2180" s="0" t="n">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="B2180" s="0" t="s">
         <v>4176</v>
@@ -52262,7 +52256,7 @@
     </row>
     <row r="2181" spans="1:4">
       <c r="A2181" s="0" t="n">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="B2181" s="0" t="s">
         <v>4178</v>
@@ -52276,7 +52270,7 @@
     </row>
     <row r="2182" spans="1:4">
       <c r="A2182" s="0" t="n">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="B2182" s="0" t="s">
         <v>4180</v>
@@ -52290,7 +52284,7 @@
     </row>
     <row r="2183" spans="1:4">
       <c r="A2183" s="0" t="n">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B2183" s="0" t="s">
         <v>4182</v>
@@ -52304,7 +52298,7 @@
     </row>
     <row r="2184" spans="1:4">
       <c r="A2184" s="0" t="n">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="B2184" s="0" t="s">
         <v>4184</v>
@@ -52318,7 +52312,7 @@
     </row>
     <row r="2185" spans="1:4">
       <c r="A2185" s="0" t="n">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B2185" s="0" t="s">
         <v>4186</v>
@@ -52332,7 +52326,7 @@
     </row>
     <row r="2186" spans="1:4">
       <c r="A2186" s="0" t="n">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="B2186" s="0" t="s">
         <v>4188</v>
@@ -52346,7 +52340,7 @@
     </row>
     <row r="2187" spans="1:4">
       <c r="A2187" s="0" t="n">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="B2187" s="0" t="s">
         <v>4190</v>
@@ -52360,7 +52354,7 @@
     </row>
     <row r="2188" spans="1:4">
       <c r="A2188" s="0" t="n">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="B2188" s="0" t="s">
         <v>4192</v>
@@ -52374,7 +52368,7 @@
     </row>
     <row r="2189" spans="1:4">
       <c r="A2189" s="0" t="n">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="B2189" s="0" t="s">
         <v>4194</v>
@@ -52388,7 +52382,7 @@
     </row>
     <row r="2190" spans="1:4">
       <c r="A2190" s="0" t="n">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="B2190" s="0" t="s">
         <v>4196</v>
@@ -52402,7 +52396,7 @@
     </row>
     <row r="2191" spans="1:4">
       <c r="A2191" s="0" t="n">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="B2191" s="0" t="s">
         <v>4198</v>
@@ -52416,13 +52410,13 @@
     </row>
     <row r="2192" spans="1:4">
       <c r="A2192" s="0" t="n">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="B2192" s="0" t="s">
         <v>4200</v>
       </c>
       <c r="C2192" s="0" t="s">
-        <v>4201</v>
+        <v>4200</v>
       </c>
       <c r="D2192" s="0" t="s">
         <v>15</v>
@@ -52430,10 +52424,10 @@
     </row>
     <row r="2193" spans="1:4">
       <c r="A2193" s="0" t="n">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="B2193" s="0" t="s">
-        <v>4202</v>
+        <v>4201</v>
       </c>
       <c r="C2193" s="0" t="s">
         <v>4202</v>
@@ -52444,7 +52438,7 @@
     </row>
     <row r="2194" spans="1:4">
       <c r="A2194" s="0" t="n">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="B2194" s="0" t="s">
         <v>4203</v>
@@ -52458,7 +52452,7 @@
     </row>
     <row r="2195" spans="1:4">
       <c r="A2195" s="0" t="n">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="B2195" s="0" t="s">
         <v>4205</v>
@@ -52472,7 +52466,7 @@
     </row>
     <row r="2196" spans="1:4">
       <c r="A2196" s="0" t="n">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="B2196" s="0" t="s">
         <v>4207</v>
@@ -52486,7 +52480,7 @@
     </row>
     <row r="2197" spans="1:4">
       <c r="A2197" s="0" t="n">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="B2197" s="0" t="s">
         <v>4209</v>
@@ -52500,7 +52494,7 @@
     </row>
     <row r="2198" spans="1:4">
       <c r="A2198" s="0" t="n">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="B2198" s="0" t="s">
         <v>4211</v>
@@ -52514,7 +52508,7 @@
     </row>
     <row r="2199" spans="1:4">
       <c r="A2199" s="0" t="n">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="B2199" s="0" t="s">
         <v>4213</v>
@@ -52528,13 +52522,13 @@
     </row>
     <row r="2200" spans="1:4">
       <c r="A2200" s="0" t="n">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="B2200" s="0" t="s">
         <v>4215</v>
       </c>
       <c r="C2200" s="0" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
       <c r="D2200" s="0" t="s">
         <v>15</v>
@@ -52542,13 +52536,13 @@
     </row>
     <row r="2201" spans="1:4">
       <c r="A2201" s="0" t="n">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="B2201" s="0" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C2201" s="0" t="s">
         <v>4217</v>
-      </c>
-      <c r="C2201" s="0" t="s">
-        <v>4216</v>
       </c>
       <c r="D2201" s="0" t="s">
         <v>15</v>
@@ -52556,7 +52550,7 @@
     </row>
     <row r="2202" spans="1:4">
       <c r="A2202" s="0" t="n">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="B2202" s="0" t="s">
         <v>4218</v>
@@ -52570,13 +52564,13 @@
     </row>
     <row r="2203" spans="1:4">
       <c r="A2203" s="0" t="n">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="B2203" s="0" t="s">
         <v>4220</v>
       </c>
       <c r="C2203" s="0" t="s">
-        <v>4221</v>
+        <v>4220</v>
       </c>
       <c r="D2203" s="0" t="s">
         <v>15</v>
@@ -52584,13 +52578,13 @@
     </row>
     <row r="2204" spans="1:4">
       <c r="A2204" s="0" t="n">
-        <v>2202</v>
+        <v>2207</v>
       </c>
       <c r="B2204" s="0" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="C2204" s="0" t="s">
-        <v>4222</v>
+        <v>4221</v>
       </c>
       <c r="D2204" s="0" t="s">
         <v>15</v>
@@ -52598,10 +52592,10 @@
     </row>
     <row r="2205" spans="1:4">
       <c r="A2205" s="0" t="n">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="B2205" s="0" t="s">
-        <v>4223</v>
+        <v>4222</v>
       </c>
       <c r="C2205" s="0" t="s">
         <v>4223</v>
@@ -52612,13 +52606,13 @@
     </row>
     <row r="2206" spans="1:4">
       <c r="A2206" s="0" t="n">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="B2206" s="0" t="s">
         <v>4224</v>
       </c>
       <c r="C2206" s="0" t="s">
-        <v>4225</v>
+        <v>4224</v>
       </c>
       <c r="D2206" s="0" t="s">
         <v>15</v>
@@ -52626,10 +52620,10 @@
     </row>
     <row r="2207" spans="1:4">
       <c r="A2207" s="0" t="n">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B2207" s="0" t="s">
-        <v>4226</v>
+        <v>4225</v>
       </c>
       <c r="C2207" s="0" t="s">
         <v>4226</v>
@@ -52640,7 +52634,7 @@
     </row>
     <row r="2208" spans="1:4">
       <c r="A2208" s="0" t="n">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="B2208" s="0" t="s">
         <v>4227</v>
@@ -52654,7 +52648,7 @@
     </row>
     <row r="2209" spans="1:4">
       <c r="A2209" s="0" t="n">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="B2209" s="0" t="s">
         <v>4229</v>
@@ -52668,7 +52662,7 @@
     </row>
     <row r="2210" spans="1:4">
       <c r="A2210" s="0" t="n">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="B2210" s="0" t="s">
         <v>4231</v>
@@ -52682,7 +52676,7 @@
     </row>
     <row r="2211" spans="1:4">
       <c r="A2211" s="0" t="n">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="B2211" s="0" t="s">
         <v>4233</v>
@@ -52696,7 +52690,7 @@
     </row>
     <row r="2212" spans="1:4">
       <c r="A2212" s="0" t="n">
-        <v>2214</v>
+        <v>2173</v>
       </c>
       <c r="B2212" s="0" t="s">
         <v>4235</v>
@@ -68418,13 +68412,13 @@
     </row>
     <row r="3335" spans="1:4">
       <c r="A3335" s="0" t="n">
-        <v>3426</v>
+        <v>3416</v>
       </c>
       <c r="B3335" s="0" t="s">
         <v>6327</v>
       </c>
       <c r="C3335" s="0" t="s">
-        <v>6328</v>
+        <v>89</v>
       </c>
       <c r="D3335" s="0" t="s">
         <v>15</v>
@@ -68432,13 +68426,13 @@
     </row>
     <row r="3336" spans="1:4">
       <c r="A3336" s="0" t="n">
-        <v>3430</v>
+        <v>3426</v>
       </c>
       <c r="B3336" s="0" t="s">
+        <v>6328</v>
+      </c>
+      <c r="C3336" s="0" t="s">
         <v>6329</v>
-      </c>
-      <c r="C3336" s="0" t="s">
-        <v>6330</v>
       </c>
       <c r="D3336" s="0" t="s">
         <v>15</v>
@@ -68446,13 +68440,13 @@
     </row>
     <row r="3337" spans="1:4">
       <c r="A3337" s="0" t="n">
-        <v>3342</v>
+        <v>3430</v>
       </c>
       <c r="B3337" s="0" t="s">
+        <v>6330</v>
+      </c>
+      <c r="C3337" s="0" t="s">
         <v>6331</v>
-      </c>
-      <c r="C3337" s="0" t="s">
-        <v>6332</v>
       </c>
       <c r="D3337" s="0" t="s">
         <v>15</v>
@@ -68460,13 +68454,13 @@
     </row>
     <row r="3338" spans="1:4">
       <c r="A3338" s="0" t="n">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B3338" s="0" t="s">
+        <v>6332</v>
+      </c>
+      <c r="C3338" s="0" t="s">
         <v>6333</v>
-      </c>
-      <c r="C3338" s="0" t="s">
-        <v>6334</v>
       </c>
       <c r="D3338" s="0" t="s">
         <v>15</v>
@@ -68474,13 +68468,13 @@
     </row>
     <row r="3339" spans="1:4">
       <c r="A3339" s="0" t="n">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B3339" s="0" t="s">
+        <v>6334</v>
+      </c>
+      <c r="C3339" s="0" t="s">
         <v>6335</v>
-      </c>
-      <c r="C3339" s="0" t="s">
-        <v>6336</v>
       </c>
       <c r="D3339" s="0" t="s">
         <v>15</v>
@@ -68488,13 +68482,13 @@
     </row>
     <row r="3340" spans="1:4">
       <c r="A3340" s="0" t="n">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B3340" s="0" t="s">
+        <v>6336</v>
+      </c>
+      <c r="C3340" s="0" t="s">
         <v>6337</v>
-      </c>
-      <c r="C3340" s="0" t="s">
-        <v>6338</v>
       </c>
       <c r="D3340" s="0" t="s">
         <v>15</v>
@@ -68502,13 +68496,13 @@
     </row>
     <row r="3341" spans="1:4">
       <c r="A3341" s="0" t="n">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B3341" s="0" t="s">
+        <v>6338</v>
+      </c>
+      <c r="C3341" s="0" t="s">
         <v>6339</v>
-      </c>
-      <c r="C3341" s="0" t="s">
-        <v>6340</v>
       </c>
       <c r="D3341" s="0" t="s">
         <v>15</v>
@@ -68516,13 +68510,13 @@
     </row>
     <row r="3342" spans="1:4">
       <c r="A3342" s="0" t="n">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="B3342" s="0" t="s">
+        <v>6340</v>
+      </c>
+      <c r="C3342" s="0" t="s">
         <v>6341</v>
-      </c>
-      <c r="C3342" s="0" t="s">
-        <v>6342</v>
       </c>
       <c r="D3342" s="0" t="s">
         <v>15</v>
@@ -68530,13 +68524,13 @@
     </row>
     <row r="3343" spans="1:4">
       <c r="A3343" s="0" t="n">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="B3343" s="0" t="s">
+        <v>6342</v>
+      </c>
+      <c r="C3343" s="0" t="s">
         <v>6343</v>
-      </c>
-      <c r="C3343" s="0" t="s">
-        <v>6344</v>
       </c>
       <c r="D3343" s="0" t="s">
         <v>15</v>
@@ -68544,10 +68538,10 @@
     </row>
     <row r="3344" spans="1:4">
       <c r="A3344" s="0" t="n">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B3344" s="0" t="s">
-        <v>6345</v>
+        <v>6344</v>
       </c>
       <c r="C3344" s="0" t="s">
         <v>6345</v>
@@ -68558,13 +68552,13 @@
     </row>
     <row r="3345" spans="1:4">
       <c r="A3345" s="0" t="n">
-        <v>3350</v>
+        <v>3349</v>
       </c>
       <c r="B3345" s="0" t="s">
         <v>6346</v>
       </c>
       <c r="C3345" s="0" t="s">
-        <v>6347</v>
+        <v>6346</v>
       </c>
       <c r="D3345" s="0" t="s">
         <v>15</v>
@@ -68572,10 +68566,10 @@
     </row>
     <row r="3346" spans="1:4">
       <c r="A3346" s="0" t="n">
-        <v>3351</v>
+        <v>3350</v>
       </c>
       <c r="B3346" s="0" t="s">
-        <v>6348</v>
+        <v>6347</v>
       </c>
       <c r="C3346" s="0" t="s">
         <v>6348</v>
@@ -68586,13 +68580,13 @@
     </row>
     <row r="3347" spans="1:4">
       <c r="A3347" s="0" t="n">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="B3347" s="0" t="s">
         <v>6349</v>
       </c>
       <c r="C3347" s="0" t="s">
-        <v>6350</v>
+        <v>6349</v>
       </c>
       <c r="D3347" s="0" t="s">
         <v>15</v>
@@ -68600,13 +68594,13 @@
     </row>
     <row r="3348" spans="1:4">
       <c r="A3348" s="0" t="n">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="B3348" s="0" t="s">
+        <v>6350</v>
+      </c>
+      <c r="C3348" s="0" t="s">
         <v>6351</v>
-      </c>
-      <c r="C3348" s="0" t="s">
-        <v>6352</v>
       </c>
       <c r="D3348" s="0" t="s">
         <v>15</v>
@@ -68614,10 +68608,10 @@
     </row>
     <row r="3349" spans="1:4">
       <c r="A3349" s="0" t="n">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="B3349" s="0" t="s">
-        <v>6353</v>
+        <v>6352</v>
       </c>
       <c r="C3349" s="0" t="s">
         <v>6353</v>
@@ -68628,13 +68622,13 @@
     </row>
     <row r="3350" spans="1:4">
       <c r="A3350" s="0" t="n">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="B3350" s="0" t="s">
         <v>6354</v>
       </c>
       <c r="C3350" s="0" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
       <c r="D3350" s="0" t="s">
         <v>15</v>
@@ -68642,13 +68636,13 @@
     </row>
     <row r="3351" spans="1:4">
       <c r="A3351" s="0" t="n">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="B3351" s="0" t="s">
+        <v>6355</v>
+      </c>
+      <c r="C3351" s="0" t="s">
         <v>6356</v>
-      </c>
-      <c r="C3351" s="0" t="s">
-        <v>6357</v>
       </c>
       <c r="D3351" s="0" t="s">
         <v>15</v>
@@ -68656,13 +68650,13 @@
     </row>
     <row r="3352" spans="1:4">
       <c r="A3352" s="0" t="n">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="B3352" s="0" t="s">
+        <v>6357</v>
+      </c>
+      <c r="C3352" s="0" t="s">
         <v>6358</v>
-      </c>
-      <c r="C3352" s="0" t="s">
-        <v>6359</v>
       </c>
       <c r="D3352" s="0" t="s">
         <v>15</v>
@@ -68670,13 +68664,13 @@
     </row>
     <row r="3353" spans="1:4">
       <c r="A3353" s="0" t="n">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="B3353" s="0" t="s">
+        <v>6359</v>
+      </c>
+      <c r="C3353" s="0" t="s">
         <v>6360</v>
-      </c>
-      <c r="C3353" s="0" t="s">
-        <v>6361</v>
       </c>
       <c r="D3353" s="0" t="s">
         <v>15</v>
@@ -68684,13 +68678,13 @@
     </row>
     <row r="3354" spans="1:4">
       <c r="A3354" s="0" t="n">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="B3354" s="0" t="s">
+        <v>6361</v>
+      </c>
+      <c r="C3354" s="0" t="s">
         <v>6362</v>
-      </c>
-      <c r="C3354" s="0" t="s">
-        <v>6363</v>
       </c>
       <c r="D3354" s="0" t="s">
         <v>15</v>
@@ -68698,13 +68692,13 @@
     </row>
     <row r="3355" spans="1:4">
       <c r="A3355" s="0" t="n">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="B3355" s="0" t="s">
+        <v>6363</v>
+      </c>
+      <c r="C3355" s="0" t="s">
         <v>6364</v>
-      </c>
-      <c r="C3355" s="0" t="s">
-        <v>6365</v>
       </c>
       <c r="D3355" s="0" t="s">
         <v>15</v>
@@ -68712,13 +68706,13 @@
     </row>
     <row r="3356" spans="1:4">
       <c r="A3356" s="0" t="n">
-        <v>3361</v>
+        <v>3360</v>
       </c>
       <c r="B3356" s="0" t="s">
+        <v>6365</v>
+      </c>
+      <c r="C3356" s="0" t="s">
         <v>6366</v>
-      </c>
-      <c r="C3356" s="0" t="s">
-        <v>6367</v>
       </c>
       <c r="D3356" s="0" t="s">
         <v>15</v>
@@ -68726,10 +68720,10 @@
     </row>
     <row r="3357" spans="1:4">
       <c r="A3357" s="0" t="n">
-        <v>3362</v>
+        <v>3361</v>
       </c>
       <c r="B3357" s="0" t="s">
-        <v>6368</v>
+        <v>6367</v>
       </c>
       <c r="C3357" s="0" t="s">
         <v>6368</v>
@@ -68740,13 +68734,13 @@
     </row>
     <row r="3358" spans="1:4">
       <c r="A3358" s="0" t="n">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="B3358" s="0" t="s">
         <v>6369</v>
       </c>
       <c r="C3358" s="0" t="s">
-        <v>6370</v>
+        <v>6369</v>
       </c>
       <c r="D3358" s="0" t="s">
         <v>15</v>
@@ -68754,13 +68748,13 @@
     </row>
     <row r="3359" spans="1:4">
       <c r="A3359" s="0" t="n">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="B3359" s="0" t="s">
+        <v>6370</v>
+      </c>
+      <c r="C3359" s="0" t="s">
         <v>6371</v>
-      </c>
-      <c r="C3359" s="0" t="s">
-        <v>6372</v>
       </c>
       <c r="D3359" s="0" t="s">
         <v>15</v>
@@ -68768,13 +68762,13 @@
     </row>
     <row r="3360" spans="1:4">
       <c r="A3360" s="0" t="n">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="B3360" s="0" t="s">
+        <v>6372</v>
+      </c>
+      <c r="C3360" s="0" t="s">
         <v>6373</v>
-      </c>
-      <c r="C3360" s="0" t="s">
-        <v>6374</v>
       </c>
       <c r="D3360" s="0" t="s">
         <v>15</v>
@@ -68782,13 +68776,13 @@
     </row>
     <row r="3361" spans="1:4">
       <c r="A3361" s="0" t="n">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="B3361" s="0" t="s">
+        <v>6374</v>
+      </c>
+      <c r="C3361" s="0" t="s">
         <v>6375</v>
-      </c>
-      <c r="C3361" s="0" t="s">
-        <v>6376</v>
       </c>
       <c r="D3361" s="0" t="s">
         <v>15</v>
@@ -68796,13 +68790,13 @@
     </row>
     <row r="3362" spans="1:4">
       <c r="A3362" s="0" t="n">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="B3362" s="0" t="s">
+        <v>6376</v>
+      </c>
+      <c r="C3362" s="0" t="s">
         <v>6377</v>
-      </c>
-      <c r="C3362" s="0" t="s">
-        <v>6378</v>
       </c>
       <c r="D3362" s="0" t="s">
         <v>15</v>
@@ -68810,13 +68804,13 @@
     </row>
     <row r="3363" spans="1:4">
       <c r="A3363" s="0" t="n">
-        <v>3368</v>
+        <v>3367</v>
       </c>
       <c r="B3363" s="0" t="s">
+        <v>6378</v>
+      </c>
+      <c r="C3363" s="0" t="s">
         <v>6379</v>
-      </c>
-      <c r="C3363" s="0" t="s">
-        <v>6380</v>
       </c>
       <c r="D3363" s="0" t="s">
         <v>15</v>
@@ -68824,13 +68818,13 @@
     </row>
     <row r="3364" spans="1:4">
       <c r="A3364" s="0" t="n">
-        <v>3369</v>
+        <v>3368</v>
       </c>
       <c r="B3364" s="0" t="s">
+        <v>6380</v>
+      </c>
+      <c r="C3364" s="0" t="s">
         <v>6381</v>
-      </c>
-      <c r="C3364" s="0" t="s">
-        <v>6382</v>
       </c>
       <c r="D3364" s="0" t="s">
         <v>15</v>
@@ -68838,13 +68832,13 @@
     </row>
     <row r="3365" spans="1:4">
       <c r="A3365" s="0" t="n">
-        <v>3370</v>
+        <v>3369</v>
       </c>
       <c r="B3365" s="0" t="s">
+        <v>6382</v>
+      </c>
+      <c r="C3365" s="0" t="s">
         <v>6383</v>
-      </c>
-      <c r="C3365" s="0" t="s">
-        <v>6384</v>
       </c>
       <c r="D3365" s="0" t="s">
         <v>15</v>
@@ -68852,13 +68846,13 @@
     </row>
     <row r="3366" spans="1:4">
       <c r="A3366" s="0" t="n">
-        <v>3371</v>
+        <v>3370</v>
       </c>
       <c r="B3366" s="0" t="s">
+        <v>6384</v>
+      </c>
+      <c r="C3366" s="0" t="s">
         <v>6385</v>
-      </c>
-      <c r="C3366" s="0" t="s">
-        <v>6386</v>
       </c>
       <c r="D3366" s="0" t="s">
         <v>15</v>
@@ -68866,13 +68860,13 @@
     </row>
     <row r="3367" spans="1:4">
       <c r="A3367" s="0" t="n">
-        <v>3372</v>
+        <v>3371</v>
       </c>
       <c r="B3367" s="0" t="s">
+        <v>6386</v>
+      </c>
+      <c r="C3367" s="0" t="s">
         <v>6387</v>
-      </c>
-      <c r="C3367" s="0" t="s">
-        <v>6388</v>
       </c>
       <c r="D3367" s="0" t="s">
         <v>15</v>
@@ -68880,13 +68874,13 @@
     </row>
     <row r="3368" spans="1:4">
       <c r="A3368" s="0" t="n">
-        <v>3373</v>
+        <v>3372</v>
       </c>
       <c r="B3368" s="0" t="s">
+        <v>6388</v>
+      </c>
+      <c r="C3368" s="0" t="s">
         <v>6389</v>
-      </c>
-      <c r="C3368" s="0" t="s">
-        <v>6390</v>
       </c>
       <c r="D3368" s="0" t="s">
         <v>15</v>
@@ -68894,13 +68888,13 @@
     </row>
     <row r="3369" spans="1:4">
       <c r="A3369" s="0" t="n">
-        <v>3374</v>
+        <v>3373</v>
       </c>
       <c r="B3369" s="0" t="s">
+        <v>6390</v>
+      </c>
+      <c r="C3369" s="0" t="s">
         <v>6391</v>
-      </c>
-      <c r="C3369" s="0" t="s">
-        <v>6392</v>
       </c>
       <c r="D3369" s="0" t="s">
         <v>15</v>
@@ -68908,13 +68902,13 @@
     </row>
     <row r="3370" spans="1:4">
       <c r="A3370" s="0" t="n">
-        <v>3375</v>
+        <v>3374</v>
       </c>
       <c r="B3370" s="0" t="s">
+        <v>6392</v>
+      </c>
+      <c r="C3370" s="0" t="s">
         <v>6393</v>
-      </c>
-      <c r="C3370" s="0" t="s">
-        <v>6394</v>
       </c>
       <c r="D3370" s="0" t="s">
         <v>15</v>
@@ -68922,13 +68916,13 @@
     </row>
     <row r="3371" spans="1:4">
       <c r="A3371" s="0" t="n">
-        <v>3376</v>
+        <v>3375</v>
       </c>
       <c r="B3371" s="0" t="s">
+        <v>6394</v>
+      </c>
+      <c r="C3371" s="0" t="s">
         <v>6395</v>
-      </c>
-      <c r="C3371" s="0" t="s">
-        <v>6396</v>
       </c>
       <c r="D3371" s="0" t="s">
         <v>15</v>
@@ -68936,13 +68930,13 @@
     </row>
     <row r="3372" spans="1:4">
       <c r="A3372" s="0" t="n">
-        <v>3377</v>
+        <v>3376</v>
       </c>
       <c r="B3372" s="0" t="s">
+        <v>6396</v>
+      </c>
+      <c r="C3372" s="0" t="s">
         <v>6397</v>
-      </c>
-      <c r="C3372" s="0" t="s">
-        <v>6398</v>
       </c>
       <c r="D3372" s="0" t="s">
         <v>15</v>
@@ -68950,13 +68944,13 @@
     </row>
     <row r="3373" spans="1:4">
       <c r="A3373" s="0" t="n">
-        <v>3378</v>
+        <v>3377</v>
       </c>
       <c r="B3373" s="0" t="s">
+        <v>6398</v>
+      </c>
+      <c r="C3373" s="0" t="s">
         <v>6399</v>
-      </c>
-      <c r="C3373" s="0" t="s">
-        <v>6400</v>
       </c>
       <c r="D3373" s="0" t="s">
         <v>15</v>
@@ -68964,13 +68958,13 @@
     </row>
     <row r="3374" spans="1:4">
       <c r="A3374" s="0" t="n">
-        <v>3379</v>
+        <v>3378</v>
       </c>
       <c r="B3374" s="0" t="s">
+        <v>6400</v>
+      </c>
+      <c r="C3374" s="0" t="s">
         <v>6401</v>
-      </c>
-      <c r="C3374" s="0" t="s">
-        <v>6402</v>
       </c>
       <c r="D3374" s="0" t="s">
         <v>15</v>
@@ -68978,13 +68972,13 @@
     </row>
     <row r="3375" spans="1:4">
       <c r="A3375" s="0" t="n">
-        <v>3380</v>
+        <v>3379</v>
       </c>
       <c r="B3375" s="0" t="s">
+        <v>6402</v>
+      </c>
+      <c r="C3375" s="0" t="s">
         <v>6403</v>
-      </c>
-      <c r="C3375" s="0" t="s">
-        <v>6404</v>
       </c>
       <c r="D3375" s="0" t="s">
         <v>15</v>
@@ -68992,13 +68986,13 @@
     </row>
     <row r="3376" spans="1:4">
       <c r="A3376" s="0" t="n">
-        <v>3381</v>
+        <v>3380</v>
       </c>
       <c r="B3376" s="0" t="s">
+        <v>6404</v>
+      </c>
+      <c r="C3376" s="0" t="s">
         <v>6405</v>
-      </c>
-      <c r="C3376" s="0" t="s">
-        <v>6406</v>
       </c>
       <c r="D3376" s="0" t="s">
         <v>15</v>
@@ -69006,13 +69000,13 @@
     </row>
     <row r="3377" spans="1:4">
       <c r="A3377" s="0" t="n">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="B3377" s="0" t="s">
+        <v>6406</v>
+      </c>
+      <c r="C3377" s="0" t="s">
         <v>6407</v>
-      </c>
-      <c r="C3377" s="0" t="s">
-        <v>6408</v>
       </c>
       <c r="D3377" s="0" t="s">
         <v>15</v>
@@ -69020,13 +69014,13 @@
     </row>
     <row r="3378" spans="1:4">
       <c r="A3378" s="0" t="n">
-        <v>3383</v>
+        <v>3382</v>
       </c>
       <c r="B3378" s="0" t="s">
+        <v>6408</v>
+      </c>
+      <c r="C3378" s="0" t="s">
         <v>6409</v>
-      </c>
-      <c r="C3378" s="0" t="s">
-        <v>6410</v>
       </c>
       <c r="D3378" s="0" t="s">
         <v>15</v>
@@ -69034,13 +69028,13 @@
     </row>
     <row r="3379" spans="1:4">
       <c r="A3379" s="0" t="n">
-        <v>3384</v>
+        <v>3383</v>
       </c>
       <c r="B3379" s="0" t="s">
+        <v>6410</v>
+      </c>
+      <c r="C3379" s="0" t="s">
         <v>6411</v>
-      </c>
-      <c r="C3379" s="0" t="s">
-        <v>6412</v>
       </c>
       <c r="D3379" s="0" t="s">
         <v>15</v>
@@ -69048,13 +69042,13 @@
     </row>
     <row r="3380" spans="1:4">
       <c r="A3380" s="0" t="n">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="B3380" s="0" t="s">
+        <v>6412</v>
+      </c>
+      <c r="C3380" s="0" t="s">
         <v>6413</v>
-      </c>
-      <c r="C3380" s="0" t="s">
-        <v>6414</v>
       </c>
       <c r="D3380" s="0" t="s">
         <v>15</v>
@@ -69062,13 +69056,13 @@
     </row>
     <row r="3381" spans="1:4">
       <c r="A3381" s="0" t="n">
-        <v>3386</v>
+        <v>3385</v>
       </c>
       <c r="B3381" s="0" t="s">
+        <v>6414</v>
+      </c>
+      <c r="C3381" s="0" t="s">
         <v>6415</v>
-      </c>
-      <c r="C3381" s="0" t="s">
-        <v>6416</v>
       </c>
       <c r="D3381" s="0" t="s">
         <v>15</v>
@@ -69076,10 +69070,10 @@
     </row>
     <row r="3382" spans="1:4">
       <c r="A3382" s="0" t="n">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="B3382" s="0" t="s">
-        <v>6417</v>
+        <v>6416</v>
       </c>
       <c r="C3382" s="0" t="s">
         <v>6417</v>
@@ -69090,13 +69084,13 @@
     </row>
     <row r="3383" spans="1:4">
       <c r="A3383" s="0" t="n">
-        <v>3388</v>
+        <v>3387</v>
       </c>
       <c r="B3383" s="0" t="s">
         <v>6418</v>
       </c>
       <c r="C3383" s="0" t="s">
-        <v>6419</v>
+        <v>6418</v>
       </c>
       <c r="D3383" s="0" t="s">
         <v>15</v>
@@ -69104,13 +69098,13 @@
     </row>
     <row r="3384" spans="1:4">
       <c r="A3384" s="0" t="n">
-        <v>3389</v>
+        <v>3388</v>
       </c>
       <c r="B3384" s="0" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C3384" s="0" t="s">
         <v>6420</v>
-      </c>
-      <c r="C3384" s="0" t="s">
-        <v>6421</v>
       </c>
       <c r="D3384" s="0" t="s">
         <v>15</v>
@@ -69118,13 +69112,13 @@
     </row>
     <row r="3385" spans="1:4">
       <c r="A3385" s="0" t="n">
-        <v>3390</v>
+        <v>3389</v>
       </c>
       <c r="B3385" s="0" t="s">
+        <v>6421</v>
+      </c>
+      <c r="C3385" s="0" t="s">
         <v>6422</v>
-      </c>
-      <c r="C3385" s="0" t="s">
-        <v>6423</v>
       </c>
       <c r="D3385" s="0" t="s">
         <v>15</v>
@@ -69132,13 +69126,13 @@
     </row>
     <row r="3386" spans="1:4">
       <c r="A3386" s="0" t="n">
-        <v>3391</v>
+        <v>3390</v>
       </c>
       <c r="B3386" s="0" t="s">
+        <v>6423</v>
+      </c>
+      <c r="C3386" s="0" t="s">
         <v>6424</v>
-      </c>
-      <c r="C3386" s="0" t="s">
-        <v>6425</v>
       </c>
       <c r="D3386" s="0" t="s">
         <v>15</v>
@@ -69146,10 +69140,10 @@
     </row>
     <row r="3387" spans="1:4">
       <c r="A3387" s="0" t="n">
-        <v>3392</v>
+        <v>3391</v>
       </c>
       <c r="B3387" s="0" t="s">
-        <v>6426</v>
+        <v>6425</v>
       </c>
       <c r="C3387" s="0" t="s">
         <v>6426</v>
@@ -69160,7 +69154,7 @@
     </row>
     <row r="3388" spans="1:4">
       <c r="A3388" s="0" t="n">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="B3388" s="0" t="s">
         <v>6427</v>
@@ -69174,7 +69168,7 @@
     </row>
     <row r="3389" spans="1:4">
       <c r="A3389" s="0" t="n">
-        <v>3394</v>
+        <v>3393</v>
       </c>
       <c r="B3389" s="0" t="s">
         <v>6428</v>
@@ -69188,13 +69182,13 @@
     </row>
     <row r="3390" spans="1:4">
       <c r="A3390" s="0" t="n">
-        <v>3395</v>
+        <v>3394</v>
       </c>
       <c r="B3390" s="0" t="s">
         <v>6429</v>
       </c>
       <c r="C3390" s="0" t="s">
-        <v>6430</v>
+        <v>6429</v>
       </c>
       <c r="D3390" s="0" t="s">
         <v>15</v>
@@ -69202,13 +69196,13 @@
     </row>
     <row r="3391" spans="1:4">
       <c r="A3391" s="0" t="n">
-        <v>3396</v>
+        <v>3395</v>
       </c>
       <c r="B3391" s="0" t="s">
+        <v>6430</v>
+      </c>
+      <c r="C3391" s="0" t="s">
         <v>6431</v>
-      </c>
-      <c r="C3391" s="0" t="s">
-        <v>6432</v>
       </c>
       <c r="D3391" s="0" t="s">
         <v>15</v>
@@ -69216,13 +69210,13 @@
     </row>
     <row r="3392" spans="1:4">
       <c r="A3392" s="0" t="n">
-        <v>3397</v>
+        <v>3396</v>
       </c>
       <c r="B3392" s="0" t="s">
+        <v>6432</v>
+      </c>
+      <c r="C3392" s="0" t="s">
         <v>6433</v>
-      </c>
-      <c r="C3392" s="0" t="s">
-        <v>6434</v>
       </c>
       <c r="D3392" s="0" t="s">
         <v>15</v>
@@ -69230,13 +69224,13 @@
     </row>
     <row r="3393" spans="1:4">
       <c r="A3393" s="0" t="n">
-        <v>3398</v>
+        <v>3397</v>
       </c>
       <c r="B3393" s="0" t="s">
+        <v>6434</v>
+      </c>
+      <c r="C3393" s="0" t="s">
         <v>6435</v>
-      </c>
-      <c r="C3393" s="0" t="s">
-        <v>6436</v>
       </c>
       <c r="D3393" s="0" t="s">
         <v>15</v>
@@ -69244,13 +69238,13 @@
     </row>
     <row r="3394" spans="1:4">
       <c r="A3394" s="0" t="n">
-        <v>3399</v>
+        <v>3398</v>
       </c>
       <c r="B3394" s="0" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C3394" s="0" t="s">
         <v>6437</v>
-      </c>
-      <c r="C3394" s="0" t="s">
-        <v>6438</v>
       </c>
       <c r="D3394" s="0" t="s">
         <v>15</v>
@@ -69258,13 +69252,13 @@
     </row>
     <row r="3395" spans="1:4">
       <c r="A3395" s="0" t="n">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="B3395" s="0" t="s">
+        <v>6438</v>
+      </c>
+      <c r="C3395" s="0" t="s">
         <v>6439</v>
-      </c>
-      <c r="C3395" s="0" t="s">
-        <v>6440</v>
       </c>
       <c r="D3395" s="0" t="s">
         <v>15</v>
@@ -69272,13 +69266,13 @@
     </row>
     <row r="3396" spans="1:4">
       <c r="A3396" s="0" t="n">
-        <v>3401</v>
+        <v>3400</v>
       </c>
       <c r="B3396" s="0" t="s">
+        <v>6440</v>
+      </c>
+      <c r="C3396" s="0" t="s">
         <v>6441</v>
-      </c>
-      <c r="C3396" s="0" t="s">
-        <v>6442</v>
       </c>
       <c r="D3396" s="0" t="s">
         <v>15</v>
@@ -69286,13 +69280,13 @@
     </row>
     <row r="3397" spans="1:4">
       <c r="A3397" s="0" t="n">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="B3397" s="0" t="s">
+        <v>6442</v>
+      </c>
+      <c r="C3397" s="0" t="s">
         <v>6443</v>
-      </c>
-      <c r="C3397" s="0" t="s">
-        <v>6444</v>
       </c>
       <c r="D3397" s="0" t="s">
         <v>15</v>
@@ -69300,13 +69294,13 @@
     </row>
     <row r="3398" spans="1:4">
       <c r="A3398" s="0" t="n">
-        <v>3403</v>
+        <v>3402</v>
       </c>
       <c r="B3398" s="0" t="s">
+        <v>6444</v>
+      </c>
+      <c r="C3398" s="0" t="s">
         <v>6445</v>
-      </c>
-      <c r="C3398" s="0" t="s">
-        <v>6446</v>
       </c>
       <c r="D3398" s="0" t="s">
         <v>15</v>
@@ -69314,13 +69308,13 @@
     </row>
     <row r="3399" spans="1:4">
       <c r="A3399" s="0" t="n">
-        <v>3404</v>
+        <v>3403</v>
       </c>
       <c r="B3399" s="0" t="s">
+        <v>6446</v>
+      </c>
+      <c r="C3399" s="0" t="s">
         <v>6447</v>
-      </c>
-      <c r="C3399" s="0" t="s">
-        <v>6448</v>
       </c>
       <c r="D3399" s="0" t="s">
         <v>15</v>
@@ -69328,13 +69322,13 @@
     </row>
     <row r="3400" spans="1:4">
       <c r="A3400" s="0" t="n">
-        <v>3405</v>
+        <v>3404</v>
       </c>
       <c r="B3400" s="0" t="s">
+        <v>6448</v>
+      </c>
+      <c r="C3400" s="0" t="s">
         <v>6449</v>
-      </c>
-      <c r="C3400" s="0" t="s">
-        <v>6450</v>
       </c>
       <c r="D3400" s="0" t="s">
         <v>15</v>
@@ -69342,13 +69336,13 @@
     </row>
     <row r="3401" spans="1:4">
       <c r="A3401" s="0" t="n">
-        <v>3406</v>
+        <v>3405</v>
       </c>
       <c r="B3401" s="0" t="s">
+        <v>6450</v>
+      </c>
+      <c r="C3401" s="0" t="s">
         <v>6451</v>
-      </c>
-      <c r="C3401" s="0" t="s">
-        <v>6452</v>
       </c>
       <c r="D3401" s="0" t="s">
         <v>15</v>
@@ -69356,13 +69350,13 @@
     </row>
     <row r="3402" spans="1:4">
       <c r="A3402" s="0" t="n">
-        <v>3407</v>
+        <v>3406</v>
       </c>
       <c r="B3402" s="0" t="s">
+        <v>6452</v>
+      </c>
+      <c r="C3402" s="0" t="s">
         <v>6453</v>
-      </c>
-      <c r="C3402" s="0" t="s">
-        <v>6454</v>
       </c>
       <c r="D3402" s="0" t="s">
         <v>15</v>
@@ -69370,13 +69364,13 @@
     </row>
     <row r="3403" spans="1:4">
       <c r="A3403" s="0" t="n">
-        <v>3408</v>
+        <v>3407</v>
       </c>
       <c r="B3403" s="0" t="s">
+        <v>6454</v>
+      </c>
+      <c r="C3403" s="0" t="s">
         <v>6455</v>
-      </c>
-      <c r="C3403" s="0" t="s">
-        <v>6456</v>
       </c>
       <c r="D3403" s="0" t="s">
         <v>15</v>
@@ -69384,13 +69378,13 @@
     </row>
     <row r="3404" spans="1:4">
       <c r="A3404" s="0" t="n">
-        <v>3409</v>
+        <v>3408</v>
       </c>
       <c r="B3404" s="0" t="s">
+        <v>6456</v>
+      </c>
+      <c r="C3404" s="0" t="s">
         <v>6457</v>
-      </c>
-      <c r="C3404" s="0" t="s">
-        <v>6458</v>
       </c>
       <c r="D3404" s="0" t="s">
         <v>15</v>
@@ -69398,13 +69392,13 @@
     </row>
     <row r="3405" spans="1:4">
       <c r="A3405" s="0" t="n">
-        <v>3410</v>
+        <v>3409</v>
       </c>
       <c r="B3405" s="0" t="s">
+        <v>6458</v>
+      </c>
+      <c r="C3405" s="0" t="s">
         <v>6459</v>
-      </c>
-      <c r="C3405" s="0" t="s">
-        <v>6460</v>
       </c>
       <c r="D3405" s="0" t="s">
         <v>15</v>
@@ -69412,13 +69406,13 @@
     </row>
     <row r="3406" spans="1:4">
       <c r="A3406" s="0" t="n">
-        <v>3411</v>
+        <v>3410</v>
       </c>
       <c r="B3406" s="0" t="s">
+        <v>6460</v>
+      </c>
+      <c r="C3406" s="0" t="s">
         <v>6461</v>
-      </c>
-      <c r="C3406" s="0" t="s">
-        <v>6462</v>
       </c>
       <c r="D3406" s="0" t="s">
         <v>15</v>
@@ -69426,13 +69420,13 @@
     </row>
     <row r="3407" spans="1:4">
       <c r="A3407" s="0" t="n">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="B3407" s="0" t="s">
+        <v>6462</v>
+      </c>
+      <c r="C3407" s="0" t="s">
         <v>6463</v>
-      </c>
-      <c r="C3407" s="0" t="s">
-        <v>6464</v>
       </c>
       <c r="D3407" s="0" t="s">
         <v>15</v>
@@ -69440,13 +69434,13 @@
     </row>
     <row r="3408" spans="1:4">
       <c r="A3408" s="0" t="n">
-        <v>3413</v>
+        <v>3412</v>
       </c>
       <c r="B3408" s="0" t="s">
+        <v>6464</v>
+      </c>
+      <c r="C3408" s="0" t="s">
         <v>6465</v>
-      </c>
-      <c r="C3408" s="0" t="s">
-        <v>6466</v>
       </c>
       <c r="D3408" s="0" t="s">
         <v>15</v>
@@ -69454,13 +69448,13 @@
     </row>
     <row r="3409" spans="1:4">
       <c r="A3409" s="0" t="n">
-        <v>3414</v>
+        <v>3413</v>
       </c>
       <c r="B3409" s="0" t="s">
+        <v>6466</v>
+      </c>
+      <c r="C3409" s="0" t="s">
         <v>6467</v>
-      </c>
-      <c r="C3409" s="0" t="s">
-        <v>6468</v>
       </c>
       <c r="D3409" s="0" t="s">
         <v>15</v>
@@ -69468,13 +69462,13 @@
     </row>
     <row r="3410" spans="1:4">
       <c r="A3410" s="0" t="n">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="B3410" s="0" t="s">
+        <v>6468</v>
+      </c>
+      <c r="C3410" s="0" t="s">
         <v>6469</v>
-      </c>
-      <c r="C3410" s="0" t="s">
-        <v>6470</v>
       </c>
       <c r="D3410" s="0" t="s">
         <v>15</v>
@@ -69482,13 +69476,13 @@
     </row>
     <row r="3411" spans="1:4">
       <c r="A3411" s="0" t="n">
-        <v>3416</v>
+        <v>3415</v>
       </c>
       <c r="B3411" s="0" t="s">
+        <v>6470</v>
+      </c>
+      <c r="C3411" s="0" t="s">
         <v>6471</v>
-      </c>
-      <c r="C3411" s="0" t="s">
-        <v>6472</v>
       </c>
       <c r="D3411" s="0" t="s">
         <v>15</v>
@@ -69499,10 +69493,10 @@
         <v>3417</v>
       </c>
       <c r="B3412" s="0" t="s">
+        <v>6472</v>
+      </c>
+      <c r="C3412" s="0" t="s">
         <v>6473</v>
-      </c>
-      <c r="C3412" s="0" t="s">
-        <v>6474</v>
       </c>
       <c r="D3412" s="0" t="s">
         <v>15</v>
@@ -69513,10 +69507,10 @@
         <v>3418</v>
       </c>
       <c r="B3413" s="0" t="s">
+        <v>6474</v>
+      </c>
+      <c r="C3413" s="0" t="s">
         <v>6475</v>
-      </c>
-      <c r="C3413" s="0" t="s">
-        <v>6476</v>
       </c>
       <c r="D3413" s="0" t="s">
         <v>15</v>
@@ -69527,10 +69521,10 @@
         <v>3419</v>
       </c>
       <c r="B3414" s="0" t="s">
+        <v>6476</v>
+      </c>
+      <c r="C3414" s="0" t="s">
         <v>6477</v>
-      </c>
-      <c r="C3414" s="0" t="s">
-        <v>6478</v>
       </c>
       <c r="D3414" s="0" t="s">
         <v>15</v>
@@ -69541,10 +69535,10 @@
         <v>3420</v>
       </c>
       <c r="B3415" s="0" t="s">
+        <v>6478</v>
+      </c>
+      <c r="C3415" s="0" t="s">
         <v>6479</v>
-      </c>
-      <c r="C3415" s="0" t="s">
-        <v>6480</v>
       </c>
       <c r="D3415" s="0" t="s">
         <v>15</v>
@@ -69555,10 +69549,10 @@
         <v>3421</v>
       </c>
       <c r="B3416" s="0" t="s">
+        <v>6480</v>
+      </c>
+      <c r="C3416" s="0" t="s">
         <v>6481</v>
-      </c>
-      <c r="C3416" s="0" t="s">
-        <v>6482</v>
       </c>
       <c r="D3416" s="0" t="s">
         <v>15</v>
@@ -69569,10 +69563,10 @@
         <v>3422</v>
       </c>
       <c r="B3417" s="0" t="s">
+        <v>6482</v>
+      </c>
+      <c r="C3417" s="0" t="s">
         <v>6483</v>
-      </c>
-      <c r="C3417" s="0" t="s">
-        <v>6484</v>
       </c>
       <c r="D3417" s="0" t="s">
         <v>15</v>
@@ -69583,10 +69577,10 @@
         <v>3423</v>
       </c>
       <c r="B3418" s="0" t="s">
+        <v>6484</v>
+      </c>
+      <c r="C3418" s="0" t="s">
         <v>6485</v>
-      </c>
-      <c r="C3418" s="0" t="s">
-        <v>6486</v>
       </c>
       <c r="D3418" s="0" t="s">
         <v>15</v>
@@ -69597,10 +69591,10 @@
         <v>3424</v>
       </c>
       <c r="B3419" s="0" t="s">
+        <v>6486</v>
+      </c>
+      <c r="C3419" s="0" t="s">
         <v>6487</v>
-      </c>
-      <c r="C3419" s="0" t="s">
-        <v>6488</v>
       </c>
       <c r="D3419" s="0" t="s">
         <v>15</v>
@@ -69611,10 +69605,10 @@
         <v>3425</v>
       </c>
       <c r="B3420" s="0" t="s">
+        <v>6488</v>
+      </c>
+      <c r="C3420" s="0" t="s">
         <v>6489</v>
-      </c>
-      <c r="C3420" s="0" t="s">
-        <v>6490</v>
       </c>
       <c r="D3420" s="0" t="s">
         <v>15</v>
@@ -69625,10 +69619,10 @@
         <v>3427</v>
       </c>
       <c r="B3421" s="0" t="s">
+        <v>6490</v>
+      </c>
+      <c r="C3421" s="0" t="s">
         <v>6491</v>
-      </c>
-      <c r="C3421" s="0" t="s">
-        <v>6492</v>
       </c>
       <c r="D3421" s="0" t="s">
         <v>15</v>
@@ -69639,10 +69633,10 @@
         <v>3428</v>
       </c>
       <c r="B3422" s="0" t="s">
+        <v>6492</v>
+      </c>
+      <c r="C3422" s="0" t="s">
         <v>6493</v>
-      </c>
-      <c r="C3422" s="0" t="s">
-        <v>6494</v>
       </c>
       <c r="D3422" s="0" t="s">
         <v>15</v>
@@ -69653,10 +69647,10 @@
         <v>3429</v>
       </c>
       <c r="B3423" s="0" t="s">
+        <v>6494</v>
+      </c>
+      <c r="C3423" s="0" t="s">
         <v>6495</v>
-      </c>
-      <c r="C3423" s="0" t="s">
-        <v>6496</v>
       </c>
       <c r="D3423" s="0" t="s">
         <v>15</v>
@@ -69667,10 +69661,10 @@
         <v>3431</v>
       </c>
       <c r="B3424" s="0" t="s">
+        <v>6496</v>
+      </c>
+      <c r="C3424" s="0" t="s">
         <v>6497</v>
-      </c>
-      <c r="C3424" s="0" t="s">
-        <v>6498</v>
       </c>
       <c r="D3424" s="0" t="s">
         <v>15</v>
@@ -69681,10 +69675,10 @@
         <v>3432</v>
       </c>
       <c r="B3425" s="0" t="s">
+        <v>6498</v>
+      </c>
+      <c r="C3425" s="0" t="s">
         <v>6499</v>
-      </c>
-      <c r="C3425" s="0" t="s">
-        <v>6500</v>
       </c>
       <c r="D3425" s="0" t="s">
         <v>15</v>
@@ -69695,10 +69689,10 @@
         <v>3433</v>
       </c>
       <c r="B3426" s="0" t="s">
+        <v>6500</v>
+      </c>
+      <c r="C3426" s="0" t="s">
         <v>6501</v>
-      </c>
-      <c r="C3426" s="0" t="s">
-        <v>6502</v>
       </c>
       <c r="D3426" s="0" t="s">
         <v>15</v>
@@ -69709,10 +69703,10 @@
         <v>3434</v>
       </c>
       <c r="B3427" s="0" t="s">
+        <v>6502</v>
+      </c>
+      <c r="C3427" s="0" t="s">
         <v>6503</v>
-      </c>
-      <c r="C3427" s="0" t="s">
-        <v>6504</v>
       </c>
       <c r="D3427" s="0" t="s">
         <v>15</v>
@@ -69723,10 +69717,10 @@
         <v>3435</v>
       </c>
       <c r="B3428" s="0" t="s">
+        <v>6504</v>
+      </c>
+      <c r="C3428" s="0" t="s">
         <v>6505</v>
-      </c>
-      <c r="C3428" s="0" t="s">
-        <v>6506</v>
       </c>
       <c r="D3428" s="0" t="s">
         <v>15</v>
@@ -69737,10 +69731,10 @@
         <v>3436</v>
       </c>
       <c r="B3429" s="0" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C3429" s="0" t="s">
         <v>6507</v>
-      </c>
-      <c r="C3429" s="0" t="s">
-        <v>6508</v>
       </c>
       <c r="D3429" s="0" t="s">
         <v>15</v>
@@ -69751,10 +69745,10 @@
         <v>3437</v>
       </c>
       <c r="B3430" s="0" t="s">
+        <v>6508</v>
+      </c>
+      <c r="C3430" s="0" t="s">
         <v>6509</v>
-      </c>
-      <c r="C3430" s="0" t="s">
-        <v>6510</v>
       </c>
       <c r="D3430" s="0" t="s">
         <v>15</v>
@@ -69765,10 +69759,10 @@
         <v>3438</v>
       </c>
       <c r="B3431" s="0" t="s">
+        <v>6510</v>
+      </c>
+      <c r="C3431" s="0" t="s">
         <v>6511</v>
-      </c>
-      <c r="C3431" s="0" t="s">
-        <v>6512</v>
       </c>
       <c r="D3431" s="0" t="s">
         <v>15</v>
@@ -69779,10 +69773,10 @@
         <v>3439</v>
       </c>
       <c r="B3432" s="0" t="s">
+        <v>6512</v>
+      </c>
+      <c r="C3432" s="0" t="s">
         <v>6513</v>
-      </c>
-      <c r="C3432" s="0" t="s">
-        <v>6514</v>
       </c>
       <c r="D3432" s="0" t="s">
         <v>15</v>
@@ -69793,10 +69787,10 @@
         <v>3440</v>
       </c>
       <c r="B3433" s="0" t="s">
+        <v>6514</v>
+      </c>
+      <c r="C3433" s="0" t="s">
         <v>6515</v>
-      </c>
-      <c r="C3433" s="0" t="s">
-        <v>6516</v>
       </c>
       <c r="D3433" s="0" t="s">
         <v>15</v>
@@ -69807,10 +69801,10 @@
         <v>3441</v>
       </c>
       <c r="B3434" s="0" t="s">
+        <v>6516</v>
+      </c>
+      <c r="C3434" s="0" t="s">
         <v>6517</v>
-      </c>
-      <c r="C3434" s="0" t="s">
-        <v>6518</v>
       </c>
       <c r="D3434" s="0" t="s">
         <v>15</v>
@@ -69821,10 +69815,10 @@
         <v>3442</v>
       </c>
       <c r="B3435" s="0" t="s">
+        <v>6518</v>
+      </c>
+      <c r="C3435" s="0" t="s">
         <v>6519</v>
-      </c>
-      <c r="C3435" s="0" t="s">
-        <v>6520</v>
       </c>
       <c r="D3435" s="0" t="s">
         <v>15</v>
@@ -69835,10 +69829,10 @@
         <v>3443</v>
       </c>
       <c r="B3436" s="0" t="s">
+        <v>6520</v>
+      </c>
+      <c r="C3436" s="0" t="s">
         <v>6521</v>
-      </c>
-      <c r="C3436" s="0" t="s">
-        <v>6522</v>
       </c>
       <c r="D3436" s="0" t="s">
         <v>15</v>
@@ -69849,10 +69843,10 @@
         <v>3444</v>
       </c>
       <c r="B3437" s="0" t="s">
+        <v>6522</v>
+      </c>
+      <c r="C3437" s="0" t="s">
         <v>6523</v>
-      </c>
-      <c r="C3437" s="0" t="s">
-        <v>6524</v>
       </c>
       <c r="D3437" s="0" t="s">
         <v>15</v>
@@ -69863,10 +69857,10 @@
         <v>3445</v>
       </c>
       <c r="B3438" s="0" t="s">
+        <v>6524</v>
+      </c>
+      <c r="C3438" s="0" t="s">
         <v>6525</v>
-      </c>
-      <c r="C3438" s="0" t="s">
-        <v>6526</v>
       </c>
       <c r="D3438" s="0" t="s">
         <v>15</v>
@@ -69877,10 +69871,10 @@
         <v>3446</v>
       </c>
       <c r="B3439" s="0" t="s">
+        <v>6526</v>
+      </c>
+      <c r="C3439" s="0" t="s">
         <v>6527</v>
-      </c>
-      <c r="C3439" s="0" t="s">
-        <v>6528</v>
       </c>
       <c r="D3439" s="0" t="s">
         <v>15</v>
@@ -69891,10 +69885,10 @@
         <v>3447</v>
       </c>
       <c r="B3440" s="0" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C3440" s="0" t="s">
         <v>6529</v>
-      </c>
-      <c r="C3440" s="0" t="s">
-        <v>6530</v>
       </c>
       <c r="D3440" s="0" t="s">
         <v>15</v>
@@ -69905,10 +69899,10 @@
         <v>3448</v>
       </c>
       <c r="B3441" s="0" t="s">
+        <v>6530</v>
+      </c>
+      <c r="C3441" s="0" t="s">
         <v>6531</v>
-      </c>
-      <c r="C3441" s="0" t="s">
-        <v>6532</v>
       </c>
       <c r="D3441" s="0" t="s">
         <v>15</v>
@@ -69919,10 +69913,10 @@
         <v>3449</v>
       </c>
       <c r="B3442" s="0" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C3442" s="0" t="s">
         <v>6533</v>
-      </c>
-      <c r="C3442" s="0" t="s">
-        <v>6534</v>
       </c>
       <c r="D3442" s="0" t="s">
         <v>15</v>
@@ -69933,10 +69927,10 @@
         <v>3450</v>
       </c>
       <c r="B3443" s="0" t="s">
+        <v>6534</v>
+      </c>
+      <c r="C3443" s="0" t="s">
         <v>6535</v>
-      </c>
-      <c r="C3443" s="0" t="s">
-        <v>6536</v>
       </c>
       <c r="D3443" s="0" t="s">
         <v>15</v>
@@ -69947,10 +69941,10 @@
         <v>3451</v>
       </c>
       <c r="B3444" s="0" t="s">
+        <v>6536</v>
+      </c>
+      <c r="C3444" s="0" t="s">
         <v>6537</v>
-      </c>
-      <c r="C3444" s="0" t="s">
-        <v>6538</v>
       </c>
       <c r="D3444" s="0" t="s">
         <v>15</v>
@@ -69961,10 +69955,10 @@
         <v>3452</v>
       </c>
       <c r="B3445" s="0" t="s">
+        <v>6538</v>
+      </c>
+      <c r="C3445" s="0" t="s">
         <v>6539</v>
-      </c>
-      <c r="C3445" s="0" t="s">
-        <v>6540</v>
       </c>
       <c r="D3445" s="0" t="s">
         <v>15</v>
@@ -69975,10 +69969,10 @@
         <v>3453</v>
       </c>
       <c r="B3446" s="0" t="s">
+        <v>6540</v>
+      </c>
+      <c r="C3446" s="0" t="s">
         <v>6541</v>
-      </c>
-      <c r="C3446" s="0" t="s">
-        <v>6542</v>
       </c>
       <c r="D3446" s="0" t="s">
         <v>15</v>
@@ -69989,10 +69983,10 @@
         <v>3454</v>
       </c>
       <c r="B3447" s="0" t="s">
+        <v>6542</v>
+      </c>
+      <c r="C3447" s="0" t="s">
         <v>6543</v>
-      </c>
-      <c r="C3447" s="0" t="s">
-        <v>6544</v>
       </c>
       <c r="D3447" s="0" t="s">
         <v>15</v>
@@ -70003,10 +69997,10 @@
         <v>3455</v>
       </c>
       <c r="B3448" s="0" t="s">
+        <v>6544</v>
+      </c>
+      <c r="C3448" s="0" t="s">
         <v>6545</v>
-      </c>
-      <c r="C3448" s="0" t="s">
-        <v>6546</v>
       </c>
       <c r="D3448" s="0" t="s">
         <v>15</v>
@@ -70017,10 +70011,10 @@
         <v>3456</v>
       </c>
       <c r="B3449" s="0" t="s">
+        <v>6546</v>
+      </c>
+      <c r="C3449" s="0" t="s">
         <v>6547</v>
-      </c>
-      <c r="C3449" s="0" t="s">
-        <v>6548</v>
       </c>
       <c r="D3449" s="0" t="s">
         <v>15</v>
@@ -70031,10 +70025,10 @@
         <v>3457</v>
       </c>
       <c r="B3450" s="0" t="s">
+        <v>6548</v>
+      </c>
+      <c r="C3450" s="0" t="s">
         <v>6549</v>
-      </c>
-      <c r="C3450" s="0" t="s">
-        <v>6550</v>
       </c>
       <c r="D3450" s="0" t="s">
         <v>15</v>
@@ -70045,10 +70039,10 @@
         <v>3458</v>
       </c>
       <c r="B3451" s="0" t="s">
+        <v>6550</v>
+      </c>
+      <c r="C3451" s="0" t="s">
         <v>6551</v>
-      </c>
-      <c r="C3451" s="0" t="s">
-        <v>6552</v>
       </c>
       <c r="D3451" s="0" t="s">
         <v>15</v>
@@ -70059,10 +70053,10 @@
         <v>3459</v>
       </c>
       <c r="B3452" s="0" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C3452" s="0" t="s">
         <v>6553</v>
-      </c>
-      <c r="C3452" s="0" t="s">
-        <v>6554</v>
       </c>
       <c r="D3452" s="0" t="s">
         <v>15</v>
@@ -70073,10 +70067,10 @@
         <v>3460</v>
       </c>
       <c r="B3453" s="0" t="s">
+        <v>6554</v>
+      </c>
+      <c r="C3453" s="0" t="s">
         <v>6555</v>
-      </c>
-      <c r="C3453" s="0" t="s">
-        <v>6556</v>
       </c>
       <c r="D3453" s="0" t="s">
         <v>15</v>
@@ -70087,10 +70081,10 @@
         <v>3461</v>
       </c>
       <c r="B3454" s="0" t="s">
+        <v>6556</v>
+      </c>
+      <c r="C3454" s="0" t="s">
         <v>6557</v>
-      </c>
-      <c r="C3454" s="0" t="s">
-        <v>6558</v>
       </c>
       <c r="D3454" s="0" t="s">
         <v>15</v>
@@ -70101,10 +70095,10 @@
         <v>3462</v>
       </c>
       <c r="B3455" s="0" t="s">
+        <v>6558</v>
+      </c>
+      <c r="C3455" s="0" t="s">
         <v>6559</v>
-      </c>
-      <c r="C3455" s="0" t="s">
-        <v>6560</v>
       </c>
       <c r="D3455" s="0" t="s">
         <v>15</v>
@@ -70115,10 +70109,10 @@
         <v>3463</v>
       </c>
       <c r="B3456" s="0" t="s">
+        <v>6560</v>
+      </c>
+      <c r="C3456" s="0" t="s">
         <v>6561</v>
-      </c>
-      <c r="C3456" s="0" t="s">
-        <v>6562</v>
       </c>
       <c r="D3456" s="0" t="s">
         <v>15</v>
@@ -70129,10 +70123,10 @@
         <v>3464</v>
       </c>
       <c r="B3457" s="0" t="s">
+        <v>6562</v>
+      </c>
+      <c r="C3457" s="0" t="s">
         <v>6563</v>
-      </c>
-      <c r="C3457" s="0" t="s">
-        <v>6564</v>
       </c>
       <c r="D3457" s="0" t="s">
         <v>15</v>
@@ -70143,10 +70137,10 @@
         <v>3465</v>
       </c>
       <c r="B3458" s="0" t="s">
+        <v>6564</v>
+      </c>
+      <c r="C3458" s="0" t="s">
         <v>6565</v>
-      </c>
-      <c r="C3458" s="0" t="s">
-        <v>6566</v>
       </c>
       <c r="D3458" s="0" t="s">
         <v>15</v>
@@ -70157,10 +70151,10 @@
         <v>3466</v>
       </c>
       <c r="B3459" s="0" t="s">
+        <v>6566</v>
+      </c>
+      <c r="C3459" s="0" t="s">
         <v>6567</v>
-      </c>
-      <c r="C3459" s="0" t="s">
-        <v>6568</v>
       </c>
       <c r="D3459" s="0" t="s">
         <v>15</v>
@@ -70171,10 +70165,10 @@
         <v>3467</v>
       </c>
       <c r="B3460" s="0" t="s">
+        <v>6568</v>
+      </c>
+      <c r="C3460" s="0" t="s">
         <v>6569</v>
-      </c>
-      <c r="C3460" s="0" t="s">
-        <v>6570</v>
       </c>
       <c r="D3460" s="0" t="s">
         <v>15</v>
@@ -70185,10 +70179,10 @@
         <v>3468</v>
       </c>
       <c r="B3461" s="0" t="s">
+        <v>6570</v>
+      </c>
+      <c r="C3461" s="0" t="s">
         <v>6571</v>
-      </c>
-      <c r="C3461" s="0" t="s">
-        <v>6572</v>
       </c>
       <c r="D3461" s="0" t="s">
         <v>15</v>
@@ -70199,10 +70193,10 @@
         <v>3469</v>
       </c>
       <c r="B3462" s="0" t="s">
+        <v>6572</v>
+      </c>
+      <c r="C3462" s="0" t="s">
         <v>6573</v>
-      </c>
-      <c r="C3462" s="0" t="s">
-        <v>6574</v>
       </c>
       <c r="D3462" s="0" t="s">
         <v>15</v>
@@ -70213,10 +70207,10 @@
         <v>3470</v>
       </c>
       <c r="B3463" s="0" t="s">
+        <v>6574</v>
+      </c>
+      <c r="C3463" s="0" t="s">
         <v>6575</v>
-      </c>
-      <c r="C3463" s="0" t="s">
-        <v>6576</v>
       </c>
       <c r="D3463" s="0" t="s">
         <v>15</v>
@@ -70227,10 +70221,10 @@
         <v>3471</v>
       </c>
       <c r="B3464" s="0" t="s">
+        <v>6576</v>
+      </c>
+      <c r="C3464" s="0" t="s">
         <v>6577</v>
-      </c>
-      <c r="C3464" s="0" t="s">
-        <v>6578</v>
       </c>
       <c r="D3464" s="0" t="s">
         <v>15</v>
@@ -70241,10 +70235,10 @@
         <v>3472</v>
       </c>
       <c r="B3465" s="0" t="s">
+        <v>6578</v>
+      </c>
+      <c r="C3465" s="0" t="s">
         <v>6579</v>
-      </c>
-      <c r="C3465" s="0" t="s">
-        <v>6580</v>
       </c>
       <c r="D3465" s="0" t="s">
         <v>15</v>
@@ -70255,10 +70249,10 @@
         <v>3473</v>
       </c>
       <c r="B3466" s="0" t="s">
+        <v>6580</v>
+      </c>
+      <c r="C3466" s="0" t="s">
         <v>6581</v>
-      </c>
-      <c r="C3466" s="0" t="s">
-        <v>6582</v>
       </c>
       <c r="D3466" s="0" t="s">
         <v>15</v>
@@ -70269,10 +70263,10 @@
         <v>3474</v>
       </c>
       <c r="B3467" s="0" t="s">
+        <v>6582</v>
+      </c>
+      <c r="C3467" s="0" t="s">
         <v>6583</v>
-      </c>
-      <c r="C3467" s="0" t="s">
-        <v>6584</v>
       </c>
       <c r="D3467" s="0" t="s">
         <v>15</v>
@@ -70283,10 +70277,10 @@
         <v>3475</v>
       </c>
       <c r="B3468" s="0" t="s">
+        <v>6584</v>
+      </c>
+      <c r="C3468" s="0" t="s">
         <v>6585</v>
-      </c>
-      <c r="C3468" s="0" t="s">
-        <v>6586</v>
       </c>
       <c r="D3468" s="0" t="s">
         <v>15</v>
@@ -70297,10 +70291,10 @@
         <v>3476</v>
       </c>
       <c r="B3469" s="0" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C3469" s="0" t="s">
         <v>6587</v>
-      </c>
-      <c r="C3469" s="0" t="s">
-        <v>6588</v>
       </c>
       <c r="D3469" s="0" t="s">
         <v>15</v>
@@ -70311,10 +70305,10 @@
         <v>3477</v>
       </c>
       <c r="B3470" s="0" t="s">
+        <v>6588</v>
+      </c>
+      <c r="C3470" s="0" t="s">
         <v>6589</v>
-      </c>
-      <c r="C3470" s="0" t="s">
-        <v>6590</v>
       </c>
       <c r="D3470" s="0" t="s">
         <v>15</v>
@@ -70325,10 +70319,10 @@
         <v>3478</v>
       </c>
       <c r="B3471" s="0" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C3471" s="0" t="s">
         <v>6591</v>
-      </c>
-      <c r="C3471" s="0" t="s">
-        <v>6592</v>
       </c>
       <c r="D3471" s="0" t="s">
         <v>15</v>
@@ -70339,10 +70333,10 @@
         <v>3479</v>
       </c>
       <c r="B3472" s="0" t="s">
+        <v>6592</v>
+      </c>
+      <c r="C3472" s="0" t="s">
         <v>6593</v>
-      </c>
-      <c r="C3472" s="0" t="s">
-        <v>6594</v>
       </c>
       <c r="D3472" s="0" t="s">
         <v>15</v>
@@ -70353,10 +70347,10 @@
         <v>3480</v>
       </c>
       <c r="B3473" s="0" t="s">
+        <v>6594</v>
+      </c>
+      <c r="C3473" s="0" t="s">
         <v>6595</v>
-      </c>
-      <c r="C3473" s="0" t="s">
-        <v>6596</v>
       </c>
       <c r="D3473" s="0" t="s">
         <v>15</v>
@@ -70367,10 +70361,10 @@
         <v>3481</v>
       </c>
       <c r="B3474" s="0" t="s">
+        <v>6596</v>
+      </c>
+      <c r="C3474" s="0" t="s">
         <v>6597</v>
-      </c>
-      <c r="C3474" s="0" t="s">
-        <v>6598</v>
       </c>
       <c r="D3474" s="0" t="s">
         <v>15</v>
@@ -70381,10 +70375,10 @@
         <v>3482</v>
       </c>
       <c r="B3475" s="0" t="s">
+        <v>6598</v>
+      </c>
+      <c r="C3475" s="0" t="s">
         <v>6599</v>
-      </c>
-      <c r="C3475" s="0" t="s">
-        <v>6600</v>
       </c>
       <c r="D3475" s="0" t="s">
         <v>15</v>
@@ -70395,10 +70389,10 @@
         <v>3483</v>
       </c>
       <c r="B3476" s="0" t="s">
+        <v>6600</v>
+      </c>
+      <c r="C3476" s="0" t="s">
         <v>6601</v>
-      </c>
-      <c r="C3476" s="0" t="s">
-        <v>6602</v>
       </c>
       <c r="D3476" s="0" t="s">
         <v>15</v>
@@ -70409,10 +70403,10 @@
         <v>3484</v>
       </c>
       <c r="B3477" s="0" t="s">
+        <v>6602</v>
+      </c>
+      <c r="C3477" s="0" t="s">
         <v>6603</v>
-      </c>
-      <c r="C3477" s="0" t="s">
-        <v>6604</v>
       </c>
       <c r="D3477" s="0" t="s">
         <v>15</v>
@@ -70423,10 +70417,10 @@
         <v>3485</v>
       </c>
       <c r="B3478" s="0" t="s">
+        <v>6604</v>
+      </c>
+      <c r="C3478" s="0" t="s">
         <v>6605</v>
-      </c>
-      <c r="C3478" s="0" t="s">
-        <v>6606</v>
       </c>
       <c r="D3478" s="0" t="s">
         <v>15</v>
@@ -70437,10 +70431,10 @@
         <v>3486</v>
       </c>
       <c r="B3479" s="0" t="s">
+        <v>6606</v>
+      </c>
+      <c r="C3479" s="0" t="s">
         <v>6607</v>
-      </c>
-      <c r="C3479" s="0" t="s">
-        <v>6608</v>
       </c>
       <c r="D3479" s="0" t="s">
         <v>15</v>
@@ -70451,10 +70445,10 @@
         <v>3487</v>
       </c>
       <c r="B3480" s="0" t="s">
+        <v>6608</v>
+      </c>
+      <c r="C3480" s="0" t="s">
         <v>6609</v>
-      </c>
-      <c r="C3480" s="0" t="s">
-        <v>6610</v>
       </c>
       <c r="D3480" s="0" t="s">
         <v>15</v>
@@ -70465,10 +70459,10 @@
         <v>3488</v>
       </c>
       <c r="B3481" s="0" t="s">
+        <v>6610</v>
+      </c>
+      <c r="C3481" s="0" t="s">
         <v>6611</v>
-      </c>
-      <c r="C3481" s="0" t="s">
-        <v>6612</v>
       </c>
       <c r="D3481" s="0" t="s">
         <v>15</v>
@@ -70479,10 +70473,10 @@
         <v>3489</v>
       </c>
       <c r="B3482" s="0" t="s">
+        <v>6612</v>
+      </c>
+      <c r="C3482" s="0" t="s">
         <v>6613</v>
-      </c>
-      <c r="C3482" s="0" t="s">
-        <v>6614</v>
       </c>
       <c r="D3482" s="0" t="s">
         <v>15</v>
@@ -70493,10 +70487,10 @@
         <v>3490</v>
       </c>
       <c r="B3483" s="0" t="s">
+        <v>6614</v>
+      </c>
+      <c r="C3483" s="0" t="s">
         <v>6615</v>
-      </c>
-      <c r="C3483" s="0" t="s">
-        <v>6616</v>
       </c>
       <c r="D3483" s="0" t="s">
         <v>15</v>
@@ -70507,10 +70501,10 @@
         <v>3491</v>
       </c>
       <c r="B3484" s="0" t="s">
+        <v>6616</v>
+      </c>
+      <c r="C3484" s="0" t="s">
         <v>6617</v>
-      </c>
-      <c r="C3484" s="0" t="s">
-        <v>6618</v>
       </c>
       <c r="D3484" s="0" t="s">
         <v>15</v>
@@ -70521,10 +70515,10 @@
         <v>3492</v>
       </c>
       <c r="B3485" s="0" t="s">
+        <v>6618</v>
+      </c>
+      <c r="C3485" s="0" t="s">
         <v>6619</v>
-      </c>
-      <c r="C3485" s="0" t="s">
-        <v>6620</v>
       </c>
       <c r="D3485" s="0" t="s">
         <v>15</v>
@@ -70535,10 +70529,10 @@
         <v>3493</v>
       </c>
       <c r="B3486" s="0" t="s">
+        <v>6620</v>
+      </c>
+      <c r="C3486" s="0" t="s">
         <v>6621</v>
-      </c>
-      <c r="C3486" s="0" t="s">
-        <v>6622</v>
       </c>
       <c r="D3486" s="0" t="s">
         <v>15</v>
@@ -70549,10 +70543,10 @@
         <v>3494</v>
       </c>
       <c r="B3487" s="0" t="s">
+        <v>6622</v>
+      </c>
+      <c r="C3487" s="0" t="s">
         <v>6623</v>
-      </c>
-      <c r="C3487" s="0" t="s">
-        <v>6624</v>
       </c>
       <c r="D3487" s="0" t="s">
         <v>15</v>
@@ -70563,10 +70557,10 @@
         <v>3495</v>
       </c>
       <c r="B3488" s="0" t="s">
+        <v>6624</v>
+      </c>
+      <c r="C3488" s="0" t="s">
         <v>6625</v>
-      </c>
-      <c r="C3488" s="0" t="s">
-        <v>6626</v>
       </c>
       <c r="D3488" s="0" t="s">
         <v>15</v>
@@ -70577,10 +70571,10 @@
         <v>3496</v>
       </c>
       <c r="B3489" s="0" t="s">
+        <v>6626</v>
+      </c>
+      <c r="C3489" s="0" t="s">
         <v>6627</v>
-      </c>
-      <c r="C3489" s="0" t="s">
-        <v>6628</v>
       </c>
       <c r="D3489" s="0" t="s">
         <v>15</v>
@@ -70591,10 +70585,10 @@
         <v>3497</v>
       </c>
       <c r="B3490" s="0" t="s">
+        <v>6628</v>
+      </c>
+      <c r="C3490" s="0" t="s">
         <v>6629</v>
-      </c>
-      <c r="C3490" s="0" t="s">
-        <v>6630</v>
       </c>
       <c r="D3490" s="0" t="s">
         <v>15</v>
@@ -70605,10 +70599,10 @@
         <v>3498</v>
       </c>
       <c r="B3491" s="0" t="s">
+        <v>6630</v>
+      </c>
+      <c r="C3491" s="0" t="s">
         <v>6631</v>
-      </c>
-      <c r="C3491" s="0" t="s">
-        <v>6632</v>
       </c>
       <c r="D3491" s="0" t="s">
         <v>15</v>
@@ -70619,10 +70613,10 @@
         <v>3499</v>
       </c>
       <c r="B3492" s="0" t="s">
+        <v>6632</v>
+      </c>
+      <c r="C3492" s="0" t="s">
         <v>6633</v>
-      </c>
-      <c r="C3492" s="0" t="s">
-        <v>6634</v>
       </c>
       <c r="D3492" s="0" t="s">
         <v>15</v>
@@ -70633,10 +70627,10 @@
         <v>3500</v>
       </c>
       <c r="B3493" s="0" t="s">
+        <v>6634</v>
+      </c>
+      <c r="C3493" s="0" t="s">
         <v>6635</v>
-      </c>
-      <c r="C3493" s="0" t="s">
-        <v>6636</v>
       </c>
       <c r="D3493" s="0" t="s">
         <v>15</v>
@@ -70647,10 +70641,10 @@
         <v>3501</v>
       </c>
       <c r="B3494" s="0" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="C3494" s="0" t="s">
-        <v>6637</v>
+        <v>6636</v>
       </c>
       <c r="D3494" s="0" t="s">
         <v>15</v>
@@ -70661,10 +70655,10 @@
         <v>3502</v>
       </c>
       <c r="B3495" s="0" t="s">
+        <v>6637</v>
+      </c>
+      <c r="C3495" s="0" t="s">
         <v>6638</v>
-      </c>
-      <c r="C3495" s="0" t="s">
-        <v>6639</v>
       </c>
       <c r="D3495" s="0" t="s">
         <v>15</v>
@@ -70675,10 +70669,10 @@
         <v>3503</v>
       </c>
       <c r="B3496" s="0" t="s">
+        <v>6639</v>
+      </c>
+      <c r="C3496" s="0" t="s">
         <v>6640</v>
-      </c>
-      <c r="C3496" s="0" t="s">
-        <v>6641</v>
       </c>
       <c r="D3496" s="0" t="s">
         <v>15</v>
@@ -70689,10 +70683,10 @@
         <v>3504</v>
       </c>
       <c r="B3497" s="0" t="s">
+        <v>6641</v>
+      </c>
+      <c r="C3497" s="0" t="s">
         <v>6642</v>
-      </c>
-      <c r="C3497" s="0" t="s">
-        <v>6643</v>
       </c>
       <c r="D3497" s="0" t="s">
         <v>15</v>
@@ -70703,10 +70697,10 @@
         <v>3505</v>
       </c>
       <c r="B3498" s="0" t="s">
+        <v>6643</v>
+      </c>
+      <c r="C3498" s="0" t="s">
         <v>6644</v>
-      </c>
-      <c r="C3498" s="0" t="s">
-        <v>6645</v>
       </c>
       <c r="D3498" s="0" t="s">
         <v>15</v>
@@ -70717,10 +70711,10 @@
         <v>3506</v>
       </c>
       <c r="B3499" s="0" t="s">
+        <v>6645</v>
+      </c>
+      <c r="C3499" s="0" t="s">
         <v>6646</v>
-      </c>
-      <c r="C3499" s="0" t="s">
-        <v>6647</v>
       </c>
       <c r="D3499" s="0" t="s">
         <v>15</v>
@@ -70731,10 +70725,10 @@
         <v>3507</v>
       </c>
       <c r="B3500" s="0" t="s">
+        <v>6647</v>
+      </c>
+      <c r="C3500" s="0" t="s">
         <v>6648</v>
-      </c>
-      <c r="C3500" s="0" t="s">
-        <v>6649</v>
       </c>
       <c r="D3500" s="0" t="s">
         <v>15</v>
@@ -70745,10 +70739,10 @@
         <v>3508</v>
       </c>
       <c r="B3501" s="0" t="s">
+        <v>6649</v>
+      </c>
+      <c r="C3501" s="0" t="s">
         <v>6650</v>
-      </c>
-      <c r="C3501" s="0" t="s">
-        <v>6651</v>
       </c>
       <c r="D3501" s="0" t="s">
         <v>15</v>
@@ -70759,10 +70753,10 @@
         <v>3509</v>
       </c>
       <c r="B3502" s="0" t="s">
+        <v>6651</v>
+      </c>
+      <c r="C3502" s="0" t="s">
         <v>6652</v>
-      </c>
-      <c r="C3502" s="0" t="s">
-        <v>6653</v>
       </c>
       <c r="D3502" s="0" t="s">
         <v>15</v>
@@ -70773,10 +70767,10 @@
         <v>3510</v>
       </c>
       <c r="B3503" s="0" t="s">
+        <v>6653</v>
+      </c>
+      <c r="C3503" s="0" t="s">
         <v>6654</v>
-      </c>
-      <c r="C3503" s="0" t="s">
-        <v>6655</v>
       </c>
       <c r="D3503" s="0" t="s">
         <v>15</v>
@@ -70787,10 +70781,10 @@
         <v>3511</v>
       </c>
       <c r="B3504" s="0" t="s">
+        <v>6655</v>
+      </c>
+      <c r="C3504" s="0" t="s">
         <v>6656</v>
-      </c>
-      <c r="C3504" s="0" t="s">
-        <v>6657</v>
       </c>
       <c r="D3504" s="0" t="s">
         <v>15</v>
@@ -70801,10 +70795,10 @@
         <v>3512</v>
       </c>
       <c r="B3505" s="0" t="s">
+        <v>6657</v>
+      </c>
+      <c r="C3505" s="0" t="s">
         <v>6658</v>
-      </c>
-      <c r="C3505" s="0" t="s">
-        <v>6659</v>
       </c>
       <c r="D3505" s="0" t="s">
         <v>15</v>
@@ -70815,10 +70809,10 @@
         <v>3513</v>
       </c>
       <c r="B3506" s="0" t="s">
+        <v>6659</v>
+      </c>
+      <c r="C3506" s="0" t="s">
         <v>6660</v>
-      </c>
-      <c r="C3506" s="0" t="s">
-        <v>6661</v>
       </c>
       <c r="D3506" s="0" t="s">
         <v>15</v>
@@ -70829,10 +70823,10 @@
         <v>3514</v>
       </c>
       <c r="B3507" s="0" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C3507" s="0" t="s">
         <v>6662</v>
-      </c>
-      <c r="C3507" s="0" t="s">
-        <v>6663</v>
       </c>
       <c r="D3507" s="0" t="s">
         <v>15</v>
@@ -70843,10 +70837,10 @@
         <v>3515</v>
       </c>
       <c r="B3508" s="0" t="s">
+        <v>6663</v>
+      </c>
+      <c r="C3508" s="0" t="s">
         <v>6664</v>
-      </c>
-      <c r="C3508" s="0" t="s">
-        <v>6665</v>
       </c>
       <c r="D3508" s="0" t="s">
         <v>15</v>
@@ -70857,10 +70851,10 @@
         <v>3516</v>
       </c>
       <c r="B3509" s="0" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="C3509" s="0" t="s">
-        <v>6666</v>
+        <v>6665</v>
       </c>
       <c r="D3509" s="0" t="s">
         <v>15</v>
@@ -70871,10 +70865,10 @@
         <v>3517</v>
       </c>
       <c r="B3510" s="0" t="s">
+        <v>6666</v>
+      </c>
+      <c r="C3510" s="0" t="s">
         <v>6667</v>
-      </c>
-      <c r="C3510" s="0" t="s">
-        <v>6668</v>
       </c>
       <c r="D3510" s="0" t="s">
         <v>15</v>
@@ -70885,10 +70879,10 @@
         <v>3518</v>
       </c>
       <c r="B3511" s="0" t="s">
+        <v>6668</v>
+      </c>
+      <c r="C3511" s="0" t="s">
         <v>6669</v>
-      </c>
-      <c r="C3511" s="0" t="s">
-        <v>6670</v>
       </c>
       <c r="D3511" s="0" t="s">
         <v>15</v>
@@ -70899,10 +70893,10 @@
         <v>3519</v>
       </c>
       <c r="B3512" s="0" t="s">
+        <v>6670</v>
+      </c>
+      <c r="C3512" s="0" t="s">
         <v>6671</v>
-      </c>
-      <c r="C3512" s="0" t="s">
-        <v>6672</v>
       </c>
       <c r="D3512" s="0" t="s">
         <v>15</v>
@@ -70913,10 +70907,10 @@
         <v>3520</v>
       </c>
       <c r="B3513" s="0" t="s">
+        <v>6672</v>
+      </c>
+      <c r="C3513" s="0" t="s">
         <v>6673</v>
-      </c>
-      <c r="C3513" s="0" t="s">
-        <v>6674</v>
       </c>
       <c r="D3513" s="0" t="s">
         <v>15</v>
@@ -70927,10 +70921,10 @@
         <v>3521</v>
       </c>
       <c r="B3514" s="0" t="s">
+        <v>6674</v>
+      </c>
+      <c r="C3514" s="0" t="s">
         <v>6675</v>
-      </c>
-      <c r="C3514" s="0" t="s">
-        <v>6676</v>
       </c>
       <c r="D3514" s="0" t="s">
         <v>15</v>
@@ -70941,10 +70935,10 @@
         <v>3522</v>
       </c>
       <c r="B3515" s="0" t="s">
+        <v>6676</v>
+      </c>
+      <c r="C3515" s="0" t="s">
         <v>6677</v>
-      </c>
-      <c r="C3515" s="0" t="s">
-        <v>6678</v>
       </c>
       <c r="D3515" s="0" t="s">
         <v>15</v>
@@ -70955,10 +70949,10 @@
         <v>3523</v>
       </c>
       <c r="B3516" s="0" t="s">
+        <v>6678</v>
+      </c>
+      <c r="C3516" s="0" t="s">
         <v>6679</v>
-      </c>
-      <c r="C3516" s="0" t="s">
-        <v>6680</v>
       </c>
       <c r="D3516" s="0" t="s">
         <v>15</v>
@@ -70969,10 +70963,10 @@
         <v>3524</v>
       </c>
       <c r="B3517" s="0" t="s">
+        <v>6680</v>
+      </c>
+      <c r="C3517" s="0" t="s">
         <v>6681</v>
-      </c>
-      <c r="C3517" s="0" t="s">
-        <v>6682</v>
       </c>
       <c r="D3517" s="0" t="s">
         <v>15</v>
@@ -70983,10 +70977,10 @@
         <v>3525</v>
       </c>
       <c r="B3518" s="0" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C3518" s="0" t="s">
         <v>6683</v>
-      </c>
-      <c r="C3518" s="0" t="s">
-        <v>6684</v>
       </c>
       <c r="D3518" s="0" t="s">
         <v>15</v>
@@ -70997,10 +70991,10 @@
         <v>3526</v>
       </c>
       <c r="B3519" s="0" t="s">
+        <v>6684</v>
+      </c>
+      <c r="C3519" s="0" t="s">
         <v>6685</v>
-      </c>
-      <c r="C3519" s="0" t="s">
-        <v>6686</v>
       </c>
       <c r="D3519" s="0" t="s">
         <v>15</v>
@@ -71011,10 +71005,10 @@
         <v>3527</v>
       </c>
       <c r="B3520" s="0" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="C3520" s="0" t="s">
-        <v>6687</v>
+        <v>6686</v>
       </c>
       <c r="D3520" s="0" t="s">
         <v>15</v>
@@ -71025,10 +71019,10 @@
         <v>3528</v>
       </c>
       <c r="B3521" s="0" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="C3521" s="0" t="s">
-        <v>6688</v>
+        <v>6687</v>
       </c>
       <c r="D3521" s="0" t="s">
         <v>15</v>
@@ -71039,10 +71033,10 @@
         <v>3529</v>
       </c>
       <c r="B3522" s="0" t="s">
+        <v>6688</v>
+      </c>
+      <c r="C3522" s="0" t="s">
         <v>6689</v>
-      </c>
-      <c r="C3522" s="0" t="s">
-        <v>6690</v>
       </c>
       <c r="D3522" s="0" t="s">
         <v>15</v>
@@ -71053,10 +71047,10 @@
         <v>3530</v>
       </c>
       <c r="B3523" s="0" t="s">
+        <v>6690</v>
+      </c>
+      <c r="C3523" s="0" t="s">
         <v>6691</v>
-      </c>
-      <c r="C3523" s="0" t="s">
-        <v>6692</v>
       </c>
       <c r="D3523" s="0" t="s">
         <v>15</v>
@@ -71067,10 +71061,10 @@
         <v>3531</v>
       </c>
       <c r="B3524" s="0" t="s">
+        <v>6692</v>
+      </c>
+      <c r="C3524" s="0" t="s">
         <v>6693</v>
-      </c>
-      <c r="C3524" s="0" t="s">
-        <v>6694</v>
       </c>
       <c r="D3524" s="0" t="s">
         <v>15</v>
@@ -71081,10 +71075,10 @@
         <v>3532</v>
       </c>
       <c r="B3525" s="0" t="s">
+        <v>6694</v>
+      </c>
+      <c r="C3525" s="0" t="s">
         <v>6695</v>
-      </c>
-      <c r="C3525" s="0" t="s">
-        <v>6696</v>
       </c>
       <c r="D3525" s="0" t="s">
         <v>15</v>
@@ -71095,10 +71089,10 @@
         <v>3533</v>
       </c>
       <c r="B3526" s="0" t="s">
+        <v>6696</v>
+      </c>
+      <c r="C3526" s="0" t="s">
         <v>6697</v>
-      </c>
-      <c r="C3526" s="0" t="s">
-        <v>6698</v>
       </c>
       <c r="D3526" s="0" t="s">
         <v>15</v>
@@ -71109,10 +71103,10 @@
         <v>3534</v>
       </c>
       <c r="B3527" s="0" t="s">
+        <v>6698</v>
+      </c>
+      <c r="C3527" s="0" t="s">
         <v>6699</v>
-      </c>
-      <c r="C3527" s="0" t="s">
-        <v>6700</v>
       </c>
       <c r="D3527" s="0" t="s">
         <v>15</v>
@@ -71123,10 +71117,10 @@
         <v>3535</v>
       </c>
       <c r="B3528" s="0" t="s">
+        <v>6700</v>
+      </c>
+      <c r="C3528" s="0" t="s">
         <v>6701</v>
-      </c>
-      <c r="C3528" s="0" t="s">
-        <v>6702</v>
       </c>
       <c r="D3528" s="0" t="s">
         <v>15</v>
@@ -71137,10 +71131,10 @@
         <v>3536</v>
       </c>
       <c r="B3529" s="0" t="s">
+        <v>6702</v>
+      </c>
+      <c r="C3529" s="0" t="s">
         <v>6703</v>
-      </c>
-      <c r="C3529" s="0" t="s">
-        <v>6704</v>
       </c>
       <c r="D3529" s="0" t="s">
         <v>15</v>
@@ -71151,10 +71145,10 @@
         <v>3537</v>
       </c>
       <c r="B3530" s="0" t="s">
+        <v>6704</v>
+      </c>
+      <c r="C3530" s="0" t="s">
         <v>6705</v>
-      </c>
-      <c r="C3530" s="0" t="s">
-        <v>6706</v>
       </c>
       <c r="D3530" s="0" t="s">
         <v>15</v>
@@ -71165,10 +71159,10 @@
         <v>3538</v>
       </c>
       <c r="B3531" s="0" t="s">
+        <v>6706</v>
+      </c>
+      <c r="C3531" s="0" t="s">
         <v>6707</v>
-      </c>
-      <c r="C3531" s="0" t="s">
-        <v>6708</v>
       </c>
       <c r="D3531" s="0" t="s">
         <v>15</v>
@@ -71179,10 +71173,10 @@
         <v>3539</v>
       </c>
       <c r="B3532" s="0" t="s">
+        <v>6708</v>
+      </c>
+      <c r="C3532" s="0" t="s">
         <v>6709</v>
-      </c>
-      <c r="C3532" s="0" t="s">
-        <v>6710</v>
       </c>
       <c r="D3532" s="0" t="s">
         <v>15</v>
@@ -71193,10 +71187,10 @@
         <v>3540</v>
       </c>
       <c r="B3533" s="0" t="s">
+        <v>6710</v>
+      </c>
+      <c r="C3533" s="0" t="s">
         <v>6711</v>
-      </c>
-      <c r="C3533" s="0" t="s">
-        <v>6712</v>
       </c>
       <c r="D3533" s="0" t="s">
         <v>15</v>
@@ -71207,10 +71201,10 @@
         <v>3541</v>
       </c>
       <c r="B3534" s="0" t="s">
+        <v>6712</v>
+      </c>
+      <c r="C3534" s="0" t="s">
         <v>6713</v>
-      </c>
-      <c r="C3534" s="0" t="s">
-        <v>6714</v>
       </c>
       <c r="D3534" s="0" t="s">
         <v>15</v>
@@ -71221,10 +71215,10 @@
         <v>3542</v>
       </c>
       <c r="B3535" s="0" t="s">
+        <v>6714</v>
+      </c>
+      <c r="C3535" s="0" t="s">
         <v>6715</v>
-      </c>
-      <c r="C3535" s="0" t="s">
-        <v>6716</v>
       </c>
       <c r="D3535" s="0" t="s">
         <v>15</v>
@@ -71235,10 +71229,10 @@
         <v>3543</v>
       </c>
       <c r="B3536" s="0" t="s">
+        <v>6716</v>
+      </c>
+      <c r="C3536" s="0" t="s">
         <v>6717</v>
-      </c>
-      <c r="C3536" s="0" t="s">
-        <v>6718</v>
       </c>
       <c r="D3536" s="0" t="s">
         <v>15</v>
@@ -71249,10 +71243,10 @@
         <v>3544</v>
       </c>
       <c r="B3537" s="0" t="s">
+        <v>6718</v>
+      </c>
+      <c r="C3537" s="0" t="s">
         <v>6719</v>
-      </c>
-      <c r="C3537" s="0" t="s">
-        <v>6720</v>
       </c>
       <c r="D3537" s="0" t="s">
         <v>15</v>
@@ -71263,10 +71257,10 @@
         <v>3545</v>
       </c>
       <c r="B3538" s="0" t="s">
+        <v>6720</v>
+      </c>
+      <c r="C3538" s="0" t="s">
         <v>6721</v>
-      </c>
-      <c r="C3538" s="0" t="s">
-        <v>6722</v>
       </c>
       <c r="D3538" s="0" t="s">
         <v>15</v>
@@ -71277,10 +71271,10 @@
         <v>3546</v>
       </c>
       <c r="B3539" s="0" t="s">
+        <v>6722</v>
+      </c>
+      <c r="C3539" s="0" t="s">
         <v>6723</v>
-      </c>
-      <c r="C3539" s="0" t="s">
-        <v>6724</v>
       </c>
       <c r="D3539" s="0" t="s">
         <v>15</v>
@@ -71288,13 +71282,13 @@
     </row>
     <row r="3540" spans="1:4">
       <c r="A3540" s="0" t="n">
-        <v>3547</v>
+        <v>3569</v>
       </c>
       <c r="B3540" s="0" t="s">
-        <v>6725</v>
+        <v>6724</v>
       </c>
       <c r="C3540" s="0" t="s">
-        <v>6726</v>
+        <v>4235</v>
       </c>
       <c r="D3540" s="0" t="s">
         <v>15</v>
@@ -71302,13 +71296,13 @@
     </row>
     <row r="3541" spans="1:4">
       <c r="A3541" s="0" t="n">
-        <v>3548</v>
+        <v>3547</v>
       </c>
       <c r="B3541" s="0" t="s">
-        <v>6727</v>
+        <v>6725</v>
       </c>
       <c r="C3541" s="0" t="s">
-        <v>6728</v>
+        <v>6726</v>
       </c>
       <c r="D3541" s="0" t="s">
         <v>15</v>
@@ -71316,13 +71310,13 @@
     </row>
     <row r="3542" spans="1:4">
       <c r="A3542" s="0" t="n">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="B3542" s="0" t="s">
-        <v>6729</v>
+        <v>6727</v>
       </c>
       <c r="C3542" s="0" t="s">
-        <v>6730</v>
+        <v>6728</v>
       </c>
       <c r="D3542" s="0" t="s">
         <v>15</v>
@@ -71330,13 +71324,13 @@
     </row>
     <row r="3543" spans="1:4">
       <c r="A3543" s="0" t="n">
-        <v>3550</v>
+        <v>3549</v>
       </c>
       <c r="B3543" s="0" t="s">
-        <v>6731</v>
+        <v>6729</v>
       </c>
       <c r="C3543" s="0" t="s">
-        <v>6732</v>
+        <v>6730</v>
       </c>
       <c r="D3543" s="0" t="s">
         <v>15</v>
@@ -71344,13 +71338,13 @@
     </row>
     <row r="3544" spans="1:4">
       <c r="A3544" s="0" t="n">
-        <v>3551</v>
+        <v>3550</v>
       </c>
       <c r="B3544" s="0" t="s">
-        <v>6733</v>
+        <v>6731</v>
       </c>
       <c r="C3544" s="0" t="s">
-        <v>6734</v>
+        <v>6732</v>
       </c>
       <c r="D3544" s="0" t="s">
         <v>15</v>
@@ -71358,13 +71352,13 @@
     </row>
     <row r="3545" spans="1:4">
       <c r="A3545" s="0" t="n">
-        <v>3552</v>
+        <v>3551</v>
       </c>
       <c r="B3545" s="0" t="s">
-        <v>6735</v>
+        <v>6733</v>
       </c>
       <c r="C3545" s="0" t="s">
-        <v>6736</v>
+        <v>6734</v>
       </c>
       <c r="D3545" s="0" t="s">
         <v>15</v>
@@ -71372,13 +71366,13 @@
     </row>
     <row r="3546" spans="1:4">
       <c r="A3546" s="0" t="n">
-        <v>3553</v>
+        <v>3552</v>
       </c>
       <c r="B3546" s="0" t="s">
-        <v>6737</v>
+        <v>6735</v>
       </c>
       <c r="C3546" s="0" t="s">
-        <v>6738</v>
+        <v>6736</v>
       </c>
       <c r="D3546" s="0" t="s">
         <v>15</v>
@@ -71386,13 +71380,13 @@
     </row>
     <row r="3547" spans="1:4">
       <c r="A3547" s="0" t="n">
-        <v>3554</v>
+        <v>3553</v>
       </c>
       <c r="B3547" s="0" t="s">
-        <v>6739</v>
+        <v>6737</v>
       </c>
       <c r="C3547" s="0" t="s">
-        <v>6739</v>
+        <v>6738</v>
       </c>
       <c r="D3547" s="0" t="s">
         <v>15</v>
@@ -71400,13 +71394,13 @@
     </row>
     <row r="3548" spans="1:4">
       <c r="A3548" s="0" t="n">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="B3548" s="0" t="s">
-        <v>6740</v>
+        <v>6739</v>
       </c>
       <c r="C3548" s="0" t="s">
-        <v>6741</v>
+        <v>6739</v>
       </c>
       <c r="D3548" s="0" t="s">
         <v>15</v>
@@ -71414,13 +71408,13 @@
     </row>
     <row r="3549" spans="1:4">
       <c r="A3549" s="0" t="n">
-        <v>3556</v>
+        <v>3555</v>
       </c>
       <c r="B3549" s="0" t="s">
-        <v>6742</v>
+        <v>6740</v>
       </c>
       <c r="C3549" s="0" t="s">
-        <v>6743</v>
+        <v>6741</v>
       </c>
       <c r="D3549" s="0" t="s">
         <v>15</v>
@@ -71428,13 +71422,13 @@
     </row>
     <row r="3550" spans="1:4">
       <c r="A3550" s="0" t="n">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="B3550" s="0" t="s">
-        <v>6744</v>
+        <v>6742</v>
       </c>
       <c r="C3550" s="0" t="s">
-        <v>6744</v>
+        <v>6743</v>
       </c>
       <c r="D3550" s="0" t="s">
         <v>15</v>
@@ -71442,13 +71436,13 @@
     </row>
     <row r="3551" spans="1:4">
       <c r="A3551" s="0" t="n">
-        <v>3558</v>
+        <v>3557</v>
       </c>
       <c r="B3551" s="0" t="s">
-        <v>6745</v>
+        <v>6744</v>
       </c>
       <c r="C3551" s="0" t="s">
-        <v>6746</v>
+        <v>6744</v>
       </c>
       <c r="D3551" s="0" t="s">
         <v>15</v>
@@ -71456,13 +71450,13 @@
     </row>
     <row r="3552" spans="1:4">
       <c r="A3552" s="0" t="n">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="B3552" s="0" t="s">
-        <v>6747</v>
+        <v>6745</v>
       </c>
       <c r="C3552" s="0" t="s">
-        <v>6748</v>
+        <v>6746</v>
       </c>
       <c r="D3552" s="0" t="s">
         <v>15</v>
@@ -71470,13 +71464,13 @@
     </row>
     <row r="3553" spans="1:4">
       <c r="A3553" s="0" t="n">
-        <v>3560</v>
+        <v>3559</v>
       </c>
       <c r="B3553" s="0" t="s">
-        <v>6749</v>
+        <v>6747</v>
       </c>
       <c r="C3553" s="0" t="s">
-        <v>6750</v>
+        <v>6748</v>
       </c>
       <c r="D3553" s="0" t="s">
         <v>15</v>
@@ -71484,13 +71478,13 @@
     </row>
     <row r="3554" spans="1:4">
       <c r="A3554" s="0" t="n">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="B3554" s="0" t="s">
-        <v>6751</v>
+        <v>6749</v>
       </c>
       <c r="C3554" s="0" t="s">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="D3554" s="0" t="s">
         <v>15</v>
@@ -71498,13 +71492,13 @@
     </row>
     <row r="3555" spans="1:4">
       <c r="A3555" s="0" t="n">
-        <v>3562</v>
+        <v>3561</v>
       </c>
       <c r="B3555" s="0" t="s">
-        <v>6752</v>
+        <v>6751</v>
       </c>
       <c r="C3555" s="0" t="s">
-        <v>6753</v>
+        <v>6751</v>
       </c>
       <c r="D3555" s="0" t="s">
         <v>15</v>
@@ -71512,13 +71506,13 @@
     </row>
     <row r="3556" spans="1:4">
       <c r="A3556" s="0" t="n">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="B3556" s="0" t="s">
-        <v>6754</v>
+        <v>6752</v>
       </c>
       <c r="C3556" s="0" t="s">
-        <v>6755</v>
+        <v>6753</v>
       </c>
       <c r="D3556" s="0" t="s">
         <v>15</v>
@@ -71526,13 +71520,13 @@
     </row>
     <row r="3557" spans="1:4">
       <c r="A3557" s="0" t="n">
-        <v>3564</v>
+        <v>3563</v>
       </c>
       <c r="B3557" s="0" t="s">
-        <v>6756</v>
+        <v>6754</v>
       </c>
       <c r="C3557" s="0" t="s">
-        <v>6757</v>
+        <v>6755</v>
       </c>
       <c r="D3557" s="0" t="s">
         <v>15</v>
@@ -71540,13 +71534,13 @@
     </row>
     <row r="3558" spans="1:4">
       <c r="A3558" s="0" t="n">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="B3558" s="0" t="s">
-        <v>6758</v>
+        <v>6756</v>
       </c>
       <c r="C3558" s="0" t="s">
-        <v>6759</v>
+        <v>6757</v>
       </c>
       <c r="D3558" s="0" t="s">
         <v>15</v>
@@ -71554,13 +71548,13 @@
     </row>
     <row r="3559" spans="1:4">
       <c r="A3559" s="0" t="n">
-        <v>3566</v>
+        <v>3565</v>
       </c>
       <c r="B3559" s="0" t="s">
-        <v>6760</v>
+        <v>6758</v>
       </c>
       <c r="C3559" s="0" t="s">
-        <v>6761</v>
+        <v>6759</v>
       </c>
       <c r="D3559" s="0" t="s">
         <v>15</v>
@@ -71568,13 +71562,13 @@
     </row>
     <row r="3560" spans="1:4">
       <c r="A3560" s="0" t="n">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="B3560" s="0" t="s">
-        <v>6762</v>
+        <v>6760</v>
       </c>
       <c r="C3560" s="0" t="s">
-        <v>6762</v>
+        <v>6761</v>
       </c>
       <c r="D3560" s="0" t="s">
         <v>15</v>
@@ -71582,13 +71576,13 @@
     </row>
     <row r="3561" spans="1:4">
       <c r="A3561" s="0" t="n">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="B3561" s="0" t="s">
-        <v>6763</v>
+        <v>6762</v>
       </c>
       <c r="C3561" s="0" t="s">
-        <v>6764</v>
+        <v>6762</v>
       </c>
       <c r="D3561" s="0" t="s">
         <v>15</v>
@@ -71596,13 +71590,13 @@
     </row>
     <row r="3562" spans="1:4">
       <c r="A3562" s="0" t="n">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="B3562" s="0" t="s">
-        <v>6765</v>
+        <v>6763</v>
       </c>
       <c r="C3562" s="0" t="s">
-        <v>6766</v>
+        <v>6764</v>
       </c>
       <c r="D3562" s="0" t="s">
         <v>15</v>
@@ -71613,10 +71607,10 @@
         <v>3570</v>
       </c>
       <c r="B3563" s="0" t="s">
-        <v>6767</v>
+        <v>6765</v>
       </c>
       <c r="C3563" s="0" t="s">
-        <v>6768</v>
+        <v>6766</v>
       </c>
       <c r="D3563" s="0" t="s">
         <v>15</v>
@@ -71627,10 +71621,10 @@
         <v>3571</v>
       </c>
       <c r="B3564" s="0" t="s">
-        <v>6769</v>
+        <v>6767</v>
       </c>
       <c r="C3564" s="0" t="s">
-        <v>6770</v>
+        <v>6768</v>
       </c>
       <c r="D3564" s="0" t="s">
         <v>15</v>
@@ -71641,10 +71635,10 @@
         <v>3572</v>
       </c>
       <c r="B3565" s="0" t="s">
-        <v>6771</v>
+        <v>6769</v>
       </c>
       <c r="C3565" s="0" t="s">
-        <v>6772</v>
+        <v>6770</v>
       </c>
       <c r="D3565" s="0" t="s">
         <v>15</v>
@@ -71655,10 +71649,10 @@
         <v>3573</v>
       </c>
       <c r="B3566" s="0" t="s">
-        <v>6773</v>
+        <v>6771</v>
       </c>
       <c r="C3566" s="0" t="s">
-        <v>6773</v>
+        <v>6771</v>
       </c>
       <c r="D3566" s="0" t="s">
         <v>15</v>
@@ -71669,10 +71663,10 @@
         <v>3574</v>
       </c>
       <c r="B3567" s="0" t="s">
-        <v>6774</v>
+        <v>6772</v>
       </c>
       <c r="C3567" s="0" t="s">
-        <v>6774</v>
+        <v>6772</v>
       </c>
       <c r="D3567" s="0" t="s">
         <v>15</v>
@@ -71683,10 +71677,10 @@
         <v>3575</v>
       </c>
       <c r="B3568" s="0" t="s">
-        <v>6775</v>
+        <v>6773</v>
       </c>
       <c r="C3568" s="0" t="s">
-        <v>6776</v>
+        <v>6774</v>
       </c>
       <c r="D3568" s="0" t="s">
         <v>15</v>
@@ -71697,10 +71691,10 @@
         <v>3576</v>
       </c>
       <c r="B3569" s="0" t="s">
-        <v>6777</v>
+        <v>6775</v>
       </c>
       <c r="C3569" s="0" t="s">
-        <v>6778</v>
+        <v>6776</v>
       </c>
       <c r="D3569" s="0" t="s">
         <v>15</v>
@@ -71711,10 +71705,10 @@
         <v>3577</v>
       </c>
       <c r="B3570" s="0" t="s">
-        <v>6779</v>
+        <v>6777</v>
       </c>
       <c r="C3570" s="0" t="s">
-        <v>6780</v>
+        <v>6778</v>
       </c>
       <c r="D3570" s="0" t="s">
         <v>15</v>
@@ -71725,10 +71719,10 @@
         <v>3578</v>
       </c>
       <c r="B3571" s="0" t="s">
-        <v>6781</v>
+        <v>6779</v>
       </c>
       <c r="C3571" s="0" t="s">
-        <v>6782</v>
+        <v>6780</v>
       </c>
       <c r="D3571" s="0" t="s">
         <v>15</v>
@@ -71739,10 +71733,10 @@
         <v>3579</v>
       </c>
       <c r="B3572" s="0" t="s">
-        <v>6783</v>
+        <v>6781</v>
       </c>
       <c r="C3572" s="0" t="s">
-        <v>6784</v>
+        <v>6782</v>
       </c>
       <c r="D3572" s="0" t="s">
         <v>15</v>
@@ -71753,10 +71747,10 @@
         <v>3580</v>
       </c>
       <c r="B3573" s="0" t="s">
-        <v>6785</v>
+        <v>6783</v>
       </c>
       <c r="C3573" s="0" t="s">
-        <v>6785</v>
+        <v>6783</v>
       </c>
       <c r="D3573" s="0" t="s">
         <v>15</v>
@@ -71767,10 +71761,10 @@
         <v>3581</v>
       </c>
       <c r="B3574" s="0" t="s">
-        <v>6786</v>
+        <v>6784</v>
       </c>
       <c r="C3574" s="0" t="s">
-        <v>6786</v>
+        <v>6784</v>
       </c>
       <c r="D3574" s="0" t="s">
         <v>15</v>
@@ -71781,10 +71775,10 @@
         <v>3582</v>
       </c>
       <c r="B3575" s="0" t="s">
-        <v>6787</v>
+        <v>6785</v>
       </c>
       <c r="C3575" s="0" t="s">
-        <v>6787</v>
+        <v>6785</v>
       </c>
       <c r="D3575" s="0" t="s">
         <v>15</v>
@@ -71795,10 +71789,10 @@
         <v>3583</v>
       </c>
       <c r="B3576" s="0" t="s">
-        <v>6788</v>
+        <v>6786</v>
       </c>
       <c r="C3576" s="0" t="s">
-        <v>6788</v>
+        <v>6786</v>
       </c>
       <c r="D3576" s="0" t="s">
         <v>15</v>
@@ -71809,10 +71803,10 @@
         <v>3584</v>
       </c>
       <c r="B3577" s="0" t="s">
-        <v>6789</v>
+        <v>6787</v>
       </c>
       <c r="C3577" s="0" t="s">
-        <v>6790</v>
+        <v>6788</v>
       </c>
       <c r="D3577" s="0" t="s">
         <v>15</v>
@@ -71823,10 +71817,10 @@
         <v>3585</v>
       </c>
       <c r="B3578" s="0" t="s">
-        <v>6791</v>
+        <v>6789</v>
       </c>
       <c r="C3578" s="0" t="s">
-        <v>6792</v>
+        <v>6790</v>
       </c>
       <c r="D3578" s="0" t="s">
         <v>15</v>
@@ -71837,10 +71831,10 @@
         <v>3586</v>
       </c>
       <c r="B3579" s="0" t="s">
-        <v>6793</v>
+        <v>6791</v>
       </c>
       <c r="C3579" s="0" t="s">
-        <v>6794</v>
+        <v>6792</v>
       </c>
       <c r="D3579" s="0" t="s">
         <v>15</v>
@@ -71851,10 +71845,10 @@
         <v>3587</v>
       </c>
       <c r="B3580" s="0" t="s">
-        <v>6795</v>
+        <v>6793</v>
       </c>
       <c r="C3580" s="0" t="s">
-        <v>6796</v>
+        <v>6794</v>
       </c>
       <c r="D3580" s="0" t="s">
         <v>15</v>
@@ -71865,10 +71859,10 @@
         <v>3588</v>
       </c>
       <c r="B3581" s="0" t="s">
-        <v>6797</v>
+        <v>6795</v>
       </c>
       <c r="C3581" s="0" t="s">
-        <v>6798</v>
+        <v>6796</v>
       </c>
       <c r="D3581" s="0" t="s">
         <v>15</v>
@@ -71879,10 +71873,10 @@
         <v>3589</v>
       </c>
       <c r="B3582" s="0" t="s">
-        <v>6799</v>
+        <v>6797</v>
       </c>
       <c r="C3582" s="0" t="s">
-        <v>6800</v>
+        <v>6798</v>
       </c>
       <c r="D3582" s="0" t="s">
         <v>15</v>
@@ -71893,10 +71887,10 @@
         <v>3590</v>
       </c>
       <c r="B3583" s="0" t="s">
-        <v>6801</v>
+        <v>6799</v>
       </c>
       <c r="C3583" s="0" t="s">
-        <v>6802</v>
+        <v>6800</v>
       </c>
       <c r="D3583" s="0" t="s">
         <v>15</v>
@@ -71907,10 +71901,10 @@
         <v>3591</v>
       </c>
       <c r="B3584" s="0" t="s">
-        <v>6803</v>
+        <v>6801</v>
       </c>
       <c r="C3584" s="0" t="s">
-        <v>6804</v>
+        <v>6802</v>
       </c>
       <c r="D3584" s="0" t="s">
         <v>15</v>
@@ -71921,10 +71915,10 @@
         <v>3592</v>
       </c>
       <c r="B3585" s="0" t="s">
-        <v>6805</v>
+        <v>6803</v>
       </c>
       <c r="C3585" s="0" t="s">
-        <v>6806</v>
+        <v>6804</v>
       </c>
       <c r="D3585" s="0" t="s">
         <v>15</v>
@@ -71935,10 +71929,10 @@
         <v>3593</v>
       </c>
       <c r="B3586" s="0" t="s">
-        <v>6807</v>
+        <v>6805</v>
       </c>
       <c r="C3586" s="0" t="s">
-        <v>6808</v>
+        <v>6806</v>
       </c>
       <c r="D3586" s="0" t="s">
         <v>15</v>
@@ -71949,10 +71943,10 @@
         <v>3594</v>
       </c>
       <c r="B3587" s="0" t="s">
-        <v>6809</v>
+        <v>6807</v>
       </c>
       <c r="C3587" s="0" t="s">
-        <v>6810</v>
+        <v>6808</v>
       </c>
       <c r="D3587" s="0" t="s">
         <v>15</v>
@@ -71963,10 +71957,10 @@
         <v>3595</v>
       </c>
       <c r="B3588" s="0" t="s">
-        <v>6811</v>
+        <v>6809</v>
       </c>
       <c r="C3588" s="0" t="s">
-        <v>6812</v>
+        <v>6810</v>
       </c>
       <c r="D3588" s="0" t="s">
         <v>15</v>
@@ -71977,10 +71971,10 @@
         <v>3596</v>
       </c>
       <c r="B3589" s="0" t="s">
-        <v>6813</v>
+        <v>6811</v>
       </c>
       <c r="C3589" s="0" t="s">
-        <v>6814</v>
+        <v>6812</v>
       </c>
       <c r="D3589" s="0" t="s">
         <v>15</v>
@@ -71991,10 +71985,10 @@
         <v>3597</v>
       </c>
       <c r="B3590" s="0" t="s">
-        <v>6815</v>
+        <v>6813</v>
       </c>
       <c r="C3590" s="0" t="s">
-        <v>6816</v>
+        <v>6814</v>
       </c>
       <c r="D3590" s="0" t="s">
         <v>15</v>
@@ -72005,10 +71999,10 @@
         <v>3598</v>
       </c>
       <c r="B3591" s="0" t="s">
-        <v>6817</v>
+        <v>6815</v>
       </c>
       <c r="C3591" s="0" t="s">
-        <v>6818</v>
+        <v>6816</v>
       </c>
       <c r="D3591" s="0" t="s">
         <v>15</v>
@@ -72019,10 +72013,10 @@
         <v>3599</v>
       </c>
       <c r="B3592" s="0" t="s">
-        <v>6819</v>
+        <v>6817</v>
       </c>
       <c r="C3592" s="0" t="s">
-        <v>6820</v>
+        <v>6818</v>
       </c>
       <c r="D3592" s="0" t="s">
         <v>15</v>
@@ -72033,10 +72027,10 @@
         <v>3600</v>
       </c>
       <c r="B3593" s="0" t="s">
-        <v>6821</v>
+        <v>6819</v>
       </c>
       <c r="C3593" s="0" t="s">
-        <v>6822</v>
+        <v>6820</v>
       </c>
       <c r="D3593" s="0" t="s">
         <v>15</v>
@@ -72047,10 +72041,10 @@
         <v>3601</v>
       </c>
       <c r="B3594" s="0" t="s">
-        <v>6823</v>
+        <v>6821</v>
       </c>
       <c r="C3594" s="0" t="s">
-        <v>6824</v>
+        <v>6822</v>
       </c>
       <c r="D3594" s="0" t="s">
         <v>15</v>
@@ -72061,10 +72055,10 @@
         <v>3602</v>
       </c>
       <c r="B3595" s="0" t="s">
-        <v>6825</v>
+        <v>6823</v>
       </c>
       <c r="C3595" s="0" t="s">
-        <v>6826</v>
+        <v>6824</v>
       </c>
       <c r="D3595" s="0" t="s">
         <v>15</v>
@@ -72075,10 +72069,10 @@
         <v>3603</v>
       </c>
       <c r="B3596" s="0" t="s">
-        <v>6827</v>
+        <v>6825</v>
       </c>
       <c r="C3596" s="0" t="s">
-        <v>6828</v>
+        <v>6826</v>
       </c>
       <c r="D3596" s="0" t="s">
         <v>15</v>
@@ -72089,10 +72083,10 @@
         <v>3604</v>
       </c>
       <c r="B3597" s="0" t="s">
-        <v>6829</v>
+        <v>6827</v>
       </c>
       <c r="C3597" s="0" t="s">
-        <v>6830</v>
+        <v>6828</v>
       </c>
       <c r="D3597" s="0" t="s">
         <v>15</v>
@@ -72103,10 +72097,10 @@
         <v>3605</v>
       </c>
       <c r="B3598" s="0" t="s">
-        <v>6831</v>
+        <v>6829</v>
       </c>
       <c r="C3598" s="0" t="s">
-        <v>6831</v>
+        <v>6829</v>
       </c>
       <c r="D3598" s="0" t="s">
         <v>15</v>
@@ -72117,10 +72111,10 @@
         <v>3606</v>
       </c>
       <c r="B3599" s="0" t="s">
-        <v>6832</v>
+        <v>6830</v>
       </c>
       <c r="C3599" s="0" t="s">
-        <v>6833</v>
+        <v>6831</v>
       </c>
       <c r="D3599" s="0" t="s">
         <v>15</v>
@@ -72131,10 +72125,10 @@
         <v>3607</v>
       </c>
       <c r="B3600" s="0" t="s">
-        <v>6834</v>
+        <v>6832</v>
       </c>
       <c r="C3600" s="0" t="s">
-        <v>6835</v>
+        <v>6833</v>
       </c>
       <c r="D3600" s="0" t="s">
         <v>15</v>
@@ -72145,10 +72139,10 @@
         <v>3608</v>
       </c>
       <c r="B3601" s="0" t="s">
-        <v>6836</v>
+        <v>6834</v>
       </c>
       <c r="C3601" s="0" t="s">
-        <v>6837</v>
+        <v>6835</v>
       </c>
       <c r="D3601" s="0" t="s">
         <v>15</v>
@@ -72159,10 +72153,10 @@
         <v>3609</v>
       </c>
       <c r="B3602" s="0" t="s">
-        <v>6838</v>
+        <v>6836</v>
       </c>
       <c r="C3602" s="0" t="s">
-        <v>6839</v>
+        <v>6837</v>
       </c>
       <c r="D3602" s="0" t="s">
         <v>15</v>
@@ -72173,10 +72167,10 @@
         <v>3610</v>
       </c>
       <c r="B3603" s="0" t="s">
-        <v>6840</v>
+        <v>6838</v>
       </c>
       <c r="C3603" s="0" t="s">
-        <v>6841</v>
+        <v>6839</v>
       </c>
       <c r="D3603" s="0" t="s">
         <v>15</v>
@@ -72187,10 +72181,10 @@
         <v>3611</v>
       </c>
       <c r="B3604" s="0" t="s">
-        <v>6842</v>
+        <v>6840</v>
       </c>
       <c r="C3604" s="0" t="s">
-        <v>6843</v>
+        <v>6841</v>
       </c>
       <c r="D3604" s="0" t="s">
         <v>15</v>
@@ -72201,10 +72195,10 @@
         <v>3612</v>
       </c>
       <c r="B3605" s="0" t="s">
-        <v>6844</v>
+        <v>6842</v>
       </c>
       <c r="C3605" s="0" t="s">
-        <v>6845</v>
+        <v>6843</v>
       </c>
       <c r="D3605" s="0" t="s">
         <v>15</v>
@@ -72215,10 +72209,10 @@
         <v>3613</v>
       </c>
       <c r="B3606" s="0" t="s">
-        <v>6846</v>
+        <v>6844</v>
       </c>
       <c r="C3606" s="0" t="s">
-        <v>6847</v>
+        <v>6845</v>
       </c>
       <c r="D3606" s="0" t="s">
         <v>15</v>
@@ -72229,10 +72223,10 @@
         <v>3614</v>
       </c>
       <c r="B3607" s="0" t="s">
-        <v>6848</v>
+        <v>6846</v>
       </c>
       <c r="C3607" s="0" t="s">
-        <v>6849</v>
+        <v>6847</v>
       </c>
       <c r="D3607" s="0" t="s">
         <v>15</v>
@@ -72243,10 +72237,10 @@
         <v>3615</v>
       </c>
       <c r="B3608" s="0" t="s">
-        <v>6850</v>
+        <v>6848</v>
       </c>
       <c r="C3608" s="0" t="s">
-        <v>6851</v>
+        <v>6849</v>
       </c>
       <c r="D3608" s="0" t="s">
         <v>15</v>
@@ -72257,10 +72251,10 @@
         <v>3616</v>
       </c>
       <c r="B3609" s="0" t="s">
-        <v>6852</v>
+        <v>6850</v>
       </c>
       <c r="C3609" s="0" t="s">
-        <v>6853</v>
+        <v>6851</v>
       </c>
       <c r="D3609" s="0" t="s">
         <v>15</v>
@@ -72271,10 +72265,10 @@
         <v>3617</v>
       </c>
       <c r="B3610" s="0" t="s">
-        <v>6854</v>
+        <v>6852</v>
       </c>
       <c r="C3610" s="0" t="s">
-        <v>6855</v>
+        <v>6853</v>
       </c>
       <c r="D3610" s="0" t="s">
         <v>15</v>
@@ -72285,10 +72279,10 @@
         <v>3618</v>
       </c>
       <c r="B3611" s="0" t="s">
-        <v>6856</v>
+        <v>6854</v>
       </c>
       <c r="C3611" s="0" t="s">
-        <v>6857</v>
+        <v>6855</v>
       </c>
       <c r="D3611" s="0" t="s">
         <v>15</v>
@@ -72299,10 +72293,10 @@
         <v>3619</v>
       </c>
       <c r="B3612" s="0" t="s">
-        <v>6858</v>
+        <v>6856</v>
       </c>
       <c r="C3612" s="0" t="s">
-        <v>6859</v>
+        <v>6857</v>
       </c>
       <c r="D3612" s="0" t="s">
         <v>15</v>
@@ -72313,10 +72307,10 @@
         <v>3622</v>
       </c>
       <c r="B3613" s="0" t="s">
-        <v>6860</v>
+        <v>6858</v>
       </c>
       <c r="C3613" s="0" t="s">
-        <v>6861</v>
+        <v>6859</v>
       </c>
       <c r="D3613" s="0" t="s">
         <v>15</v>
@@ -72327,10 +72321,10 @@
         <v>3623</v>
       </c>
       <c r="B3614" s="0" t="s">
-        <v>6862</v>
+        <v>6860</v>
       </c>
       <c r="C3614" s="0" t="s">
-        <v>6863</v>
+        <v>6861</v>
       </c>
       <c r="D3614" s="0" t="s">
         <v>15</v>
@@ -72341,10 +72335,10 @@
         <v>3624</v>
       </c>
       <c r="B3615" s="0" t="s">
-        <v>6864</v>
+        <v>6862</v>
       </c>
       <c r="C3615" s="0" t="s">
-        <v>6865</v>
+        <v>6863</v>
       </c>
       <c r="D3615" s="0" t="s">
         <v>15</v>
@@ -72355,10 +72349,10 @@
         <v>3625</v>
       </c>
       <c r="B3616" s="0" t="s">
-        <v>6866</v>
+        <v>6864</v>
       </c>
       <c r="C3616" s="0" t="s">
-        <v>6867</v>
+        <v>6865</v>
       </c>
       <c r="D3616" s="0" t="s">
         <v>15</v>
@@ -72369,10 +72363,10 @@
         <v>3626</v>
       </c>
       <c r="B3617" s="0" t="s">
-        <v>6868</v>
+        <v>6866</v>
       </c>
       <c r="C3617" s="0" t="s">
-        <v>6869</v>
+        <v>6867</v>
       </c>
       <c r="D3617" s="0" t="s">
         <v>15</v>
@@ -72383,10 +72377,10 @@
         <v>3627</v>
       </c>
       <c r="B3618" s="0" t="s">
-        <v>6870</v>
+        <v>6868</v>
       </c>
       <c r="C3618" s="0" t="s">
-        <v>6871</v>
+        <v>6869</v>
       </c>
       <c r="D3618" s="0" t="s">
         <v>15</v>
@@ -72397,10 +72391,10 @@
         <v>3628</v>
       </c>
       <c r="B3619" s="0" t="s">
-        <v>6872</v>
+        <v>6870</v>
       </c>
       <c r="C3619" s="0" t="s">
-        <v>6873</v>
+        <v>6871</v>
       </c>
       <c r="D3619" s="0" t="s">
         <v>15</v>
@@ -72411,10 +72405,10 @@
         <v>3629</v>
       </c>
       <c r="B3620" s="0" t="s">
-        <v>6874</v>
+        <v>6872</v>
       </c>
       <c r="C3620" s="0" t="s">
-        <v>6875</v>
+        <v>6873</v>
       </c>
       <c r="D3620" s="0" t="s">
         <v>15</v>
@@ -72425,10 +72419,10 @@
         <v>3630</v>
       </c>
       <c r="B3621" s="0" t="s">
-        <v>6874</v>
+        <v>6872</v>
       </c>
       <c r="C3621" s="0" t="s">
-        <v>6875</v>
+        <v>6873</v>
       </c>
       <c r="D3621" s="0" t="s">
         <v>15</v>
@@ -72439,10 +72433,10 @@
         <v>3631</v>
       </c>
       <c r="B3622" s="0" t="s">
-        <v>6876</v>
+        <v>6874</v>
       </c>
       <c r="C3622" s="0" t="s">
-        <v>6876</v>
+        <v>6874</v>
       </c>
       <c r="D3622" s="0" t="s">
         <v>15</v>
@@ -72453,10 +72447,10 @@
         <v>3632</v>
       </c>
       <c r="B3623" s="0" t="s">
-        <v>6877</v>
+        <v>6875</v>
       </c>
       <c r="C3623" s="0" t="s">
-        <v>6878</v>
+        <v>6876</v>
       </c>
       <c r="D3623" s="0" t="s">
         <v>15</v>
@@ -72467,10 +72461,10 @@
         <v>3633</v>
       </c>
       <c r="B3624" s="0" t="s">
-        <v>6879</v>
+        <v>6877</v>
       </c>
       <c r="C3624" s="0" t="s">
-        <v>6880</v>
+        <v>6878</v>
       </c>
       <c r="D3624" s="0" t="s">
         <v>15</v>
@@ -72481,10 +72475,10 @@
         <v>3634</v>
       </c>
       <c r="B3625" s="0" t="s">
-        <v>6881</v>
+        <v>6879</v>
       </c>
       <c r="C3625" s="0" t="s">
-        <v>6882</v>
+        <v>6880</v>
       </c>
       <c r="D3625" s="0" t="s">
         <v>15</v>
@@ -72495,10 +72489,10 @@
         <v>3635</v>
       </c>
       <c r="B3626" s="0" t="s">
-        <v>6883</v>
+        <v>6881</v>
       </c>
       <c r="C3626" s="0" t="s">
-        <v>6884</v>
+        <v>6882</v>
       </c>
       <c r="D3626" s="0" t="s">
         <v>15</v>
@@ -72509,10 +72503,10 @@
         <v>3636</v>
       </c>
       <c r="B3627" s="0" t="s">
-        <v>6885</v>
+        <v>6883</v>
       </c>
       <c r="C3627" s="0" t="s">
-        <v>6886</v>
+        <v>6884</v>
       </c>
       <c r="D3627" s="0" t="s">
         <v>15</v>
@@ -72523,10 +72517,10 @@
         <v>3637</v>
       </c>
       <c r="B3628" s="0" t="s">
-        <v>6887</v>
+        <v>6885</v>
       </c>
       <c r="C3628" s="0" t="s">
-        <v>6888</v>
+        <v>6886</v>
       </c>
       <c r="D3628" s="0" t="s">
         <v>15</v>
@@ -72537,10 +72531,10 @@
         <v>3638</v>
       </c>
       <c r="B3629" s="0" t="s">
-        <v>6889</v>
+        <v>6887</v>
       </c>
       <c r="C3629" s="0" t="s">
-        <v>6890</v>
+        <v>6888</v>
       </c>
       <c r="D3629" s="0" t="s">
         <v>15</v>
@@ -72551,10 +72545,10 @@
         <v>3639</v>
       </c>
       <c r="B3630" s="0" t="s">
-        <v>6891</v>
+        <v>6889</v>
       </c>
       <c r="C3630" s="0" t="s">
-        <v>6892</v>
+        <v>6890</v>
       </c>
       <c r="D3630" s="0" t="s">
         <v>15</v>
@@ -72565,10 +72559,10 @@
         <v>3640</v>
       </c>
       <c r="B3631" s="0" t="s">
-        <v>6893</v>
+        <v>6891</v>
       </c>
       <c r="C3631" s="0" t="s">
-        <v>6894</v>
+        <v>6892</v>
       </c>
       <c r="D3631" s="0" t="s">
         <v>15</v>
@@ -72579,10 +72573,10 @@
         <v>3641</v>
       </c>
       <c r="B3632" s="0" t="s">
-        <v>6895</v>
+        <v>6893</v>
       </c>
       <c r="C3632" s="0" t="s">
-        <v>6895</v>
+        <v>6893</v>
       </c>
       <c r="D3632" s="0" t="s">
         <v>15</v>
@@ -72593,10 +72587,10 @@
         <v>3642</v>
       </c>
       <c r="B3633" s="0" t="s">
-        <v>6896</v>
+        <v>6894</v>
       </c>
       <c r="C3633" s="0" t="s">
-        <v>6897</v>
+        <v>6895</v>
       </c>
       <c r="D3633" s="0" t="s">
         <v>15</v>
@@ -72607,10 +72601,10 @@
         <v>3643</v>
       </c>
       <c r="B3634" s="0" t="s">
-        <v>6898</v>
+        <v>6896</v>
       </c>
       <c r="C3634" s="0" t="s">
-        <v>6899</v>
+        <v>6897</v>
       </c>
       <c r="D3634" s="0" t="s">
         <v>15</v>
@@ -72621,10 +72615,10 @@
         <v>3644</v>
       </c>
       <c r="B3635" s="0" t="s">
-        <v>6900</v>
+        <v>6898</v>
       </c>
       <c r="C3635" s="0" t="s">
-        <v>6901</v>
+        <v>6899</v>
       </c>
       <c r="D3635" s="0" t="s">
         <v>15</v>
@@ -72635,10 +72629,10 @@
         <v>3645</v>
       </c>
       <c r="B3636" s="0" t="s">
-        <v>6902</v>
+        <v>6900</v>
       </c>
       <c r="C3636" s="0" t="s">
-        <v>6903</v>
+        <v>6901</v>
       </c>
       <c r="D3636" s="0" t="s">
         <v>15</v>
@@ -72649,10 +72643,10 @@
         <v>3646</v>
       </c>
       <c r="B3637" s="0" t="s">
-        <v>6904</v>
+        <v>6902</v>
       </c>
       <c r="C3637" s="0" t="s">
-        <v>6904</v>
+        <v>6902</v>
       </c>
       <c r="D3637" s="0" t="s">
         <v>15</v>
@@ -72663,10 +72657,10 @@
         <v>3647</v>
       </c>
       <c r="B3638" s="0" t="s">
-        <v>6905</v>
+        <v>6903</v>
       </c>
       <c r="C3638" s="0" t="s">
-        <v>6905</v>
+        <v>6903</v>
       </c>
       <c r="D3638" s="0" t="s">
         <v>15</v>
@@ -72677,10 +72671,10 @@
         <v>3648</v>
       </c>
       <c r="B3639" s="0" t="s">
-        <v>6906</v>
+        <v>6904</v>
       </c>
       <c r="C3639" s="0" t="s">
-        <v>6907</v>
+        <v>6905</v>
       </c>
       <c r="D3639" s="0" t="s">
         <v>15</v>
@@ -72691,10 +72685,10 @@
         <v>3649</v>
       </c>
       <c r="B3640" s="0" t="s">
-        <v>6908</v>
+        <v>6906</v>
       </c>
       <c r="C3640" s="0" t="s">
-        <v>6909</v>
+        <v>6907</v>
       </c>
       <c r="D3640" s="0" t="s">
         <v>15</v>
@@ -72705,10 +72699,10 @@
         <v>3650</v>
       </c>
       <c r="B3641" s="0" t="s">
-        <v>6910</v>
+        <v>6908</v>
       </c>
       <c r="C3641" s="0" t="s">
-        <v>6911</v>
+        <v>6909</v>
       </c>
       <c r="D3641" s="0" t="s">
         <v>15</v>
@@ -72719,10 +72713,10 @@
         <v>3651</v>
       </c>
       <c r="B3642" s="0" t="s">
-        <v>6912</v>
+        <v>6910</v>
       </c>
       <c r="C3642" s="0" t="s">
-        <v>6913</v>
+        <v>6911</v>
       </c>
       <c r="D3642" s="0" t="s">
         <v>15</v>
@@ -72733,10 +72727,10 @@
         <v>3652</v>
       </c>
       <c r="B3643" s="0" t="s">
-        <v>6914</v>
+        <v>6912</v>
       </c>
       <c r="C3643" s="0" t="s">
-        <v>6915</v>
+        <v>6913</v>
       </c>
       <c r="D3643" s="0" t="s">
         <v>15</v>
@@ -72747,10 +72741,10 @@
         <v>3653</v>
       </c>
       <c r="B3644" s="0" t="s">
-        <v>6916</v>
+        <v>6914</v>
       </c>
       <c r="C3644" s="0" t="s">
-        <v>6917</v>
+        <v>6915</v>
       </c>
       <c r="D3644" s="0" t="s">
         <v>15</v>
@@ -72761,10 +72755,10 @@
         <v>3654</v>
       </c>
       <c r="B3645" s="0" t="s">
-        <v>6918</v>
+        <v>6916</v>
       </c>
       <c r="C3645" s="0" t="s">
-        <v>6919</v>
+        <v>6917</v>
       </c>
       <c r="D3645" s="0" t="s">
         <v>15</v>
@@ -72775,10 +72769,10 @@
         <v>3655</v>
       </c>
       <c r="B3646" s="0" t="s">
-        <v>6920</v>
+        <v>6918</v>
       </c>
       <c r="C3646" s="0" t="s">
-        <v>6921</v>
+        <v>6919</v>
       </c>
       <c r="D3646" s="0" t="s">
         <v>15</v>
@@ -72789,10 +72783,10 @@
         <v>3656</v>
       </c>
       <c r="B3647" s="0" t="s">
-        <v>6922</v>
+        <v>6920</v>
       </c>
       <c r="C3647" s="0" t="s">
-        <v>6922</v>
+        <v>6920</v>
       </c>
       <c r="D3647" s="0" t="s">
         <v>15</v>
@@ -72803,10 +72797,10 @@
         <v>3657</v>
       </c>
       <c r="B3648" s="0" t="s">
-        <v>6923</v>
+        <v>6921</v>
       </c>
       <c r="C3648" s="0" t="s">
-        <v>6923</v>
+        <v>6921</v>
       </c>
       <c r="D3648" s="0" t="s">
         <v>15</v>
@@ -72817,10 +72811,10 @@
         <v>3658</v>
       </c>
       <c r="B3649" s="0" t="s">
-        <v>6924</v>
+        <v>6922</v>
       </c>
       <c r="C3649" s="0" t="s">
-        <v>6924</v>
+        <v>6922</v>
       </c>
       <c r="D3649" s="0" t="s">
         <v>15</v>
@@ -72831,10 +72825,10 @@
         <v>3659</v>
       </c>
       <c r="B3650" s="0" t="s">
-        <v>6925</v>
+        <v>6923</v>
       </c>
       <c r="C3650" s="0" t="s">
-        <v>6925</v>
+        <v>6923</v>
       </c>
       <c r="D3650" s="0" t="s">
         <v>15</v>
@@ -72845,10 +72839,10 @@
         <v>3660</v>
       </c>
       <c r="B3651" s="0" t="s">
-        <v>6926</v>
+        <v>6924</v>
       </c>
       <c r="C3651" s="0" t="s">
-        <v>6926</v>
+        <v>6924</v>
       </c>
       <c r="D3651" s="0" t="s">
         <v>15</v>
@@ -72859,10 +72853,10 @@
         <v>3661</v>
       </c>
       <c r="B3652" s="0" t="s">
-        <v>6927</v>
+        <v>6925</v>
       </c>
       <c r="C3652" s="0" t="s">
-        <v>6927</v>
+        <v>6925</v>
       </c>
       <c r="D3652" s="0" t="s">
         <v>15</v>
@@ -72873,10 +72867,10 @@
         <v>3662</v>
       </c>
       <c r="B3653" s="0" t="s">
-        <v>6928</v>
+        <v>6926</v>
       </c>
       <c r="C3653" s="0" t="s">
-        <v>6928</v>
+        <v>6926</v>
       </c>
       <c r="D3653" s="0" t="s">
         <v>15</v>
@@ -72887,10 +72881,10 @@
         <v>3663</v>
       </c>
       <c r="B3654" s="0" t="s">
-        <v>6929</v>
+        <v>6927</v>
       </c>
       <c r="C3654" s="0" t="s">
-        <v>6929</v>
+        <v>6927</v>
       </c>
       <c r="D3654" s="0" t="s">
         <v>15</v>
@@ -72901,10 +72895,10 @@
         <v>3664</v>
       </c>
       <c r="B3655" s="0" t="s">
-        <v>6930</v>
+        <v>6928</v>
       </c>
       <c r="C3655" s="0" t="s">
-        <v>6930</v>
+        <v>6928</v>
       </c>
       <c r="D3655" s="0" t="s">
         <v>15</v>
@@ -72915,10 +72909,10 @@
         <v>3665</v>
       </c>
       <c r="B3656" s="0" t="s">
-        <v>6931</v>
+        <v>6929</v>
       </c>
       <c r="C3656" s="0" t="s">
-        <v>6931</v>
+        <v>6929</v>
       </c>
       <c r="D3656" s="0" t="s">
         <v>15</v>
@@ -72929,10 +72923,10 @@
         <v>3666</v>
       </c>
       <c r="B3657" s="0" t="s">
-        <v>6932</v>
+        <v>6930</v>
       </c>
       <c r="C3657" s="0" t="s">
-        <v>6933</v>
+        <v>6931</v>
       </c>
       <c r="D3657" s="0" t="s">
         <v>15</v>
@@ -72943,10 +72937,10 @@
         <v>3667</v>
       </c>
       <c r="B3658" s="0" t="s">
-        <v>6934</v>
+        <v>6932</v>
       </c>
       <c r="C3658" s="0" t="s">
-        <v>6935</v>
+        <v>6933</v>
       </c>
       <c r="D3658" s="0" t="s">
         <v>15</v>
@@ -72957,10 +72951,10 @@
         <v>3668</v>
       </c>
       <c r="B3659" s="0" t="s">
-        <v>6936</v>
+        <v>6934</v>
       </c>
       <c r="C3659" s="0" t="s">
-        <v>6937</v>
+        <v>6935</v>
       </c>
       <c r="D3659" s="0" t="s">
         <v>15</v>
@@ -72971,10 +72965,10 @@
         <v>3669</v>
       </c>
       <c r="B3660" s="0" t="s">
-        <v>6938</v>
+        <v>6936</v>
       </c>
       <c r="C3660" s="0" t="s">
-        <v>6939</v>
+        <v>6937</v>
       </c>
       <c r="D3660" s="0" t="s">
         <v>15</v>
@@ -72985,10 +72979,10 @@
         <v>3670</v>
       </c>
       <c r="B3661" s="0" t="s">
-        <v>6940</v>
+        <v>6938</v>
       </c>
       <c r="C3661" s="0" t="s">
-        <v>6941</v>
+        <v>6939</v>
       </c>
       <c r="D3661" s="0" t="s">
         <v>15</v>
@@ -72999,10 +72993,10 @@
         <v>3671</v>
       </c>
       <c r="B3662" s="0" t="s">
-        <v>6942</v>
+        <v>6940</v>
       </c>
       <c r="C3662" s="0" t="s">
-        <v>6943</v>
+        <v>6941</v>
       </c>
       <c r="D3662" s="0" t="s">
         <v>15</v>
@@ -73013,10 +73007,10 @@
         <v>3672</v>
       </c>
       <c r="B3663" s="0" t="s">
-        <v>6944</v>
+        <v>6942</v>
       </c>
       <c r="C3663" s="0" t="s">
-        <v>6945</v>
+        <v>6943</v>
       </c>
       <c r="D3663" s="0" t="s">
         <v>15</v>
@@ -73027,10 +73021,10 @@
         <v>3673</v>
       </c>
       <c r="B3664" s="0" t="s">
-        <v>6946</v>
+        <v>6944</v>
       </c>
       <c r="C3664" s="0" t="s">
-        <v>6947</v>
+        <v>6945</v>
       </c>
       <c r="D3664" s="0" t="s">
         <v>15</v>
@@ -73041,10 +73035,10 @@
         <v>3674</v>
       </c>
       <c r="B3665" s="0" t="s">
-        <v>6948</v>
+        <v>6946</v>
       </c>
       <c r="C3665" s="0" t="s">
-        <v>6949</v>
+        <v>6947</v>
       </c>
       <c r="D3665" s="0" t="s">
         <v>15</v>
@@ -73055,7 +73049,7 @@
         <v>3675</v>
       </c>
       <c r="B3666" s="0" t="s">
-        <v>6950</v>
+        <v>6948</v>
       </c>
       <c r="C3666" s="0" t="s">
         <v>721</v>
@@ -73069,10 +73063,10 @@
         <v>3676</v>
       </c>
       <c r="B3667" s="0" t="s">
-        <v>6951</v>
+        <v>6949</v>
       </c>
       <c r="C3667" s="0" t="s">
-        <v>6952</v>
+        <v>6950</v>
       </c>
       <c r="D3667" s="0" t="s">
         <v>15</v>
@@ -73083,10 +73077,10 @@
         <v>3677</v>
       </c>
       <c r="B3668" s="0" t="s">
-        <v>6953</v>
+        <v>6951</v>
       </c>
       <c r="C3668" s="0" t="s">
-        <v>6954</v>
+        <v>6952</v>
       </c>
       <c r="D3668" s="0" t="s">
         <v>15</v>
@@ -73097,10 +73091,10 @@
         <v>3679</v>
       </c>
       <c r="B3669" s="0" t="s">
-        <v>6955</v>
+        <v>6953</v>
       </c>
       <c r="C3669" s="0" t="s">
-        <v>6956</v>
+        <v>6954</v>
       </c>
       <c r="D3669" s="0" t="s">
         <v>15</v>
@@ -73111,10 +73105,10 @@
         <v>3681</v>
       </c>
       <c r="B3670" s="0" t="s">
-        <v>6957</v>
+        <v>6955</v>
       </c>
       <c r="C3670" s="0" t="s">
-        <v>6958</v>
+        <v>6956</v>
       </c>
       <c r="D3670" s="0" t="s">
         <v>15</v>
@@ -73125,10 +73119,10 @@
         <v>3682</v>
       </c>
       <c r="B3671" s="0" t="s">
-        <v>6959</v>
+        <v>6957</v>
       </c>
       <c r="C3671" s="0" t="s">
-        <v>6960</v>
+        <v>6958</v>
       </c>
       <c r="D3671" s="0" t="s">
         <v>15</v>
@@ -73139,10 +73133,10 @@
         <v>3683</v>
       </c>
       <c r="B3672" s="0" t="s">
-        <v>6961</v>
+        <v>6959</v>
       </c>
       <c r="C3672" s="0" t="s">
-        <v>6962</v>
+        <v>6960</v>
       </c>
       <c r="D3672" s="0" t="s">
         <v>15</v>
@@ -73153,10 +73147,10 @@
         <v>3684</v>
       </c>
       <c r="B3673" s="0" t="s">
-        <v>6963</v>
+        <v>6961</v>
       </c>
       <c r="C3673" s="0" t="s">
-        <v>6964</v>
+        <v>6962</v>
       </c>
       <c r="D3673" s="0" t="s">
         <v>15</v>
@@ -73167,10 +73161,10 @@
         <v>3685</v>
       </c>
       <c r="B3674" s="0" t="s">
-        <v>6965</v>
+        <v>6963</v>
       </c>
       <c r="C3674" s="0" t="s">
-        <v>6966</v>
+        <v>6964</v>
       </c>
       <c r="D3674" s="0" t="s">
         <v>15</v>
@@ -73181,10 +73175,10 @@
         <v>3686</v>
       </c>
       <c r="B3675" s="0" t="s">
-        <v>6967</v>
+        <v>6965</v>
       </c>
       <c r="C3675" s="0" t="s">
-        <v>6968</v>
+        <v>6966</v>
       </c>
       <c r="D3675" s="0" t="s">
         <v>15</v>
@@ -73195,10 +73189,10 @@
         <v>3687</v>
       </c>
       <c r="B3676" s="0" t="s">
-        <v>6969</v>
+        <v>6967</v>
       </c>
       <c r="C3676" s="0" t="s">
-        <v>6970</v>
+        <v>6968</v>
       </c>
       <c r="D3676" s="0" t="s">
         <v>15</v>
@@ -73209,10 +73203,10 @@
         <v>3688</v>
       </c>
       <c r="B3677" s="0" t="s">
-        <v>6971</v>
+        <v>6969</v>
       </c>
       <c r="C3677" s="0" t="s">
-        <v>6972</v>
+        <v>6970</v>
       </c>
       <c r="D3677" s="0" t="s">
         <v>15</v>
@@ -73223,10 +73217,10 @@
         <v>3689</v>
       </c>
       <c r="B3678" s="0" t="s">
-        <v>6973</v>
+        <v>6971</v>
       </c>
       <c r="C3678" s="0" t="s">
-        <v>6974</v>
+        <v>6972</v>
       </c>
       <c r="D3678" s="0" t="s">
         <v>15</v>
@@ -73237,10 +73231,10 @@
         <v>3690</v>
       </c>
       <c r="B3679" s="0" t="s">
-        <v>6975</v>
+        <v>6973</v>
       </c>
       <c r="C3679" s="0" t="s">
-        <v>6976</v>
+        <v>6974</v>
       </c>
       <c r="D3679" s="0" t="s">
         <v>15</v>
@@ -73251,10 +73245,10 @@
         <v>3691</v>
       </c>
       <c r="B3680" s="0" t="s">
-        <v>6977</v>
+        <v>6975</v>
       </c>
       <c r="C3680" s="0" t="s">
-        <v>6978</v>
+        <v>6976</v>
       </c>
       <c r="D3680" s="0" t="s">
         <v>15</v>
@@ -73265,10 +73259,10 @@
         <v>3692</v>
       </c>
       <c r="B3681" s="0" t="s">
-        <v>6979</v>
+        <v>6977</v>
       </c>
       <c r="C3681" s="0" t="s">
-        <v>6980</v>
+        <v>6978</v>
       </c>
       <c r="D3681" s="0" t="s">
         <v>15</v>
@@ -73279,10 +73273,10 @@
         <v>3693</v>
       </c>
       <c r="B3682" s="0" t="s">
-        <v>6981</v>
+        <v>6979</v>
       </c>
       <c r="C3682" s="0" t="s">
-        <v>6982</v>
+        <v>6980</v>
       </c>
       <c r="D3682" s="0" t="s">
         <v>15</v>
@@ -73293,10 +73287,10 @@
         <v>3694</v>
       </c>
       <c r="B3683" s="0" t="s">
-        <v>6983</v>
+        <v>6981</v>
       </c>
       <c r="C3683" s="0" t="s">
-        <v>6984</v>
+        <v>6982</v>
       </c>
       <c r="D3683" s="0" t="s">
         <v>15</v>
@@ -73307,10 +73301,10 @@
         <v>3695</v>
       </c>
       <c r="B3684" s="0" t="s">
-        <v>6985</v>
+        <v>6983</v>
       </c>
       <c r="C3684" s="0" t="s">
-        <v>6986</v>
+        <v>6984</v>
       </c>
       <c r="D3684" s="0" t="s">
         <v>15</v>
@@ -73321,10 +73315,10 @@
         <v>3696</v>
       </c>
       <c r="B3685" s="0" t="s">
-        <v>6987</v>
+        <v>6985</v>
       </c>
       <c r="C3685" s="0" t="s">
-        <v>6988</v>
+        <v>6986</v>
       </c>
       <c r="D3685" s="0" t="s">
         <v>15</v>
@@ -73335,10 +73329,10 @@
         <v>3697</v>
       </c>
       <c r="B3686" s="0" t="s">
-        <v>6989</v>
+        <v>6987</v>
       </c>
       <c r="C3686" s="0" t="s">
-        <v>6990</v>
+        <v>6988</v>
       </c>
       <c r="D3686" s="0" t="s">
         <v>15</v>
@@ -73349,10 +73343,10 @@
         <v>3698</v>
       </c>
       <c r="B3687" s="0" t="s">
-        <v>6991</v>
+        <v>6989</v>
       </c>
       <c r="C3687" s="0" t="s">
-        <v>6992</v>
+        <v>6990</v>
       </c>
       <c r="D3687" s="0" t="s">
         <v>15</v>
@@ -73363,10 +73357,10 @@
         <v>3699</v>
       </c>
       <c r="B3688" s="0" t="s">
-        <v>6993</v>
+        <v>6991</v>
       </c>
       <c r="C3688" s="0" t="s">
-        <v>6994</v>
+        <v>6992</v>
       </c>
       <c r="D3688" s="0" t="s">
         <v>15</v>
@@ -73377,10 +73371,10 @@
         <v>3700</v>
       </c>
       <c r="B3689" s="0" t="s">
-        <v>6995</v>
+        <v>6993</v>
       </c>
       <c r="C3689" s="0" t="s">
-        <v>6996</v>
+        <v>6994</v>
       </c>
       <c r="D3689" s="0" t="s">
         <v>15</v>
@@ -73391,10 +73385,10 @@
         <v>3701</v>
       </c>
       <c r="B3690" s="0" t="s">
-        <v>6997</v>
+        <v>6995</v>
       </c>
       <c r="C3690" s="0" t="s">
-        <v>6998</v>
+        <v>6996</v>
       </c>
       <c r="D3690" s="0" t="s">
         <v>15</v>
@@ -73405,10 +73399,10 @@
         <v>3702</v>
       </c>
       <c r="B3691" s="0" t="s">
-        <v>6999</v>
+        <v>6997</v>
       </c>
       <c r="C3691" s="0" t="s">
-        <v>7000</v>
+        <v>6998</v>
       </c>
       <c r="D3691" s="0" t="s">
         <v>15</v>
@@ -73419,10 +73413,10 @@
         <v>3703</v>
       </c>
       <c r="B3692" s="0" t="s">
-        <v>7001</v>
+        <v>6999</v>
       </c>
       <c r="C3692" s="0" t="s">
-        <v>7002</v>
+        <v>7000</v>
       </c>
       <c r="D3692" s="0" t="s">
         <v>15</v>
@@ -73433,10 +73427,10 @@
         <v>3704</v>
       </c>
       <c r="B3693" s="0" t="s">
-        <v>7003</v>
+        <v>7001</v>
       </c>
       <c r="C3693" s="0" t="s">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="D3693" s="0" t="s">
         <v>15</v>
@@ -73447,10 +73441,10 @@
         <v>3705</v>
       </c>
       <c r="B3694" s="0" t="s">
-        <v>7005</v>
+        <v>7003</v>
       </c>
       <c r="C3694" s="0" t="s">
-        <v>7006</v>
+        <v>7004</v>
       </c>
       <c r="D3694" s="0" t="s">
         <v>15</v>
@@ -73461,10 +73455,10 @@
         <v>3706</v>
       </c>
       <c r="B3695" s="0" t="s">
-        <v>7007</v>
+        <v>7005</v>
       </c>
       <c r="C3695" s="0" t="s">
-        <v>7008</v>
+        <v>7006</v>
       </c>
       <c r="D3695" s="0" t="s">
         <v>15</v>
@@ -73475,10 +73469,10 @@
         <v>3707</v>
       </c>
       <c r="B3696" s="0" t="s">
-        <v>7009</v>
+        <v>7007</v>
       </c>
       <c r="C3696" s="0" t="s">
-        <v>7010</v>
+        <v>7008</v>
       </c>
       <c r="D3696" s="0" t="s">
         <v>15</v>
@@ -73489,10 +73483,10 @@
         <v>3708</v>
       </c>
       <c r="B3697" s="0" t="s">
-        <v>7011</v>
+        <v>7009</v>
       </c>
       <c r="C3697" s="0" t="s">
-        <v>7012</v>
+        <v>7010</v>
       </c>
       <c r="D3697" s="0" t="s">
         <v>15</v>
@@ -73503,10 +73497,10 @@
         <v>3709</v>
       </c>
       <c r="B3698" s="0" t="s">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="C3698" s="0" t="s">
-        <v>7014</v>
+        <v>7012</v>
       </c>
       <c r="D3698" s="0" t="s">
         <v>15</v>
@@ -73517,10 +73511,10 @@
         <v>3710</v>
       </c>
       <c r="B3699" s="0" t="s">
-        <v>7015</v>
+        <v>7013</v>
       </c>
       <c r="C3699" s="0" t="s">
-        <v>7016</v>
+        <v>7014</v>
       </c>
       <c r="D3699" s="0" t="s">
         <v>15</v>
@@ -73531,10 +73525,10 @@
         <v>3711</v>
       </c>
       <c r="B3700" s="0" t="s">
-        <v>7017</v>
+        <v>7015</v>
       </c>
       <c r="C3700" s="0" t="s">
-        <v>7018</v>
+        <v>7016</v>
       </c>
       <c r="D3700" s="0" t="s">
         <v>15</v>
@@ -73545,10 +73539,10 @@
         <v>3712</v>
       </c>
       <c r="B3701" s="0" t="s">
-        <v>7019</v>
+        <v>7017</v>
       </c>
       <c r="C3701" s="0" t="s">
-        <v>7020</v>
+        <v>7018</v>
       </c>
       <c r="D3701" s="0" t="s">
         <v>15</v>
@@ -73559,10 +73553,10 @@
         <v>3713</v>
       </c>
       <c r="B3702" s="0" t="s">
-        <v>7021</v>
+        <v>7019</v>
       </c>
       <c r="C3702" s="0" t="s">
-        <v>7022</v>
+        <v>7020</v>
       </c>
       <c r="D3702" s="0" t="s">
         <v>15</v>
@@ -73573,10 +73567,10 @@
         <v>3714</v>
       </c>
       <c r="B3703" s="0" t="s">
-        <v>7023</v>
+        <v>7021</v>
       </c>
       <c r="C3703" s="0" t="s">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="D3703" s="0" t="s">
         <v>15</v>
@@ -73587,10 +73581,10 @@
         <v>3715</v>
       </c>
       <c r="B3704" s="0" t="s">
-        <v>7025</v>
+        <v>7023</v>
       </c>
       <c r="C3704" s="0" t="s">
-        <v>7026</v>
+        <v>7024</v>
       </c>
       <c r="D3704" s="0" t="s">
         <v>15</v>
@@ -73601,10 +73595,10 @@
         <v>3716</v>
       </c>
       <c r="B3705" s="0" t="s">
-        <v>7027</v>
+        <v>7025</v>
       </c>
       <c r="C3705" s="0" t="s">
-        <v>7028</v>
+        <v>7026</v>
       </c>
       <c r="D3705" s="0" t="s">
         <v>15</v>
@@ -73615,10 +73609,10 @@
         <v>3717</v>
       </c>
       <c r="B3706" s="0" t="s">
-        <v>7029</v>
+        <v>7027</v>
       </c>
       <c r="C3706" s="0" t="s">
-        <v>7030</v>
+        <v>7028</v>
       </c>
       <c r="D3706" s="0" t="s">
         <v>15</v>
@@ -73629,10 +73623,10 @@
         <v>3718</v>
       </c>
       <c r="B3707" s="0" t="s">
-        <v>7031</v>
+        <v>7029</v>
       </c>
       <c r="C3707" s="0" t="s">
-        <v>7032</v>
+        <v>7030</v>
       </c>
       <c r="D3707" s="0" t="s">
         <v>15</v>
@@ -73643,10 +73637,10 @@
         <v>3719</v>
       </c>
       <c r="B3708" s="0" t="s">
-        <v>7033</v>
+        <v>7031</v>
       </c>
       <c r="C3708" s="0" t="s">
-        <v>7034</v>
+        <v>7032</v>
       </c>
       <c r="D3708" s="0" t="s">
         <v>15</v>
@@ -73657,10 +73651,10 @@
         <v>3720</v>
       </c>
       <c r="B3709" s="0" t="s">
-        <v>7035</v>
+        <v>7033</v>
       </c>
       <c r="C3709" s="0" t="s">
-        <v>7036</v>
+        <v>7034</v>
       </c>
       <c r="D3709" s="0" t="s">
         <v>15</v>
@@ -73671,10 +73665,10 @@
         <v>3721</v>
       </c>
       <c r="B3710" s="0" t="s">
-        <v>7037</v>
+        <v>7035</v>
       </c>
       <c r="C3710" s="0" t="s">
-        <v>7038</v>
+        <v>7036</v>
       </c>
       <c r="D3710" s="0" t="s">
         <v>15</v>
@@ -73685,10 +73679,10 @@
         <v>3722</v>
       </c>
       <c r="B3711" s="0" t="s">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="C3711" s="0" t="s">
-        <v>7040</v>
+        <v>7038</v>
       </c>
       <c r="D3711" s="0" t="s">
         <v>15</v>
@@ -73699,10 +73693,10 @@
         <v>3723</v>
       </c>
       <c r="B3712" s="0" t="s">
-        <v>7041</v>
+        <v>7039</v>
       </c>
       <c r="C3712" s="0" t="s">
-        <v>7042</v>
+        <v>7040</v>
       </c>
       <c r="D3712" s="0" t="s">
         <v>15</v>
@@ -73713,10 +73707,10 @@
         <v>3724</v>
       </c>
       <c r="B3713" s="0" t="s">
-        <v>7043</v>
+        <v>7041</v>
       </c>
       <c r="C3713" s="0" t="s">
-        <v>7044</v>
+        <v>7042</v>
       </c>
       <c r="D3713" s="0" t="s">
         <v>15</v>
@@ -73727,10 +73721,10 @@
         <v>3725</v>
       </c>
       <c r="B3714" s="0" t="s">
-        <v>7045</v>
+        <v>7043</v>
       </c>
       <c r="C3714" s="0" t="s">
-        <v>7046</v>
+        <v>7044</v>
       </c>
       <c r="D3714" s="0" t="s">
         <v>15</v>
@@ -73741,10 +73735,10 @@
         <v>3726</v>
       </c>
       <c r="B3715" s="0" t="s">
-        <v>7047</v>
+        <v>7045</v>
       </c>
       <c r="C3715" s="0" t="s">
-        <v>7048</v>
+        <v>7046</v>
       </c>
       <c r="D3715" s="0" t="s">
         <v>15</v>
@@ -73755,10 +73749,10 @@
         <v>3727</v>
       </c>
       <c r="B3716" s="0" t="s">
-        <v>7049</v>
+        <v>7047</v>
       </c>
       <c r="C3716" s="0" t="s">
-        <v>7050</v>
+        <v>7048</v>
       </c>
       <c r="D3716" s="0" t="s">
         <v>15</v>
@@ -73769,10 +73763,10 @@
         <v>3728</v>
       </c>
       <c r="B3717" s="0" t="s">
-        <v>7051</v>
+        <v>7049</v>
       </c>
       <c r="C3717" s="0" t="s">
-        <v>7052</v>
+        <v>7050</v>
       </c>
       <c r="D3717" s="0" t="s">
         <v>15</v>
@@ -73783,10 +73777,10 @@
         <v>3729</v>
       </c>
       <c r="B3718" s="0" t="s">
-        <v>7053</v>
+        <v>7051</v>
       </c>
       <c r="C3718" s="0" t="s">
-        <v>7053</v>
+        <v>7051</v>
       </c>
       <c r="D3718" s="0" t="s">
         <v>15</v>
@@ -73797,10 +73791,10 @@
         <v>3730</v>
       </c>
       <c r="B3719" s="0" t="s">
-        <v>7054</v>
+        <v>7052</v>
       </c>
       <c r="C3719" s="0" t="s">
-        <v>7055</v>
+        <v>7053</v>
       </c>
       <c r="D3719" s="0" t="s">
         <v>15</v>
@@ -73811,10 +73805,10 @@
         <v>3731</v>
       </c>
       <c r="B3720" s="0" t="s">
-        <v>7056</v>
+        <v>7054</v>
       </c>
       <c r="C3720" s="0" t="s">
-        <v>7057</v>
+        <v>7055</v>
       </c>
       <c r="D3720" s="0" t="s">
         <v>15</v>
@@ -73825,10 +73819,10 @@
         <v>3732</v>
       </c>
       <c r="B3721" s="0" t="s">
-        <v>7058</v>
+        <v>7056</v>
       </c>
       <c r="C3721" s="0" t="s">
-        <v>7059</v>
+        <v>7057</v>
       </c>
       <c r="D3721" s="0" t="s">
         <v>15</v>
@@ -73839,10 +73833,10 @@
         <v>3733</v>
       </c>
       <c r="B3722" s="0" t="s">
-        <v>7060</v>
+        <v>7058</v>
       </c>
       <c r="C3722" s="0" t="s">
-        <v>7061</v>
+        <v>7059</v>
       </c>
       <c r="D3722" s="0" t="s">
         <v>15</v>
@@ -73853,10 +73847,10 @@
         <v>3734</v>
       </c>
       <c r="B3723" s="0" t="s">
-        <v>7062</v>
+        <v>7060</v>
       </c>
       <c r="C3723" s="0" t="s">
-        <v>7063</v>
+        <v>7061</v>
       </c>
       <c r="D3723" s="0" t="s">
         <v>15</v>
@@ -73867,10 +73861,10 @@
         <v>3735</v>
       </c>
       <c r="B3724" s="0" t="s">
-        <v>7064</v>
+        <v>7062</v>
       </c>
       <c r="C3724" s="0" t="s">
-        <v>7065</v>
+        <v>7063</v>
       </c>
       <c r="D3724" s="0" t="s">
         <v>15</v>
@@ -73881,10 +73875,10 @@
         <v>3736</v>
       </c>
       <c r="B3725" s="0" t="s">
-        <v>7066</v>
+        <v>7064</v>
       </c>
       <c r="C3725" s="0" t="s">
-        <v>7067</v>
+        <v>7065</v>
       </c>
       <c r="D3725" s="0" t="s">
         <v>15</v>
@@ -73895,10 +73889,10 @@
         <v>3737</v>
       </c>
       <c r="B3726" s="0" t="s">
-        <v>7068</v>
+        <v>7066</v>
       </c>
       <c r="C3726" s="0" t="s">
-        <v>7069</v>
+        <v>7067</v>
       </c>
       <c r="D3726" s="0" t="s">
         <v>15</v>
@@ -73909,10 +73903,10 @@
         <v>3738</v>
       </c>
       <c r="B3727" s="0" t="s">
-        <v>7070</v>
+        <v>7068</v>
       </c>
       <c r="C3727" s="0" t="s">
-        <v>7071</v>
+        <v>7069</v>
       </c>
       <c r="D3727" s="0" t="s">
         <v>15</v>
@@ -73923,10 +73917,10 @@
         <v>3739</v>
       </c>
       <c r="B3728" s="0" t="s">
-        <v>7072</v>
+        <v>7070</v>
       </c>
       <c r="C3728" s="0" t="s">
-        <v>7073</v>
+        <v>7071</v>
       </c>
       <c r="D3728" s="0" t="s">
         <v>15</v>
@@ -73937,10 +73931,10 @@
         <v>3740</v>
       </c>
       <c r="B3729" s="0" t="s">
-        <v>7074</v>
+        <v>7072</v>
       </c>
       <c r="C3729" s="0" t="s">
-        <v>7075</v>
+        <v>7073</v>
       </c>
       <c r="D3729" s="0" t="s">
         <v>15</v>
@@ -73951,10 +73945,10 @@
         <v>3741</v>
       </c>
       <c r="B3730" s="0" t="s">
-        <v>7076</v>
+        <v>7074</v>
       </c>
       <c r="C3730" s="0" t="s">
-        <v>7077</v>
+        <v>7075</v>
       </c>
       <c r="D3730" s="0" t="s">
         <v>15</v>
@@ -73965,10 +73959,10 @@
         <v>3742</v>
       </c>
       <c r="B3731" s="0" t="s">
-        <v>7078</v>
+        <v>7076</v>
       </c>
       <c r="C3731" s="0" t="s">
-        <v>7079</v>
+        <v>7077</v>
       </c>
       <c r="D3731" s="0" t="s">
         <v>15</v>
@@ -73979,10 +73973,10 @@
         <v>3743</v>
       </c>
       <c r="B3732" s="0" t="s">
-        <v>7080</v>
+        <v>7078</v>
       </c>
       <c r="C3732" s="0" t="s">
-        <v>7081</v>
+        <v>7079</v>
       </c>
       <c r="D3732" s="0" t="s">
         <v>15</v>
@@ -73993,10 +73987,10 @@
         <v>3744</v>
       </c>
       <c r="B3733" s="0" t="s">
-        <v>7082</v>
+        <v>7080</v>
       </c>
       <c r="C3733" s="0" t="s">
-        <v>7083</v>
+        <v>7081</v>
       </c>
       <c r="D3733" s="0" t="s">
         <v>15</v>
@@ -74007,10 +74001,10 @@
         <v>3745</v>
       </c>
       <c r="B3734" s="0" t="s">
-        <v>7084</v>
+        <v>7082</v>
       </c>
       <c r="C3734" s="0" t="s">
-        <v>7085</v>
+        <v>7083</v>
       </c>
       <c r="D3734" s="0" t="s">
         <v>15</v>
@@ -74021,10 +74015,10 @@
         <v>3746</v>
       </c>
       <c r="B3735" s="0" t="s">
-        <v>7086</v>
+        <v>7084</v>
       </c>
       <c r="C3735" s="0" t="s">
-        <v>7087</v>
+        <v>7085</v>
       </c>
       <c r="D3735" s="0" t="s">
         <v>15</v>
@@ -74035,10 +74029,10 @@
         <v>3747</v>
       </c>
       <c r="B3736" s="0" t="s">
-        <v>7088</v>
+        <v>7086</v>
       </c>
       <c r="C3736" s="0" t="s">
-        <v>7089</v>
+        <v>7087</v>
       </c>
       <c r="D3736" s="0" t="s">
         <v>15</v>
@@ -74049,10 +74043,10 @@
         <v>3748</v>
       </c>
       <c r="B3737" s="0" t="s">
-        <v>7090</v>
+        <v>7088</v>
       </c>
       <c r="C3737" s="0" t="s">
-        <v>7091</v>
+        <v>7089</v>
       </c>
       <c r="D3737" s="0" t="s">
         <v>15</v>
@@ -74063,10 +74057,10 @@
         <v>3749</v>
       </c>
       <c r="B3738" s="0" t="s">
-        <v>7092</v>
+        <v>7090</v>
       </c>
       <c r="C3738" s="0" t="s">
-        <v>7093</v>
+        <v>7091</v>
       </c>
       <c r="D3738" s="0" t="s">
         <v>15</v>
@@ -74077,10 +74071,10 @@
         <v>3750</v>
       </c>
       <c r="B3739" s="0" t="s">
-        <v>7094</v>
+        <v>7092</v>
       </c>
       <c r="C3739" s="0" t="s">
-        <v>7095</v>
+        <v>7093</v>
       </c>
       <c r="D3739" s="0" t="s">
         <v>15</v>
@@ -74091,10 +74085,10 @@
         <v>3751</v>
       </c>
       <c r="B3740" s="0" t="s">
-        <v>7096</v>
+        <v>7094</v>
       </c>
       <c r="C3740" s="0" t="s">
-        <v>7097</v>
+        <v>7095</v>
       </c>
       <c r="D3740" s="0" t="s">
         <v>15</v>
@@ -74105,10 +74099,10 @@
         <v>3752</v>
       </c>
       <c r="B3741" s="0" t="s">
-        <v>7098</v>
+        <v>7096</v>
       </c>
       <c r="C3741" s="0" t="s">
-        <v>7099</v>
+        <v>7097</v>
       </c>
       <c r="D3741" s="0" t="s">
         <v>15</v>
@@ -74119,10 +74113,10 @@
         <v>3753</v>
       </c>
       <c r="B3742" s="0" t="s">
-        <v>7100</v>
+        <v>7098</v>
       </c>
       <c r="C3742" s="0" t="s">
-        <v>7101</v>
+        <v>7099</v>
       </c>
       <c r="D3742" s="0" t="s">
         <v>15</v>
@@ -74133,10 +74127,10 @@
         <v>3754</v>
       </c>
       <c r="B3743" s="0" t="s">
-        <v>7102</v>
+        <v>7100</v>
       </c>
       <c r="C3743" s="0" t="s">
-        <v>7103</v>
+        <v>7101</v>
       </c>
       <c r="D3743" s="0" t="s">
         <v>15</v>
@@ -74147,10 +74141,10 @@
         <v>3755</v>
       </c>
       <c r="B3744" s="0" t="s">
-        <v>7104</v>
+        <v>7102</v>
       </c>
       <c r="C3744" s="0" t="s">
-        <v>7105</v>
+        <v>7103</v>
       </c>
       <c r="D3744" s="0" t="s">
         <v>15</v>
@@ -74161,10 +74155,10 @@
         <v>3756</v>
       </c>
       <c r="B3745" s="0" t="s">
-        <v>7106</v>
+        <v>7104</v>
       </c>
       <c r="C3745" s="0" t="s">
-        <v>7107</v>
+        <v>7105</v>
       </c>
       <c r="D3745" s="0" t="s">
         <v>15</v>
@@ -74175,10 +74169,10 @@
         <v>3757</v>
       </c>
       <c r="B3746" s="0" t="s">
-        <v>7108</v>
+        <v>7106</v>
       </c>
       <c r="C3746" s="0" t="s">
-        <v>7109</v>
+        <v>7107</v>
       </c>
       <c r="D3746" s="0" t="s">
         <v>15</v>
@@ -74189,10 +74183,10 @@
         <v>3758</v>
       </c>
       <c r="B3747" s="0" t="s">
-        <v>7110</v>
+        <v>7108</v>
       </c>
       <c r="C3747" s="0" t="s">
-        <v>7111</v>
+        <v>7109</v>
       </c>
       <c r="D3747" s="0" t="s">
         <v>15</v>
@@ -74203,10 +74197,10 @@
         <v>3759</v>
       </c>
       <c r="B3748" s="0" t="s">
-        <v>7112</v>
+        <v>7110</v>
       </c>
       <c r="C3748" s="0" t="s">
-        <v>7113</v>
+        <v>7111</v>
       </c>
       <c r="D3748" s="0" t="s">
         <v>15</v>
@@ -74217,10 +74211,10 @@
         <v>3760</v>
       </c>
       <c r="B3749" s="0" t="s">
-        <v>7114</v>
+        <v>7112</v>
       </c>
       <c r="C3749" s="0" t="s">
-        <v>7113</v>
+        <v>7111</v>
       </c>
       <c r="D3749" s="0" t="s">
         <v>15</v>
@@ -74231,10 +74225,10 @@
         <v>3761</v>
       </c>
       <c r="B3750" s="0" t="s">
-        <v>7115</v>
+        <v>7113</v>
       </c>
       <c r="C3750" s="0" t="s">
-        <v>7116</v>
+        <v>7114</v>
       </c>
       <c r="D3750" s="0" t="s">
         <v>15</v>
@@ -74245,10 +74239,10 @@
         <v>3762</v>
       </c>
       <c r="B3751" s="0" t="s">
-        <v>7117</v>
+        <v>7115</v>
       </c>
       <c r="C3751" s="0" t="s">
-        <v>7118</v>
+        <v>7116</v>
       </c>
       <c r="D3751" s="0" t="s">
         <v>15</v>
@@ -74259,10 +74253,10 @@
         <v>3763</v>
       </c>
       <c r="B3752" s="0" t="s">
-        <v>7119</v>
+        <v>7117</v>
       </c>
       <c r="C3752" s="0" t="s">
-        <v>7120</v>
+        <v>7118</v>
       </c>
       <c r="D3752" s="0" t="s">
         <v>15</v>
@@ -74273,10 +74267,10 @@
         <v>3764</v>
       </c>
       <c r="B3753" s="0" t="s">
-        <v>7121</v>
+        <v>7119</v>
       </c>
       <c r="C3753" s="0" t="s">
-        <v>7122</v>
+        <v>7120</v>
       </c>
       <c r="D3753" s="0" t="s">
         <v>15</v>
@@ -74287,10 +74281,10 @@
         <v>3765</v>
       </c>
       <c r="B3754" s="0" t="s">
-        <v>7123</v>
+        <v>7121</v>
       </c>
       <c r="C3754" s="0" t="s">
-        <v>7124</v>
+        <v>7122</v>
       </c>
       <c r="D3754" s="0" t="s">
         <v>15</v>
@@ -74301,10 +74295,10 @@
         <v>3766</v>
       </c>
       <c r="B3755" s="0" t="s">
-        <v>7125</v>
+        <v>7123</v>
       </c>
       <c r="C3755" s="0" t="s">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="D3755" s="0" t="s">
         <v>15</v>
@@ -74315,10 +74309,10 @@
         <v>3767</v>
       </c>
       <c r="B3756" s="0" t="s">
-        <v>7127</v>
+        <v>7125</v>
       </c>
       <c r="C3756" s="0" t="s">
-        <v>7128</v>
+        <v>7126</v>
       </c>
       <c r="D3756" s="0" t="s">
         <v>15</v>
@@ -74329,10 +74323,10 @@
         <v>3768</v>
       </c>
       <c r="B3757" s="0" t="s">
-        <v>7129</v>
+        <v>7127</v>
       </c>
       <c r="C3757" s="0" t="s">
-        <v>7130</v>
+        <v>7128</v>
       </c>
       <c r="D3757" s="0" t="s">
         <v>15</v>
@@ -74343,10 +74337,10 @@
         <v>3769</v>
       </c>
       <c r="B3758" s="0" t="s">
-        <v>7131</v>
+        <v>7129</v>
       </c>
       <c r="C3758" s="0" t="s">
-        <v>7132</v>
+        <v>7130</v>
       </c>
       <c r="D3758" s="0" t="s">
         <v>15</v>
@@ -74357,10 +74351,10 @@
         <v>3770</v>
       </c>
       <c r="B3759" s="0" t="s">
-        <v>7133</v>
+        <v>7131</v>
       </c>
       <c r="C3759" s="0" t="s">
-        <v>7134</v>
+        <v>7132</v>
       </c>
       <c r="D3759" s="0" t="s">
         <v>15</v>
@@ -74371,10 +74365,10 @@
         <v>3771</v>
       </c>
       <c r="B3760" s="0" t="s">
-        <v>7135</v>
+        <v>7133</v>
       </c>
       <c r="C3760" s="0" t="s">
-        <v>7135</v>
+        <v>7133</v>
       </c>
       <c r="D3760" s="0" t="s">
         <v>15</v>
@@ -74385,10 +74379,10 @@
         <v>3772</v>
       </c>
       <c r="B3761" s="0" t="s">
-        <v>7136</v>
+        <v>7134</v>
       </c>
       <c r="C3761" s="0" t="s">
-        <v>7137</v>
+        <v>7135</v>
       </c>
       <c r="D3761" s="0" t="s">
         <v>15</v>
@@ -74399,10 +74393,10 @@
         <v>3773</v>
       </c>
       <c r="B3762" s="0" t="s">
-        <v>7138</v>
+        <v>7136</v>
       </c>
       <c r="C3762" s="0" t="s">
-        <v>7139</v>
+        <v>7137</v>
       </c>
       <c r="D3762" s="0" t="s">
         <v>15</v>
@@ -74413,10 +74407,10 @@
         <v>3774</v>
       </c>
       <c r="B3763" s="0" t="s">
-        <v>7140</v>
+        <v>7138</v>
       </c>
       <c r="C3763" s="0" t="s">
-        <v>7141</v>
+        <v>7139</v>
       </c>
       <c r="D3763" s="0" t="s">
         <v>15</v>
@@ -74427,10 +74421,10 @@
         <v>3775</v>
       </c>
       <c r="B3764" s="0" t="s">
-        <v>7142</v>
+        <v>7140</v>
       </c>
       <c r="C3764" s="0" t="s">
-        <v>7143</v>
+        <v>7141</v>
       </c>
       <c r="D3764" s="0" t="s">
         <v>15</v>
@@ -74441,10 +74435,10 @@
         <v>3776</v>
       </c>
       <c r="B3765" s="0" t="s">
-        <v>7144</v>
+        <v>7142</v>
       </c>
       <c r="C3765" s="0" t="s">
-        <v>7145</v>
+        <v>7143</v>
       </c>
       <c r="D3765" s="0" t="s">
         <v>15</v>
@@ -74455,10 +74449,10 @@
         <v>3777</v>
       </c>
       <c r="B3766" s="0" t="s">
-        <v>7146</v>
+        <v>7144</v>
       </c>
       <c r="C3766" s="0" t="s">
-        <v>7147</v>
+        <v>7145</v>
       </c>
       <c r="D3766" s="0" t="s">
         <v>15</v>
@@ -74469,10 +74463,10 @@
         <v>3778</v>
       </c>
       <c r="B3767" s="0" t="s">
-        <v>7148</v>
+        <v>7146</v>
       </c>
       <c r="C3767" s="0" t="s">
-        <v>7149</v>
+        <v>7147</v>
       </c>
       <c r="D3767" s="0" t="s">
         <v>15</v>
@@ -74483,10 +74477,10 @@
         <v>3779</v>
       </c>
       <c r="B3768" s="0" t="s">
-        <v>7150</v>
+        <v>7148</v>
       </c>
       <c r="C3768" s="0" t="s">
-        <v>7150</v>
+        <v>7148</v>
       </c>
       <c r="D3768" s="0" t="s">
         <v>15</v>
@@ -74497,10 +74491,10 @@
         <v>3780</v>
       </c>
       <c r="B3769" s="0" t="s">
-        <v>7151</v>
+        <v>7149</v>
       </c>
       <c r="C3769" s="0" t="s">
-        <v>7151</v>
+        <v>7149</v>
       </c>
       <c r="D3769" s="0" t="s">
         <v>15</v>
@@ -74511,10 +74505,10 @@
         <v>3781</v>
       </c>
       <c r="B3770" s="0" t="s">
-        <v>7152</v>
+        <v>7150</v>
       </c>
       <c r="C3770" s="0" t="s">
-        <v>7153</v>
+        <v>7151</v>
       </c>
       <c r="D3770" s="0" t="s">
         <v>15</v>
@@ -74525,10 +74519,10 @@
         <v>3782</v>
       </c>
       <c r="B3771" s="0" t="s">
-        <v>7154</v>
+        <v>7152</v>
       </c>
       <c r="C3771" s="0" t="s">
-        <v>7155</v>
+        <v>7153</v>
       </c>
       <c r="D3771" s="0" t="s">
         <v>15</v>
@@ -74539,10 +74533,10 @@
         <v>3783</v>
       </c>
       <c r="B3772" s="0" t="s">
-        <v>7156</v>
+        <v>7154</v>
       </c>
       <c r="C3772" s="0" t="s">
-        <v>7156</v>
+        <v>7154</v>
       </c>
       <c r="D3772" s="0" t="s">
         <v>15</v>
@@ -74553,10 +74547,10 @@
         <v>3784</v>
       </c>
       <c r="B3773" s="0" t="s">
-        <v>7157</v>
+        <v>7155</v>
       </c>
       <c r="C3773" s="0" t="s">
-        <v>7158</v>
+        <v>7156</v>
       </c>
       <c r="D3773" s="0" t="s">
         <v>15</v>
@@ -74567,10 +74561,10 @@
         <v>3785</v>
       </c>
       <c r="B3774" s="0" t="s">
-        <v>7159</v>
+        <v>7157</v>
       </c>
       <c r="C3774" s="0" t="s">
-        <v>7160</v>
+        <v>7158</v>
       </c>
       <c r="D3774" s="0" t="s">
         <v>15</v>
@@ -74581,10 +74575,10 @@
         <v>3786</v>
       </c>
       <c r="B3775" s="0" t="s">
-        <v>7161</v>
+        <v>7159</v>
       </c>
       <c r="C3775" s="0" t="s">
-        <v>7162</v>
+        <v>7160</v>
       </c>
       <c r="D3775" s="0" t="s">
         <v>15</v>
@@ -74595,10 +74589,10 @@
         <v>3787</v>
       </c>
       <c r="B3776" s="0" t="s">
-        <v>7163</v>
+        <v>7161</v>
       </c>
       <c r="C3776" s="0" t="s">
-        <v>7163</v>
+        <v>7161</v>
       </c>
       <c r="D3776" s="0" t="s">
         <v>15</v>
@@ -74609,10 +74603,10 @@
         <v>3788</v>
       </c>
       <c r="B3777" s="0" t="s">
-        <v>7164</v>
+        <v>7162</v>
       </c>
       <c r="C3777" s="0" t="s">
-        <v>7165</v>
+        <v>7163</v>
       </c>
       <c r="D3777" s="0" t="s">
         <v>15</v>
@@ -74623,10 +74617,10 @@
         <v>3789</v>
       </c>
       <c r="B3778" s="0" t="s">
-        <v>7166</v>
+        <v>7164</v>
       </c>
       <c r="C3778" s="0" t="s">
-        <v>7167</v>
+        <v>7165</v>
       </c>
       <c r="D3778" s="0" t="s">
         <v>15</v>
@@ -74637,10 +74631,10 @@
         <v>3790</v>
       </c>
       <c r="B3779" s="0" t="s">
-        <v>7168</v>
+        <v>7166</v>
       </c>
       <c r="C3779" s="0" t="s">
-        <v>7169</v>
+        <v>7167</v>
       </c>
       <c r="D3779" s="0" t="s">
         <v>15</v>
@@ -74651,10 +74645,10 @@
         <v>3792</v>
       </c>
       <c r="B3780" s="0" t="s">
-        <v>7170</v>
+        <v>7168</v>
       </c>
       <c r="C3780" s="0" t="s">
-        <v>7171</v>
+        <v>7169</v>
       </c>
       <c r="D3780" s="0" t="s">
         <v>15</v>
@@ -74665,10 +74659,10 @@
         <v>3791</v>
       </c>
       <c r="B3781" s="0" t="s">
-        <v>7172</v>
+        <v>7170</v>
       </c>
       <c r="C3781" s="0" t="s">
-        <v>7173</v>
+        <v>7171</v>
       </c>
       <c r="D3781" s="0" t="s">
         <v>15</v>
@@ -74679,10 +74673,10 @@
         <v>3793</v>
       </c>
       <c r="B3782" s="0" t="s">
-        <v>7174</v>
+        <v>7172</v>
       </c>
       <c r="C3782" s="0" t="s">
-        <v>7175</v>
+        <v>7173</v>
       </c>
       <c r="D3782" s="0" t="s">
         <v>15</v>
@@ -74693,10 +74687,10 @@
         <v>3794</v>
       </c>
       <c r="B3783" s="0" t="s">
-        <v>7176</v>
+        <v>7174</v>
       </c>
       <c r="C3783" s="0" t="s">
-        <v>7177</v>
+        <v>7175</v>
       </c>
       <c r="D3783" s="0" t="s">
         <v>15</v>
@@ -74707,10 +74701,10 @@
         <v>3795</v>
       </c>
       <c r="B3784" s="0" t="s">
-        <v>7178</v>
+        <v>7176</v>
       </c>
       <c r="C3784" s="0" t="s">
-        <v>7179</v>
+        <v>7177</v>
       </c>
       <c r="D3784" s="0" t="s">
         <v>15</v>
@@ -74721,10 +74715,10 @@
         <v>3796</v>
       </c>
       <c r="B3785" s="0" t="s">
-        <v>7180</v>
+        <v>7178</v>
       </c>
       <c r="C3785" s="0" t="s">
-        <v>7181</v>
+        <v>7179</v>
       </c>
       <c r="D3785" s="0" t="s">
         <v>15</v>
@@ -74735,10 +74729,10 @@
         <v>3797</v>
       </c>
       <c r="B3786" s="0" t="s">
-        <v>7182</v>
+        <v>7180</v>
       </c>
       <c r="C3786" s="0" t="s">
-        <v>7183</v>
+        <v>7181</v>
       </c>
       <c r="D3786" s="0" t="s">
         <v>15</v>
@@ -74749,10 +74743,10 @@
         <v>3798</v>
       </c>
       <c r="B3787" s="0" t="s">
-        <v>7184</v>
+        <v>7182</v>
       </c>
       <c r="C3787" s="0" t="s">
-        <v>7185</v>
+        <v>7183</v>
       </c>
       <c r="D3787" s="0" t="s">
         <v>15</v>
@@ -74763,10 +74757,10 @@
         <v>3799</v>
       </c>
       <c r="B3788" s="0" t="s">
-        <v>7186</v>
+        <v>7184</v>
       </c>
       <c r="C3788" s="0" t="s">
-        <v>7187</v>
+        <v>7185</v>
       </c>
       <c r="D3788" s="0" t="s">
         <v>15</v>
@@ -74777,10 +74771,10 @@
         <v>3800</v>
       </c>
       <c r="B3789" s="0" t="s">
-        <v>7188</v>
+        <v>7186</v>
       </c>
       <c r="C3789" s="0" t="s">
-        <v>7189</v>
+        <v>7187</v>
       </c>
       <c r="D3789" s="0" t="s">
         <v>15</v>
@@ -74791,10 +74785,10 @@
         <v>3801</v>
       </c>
       <c r="B3790" s="0" t="s">
-        <v>7190</v>
+        <v>7188</v>
       </c>
       <c r="C3790" s="0" t="s">
-        <v>7190</v>
+        <v>7188</v>
       </c>
       <c r="D3790" s="0" t="s">
         <v>15</v>
@@ -74805,10 +74799,10 @@
         <v>3802</v>
       </c>
       <c r="B3791" s="0" t="s">
-        <v>7191</v>
+        <v>7189</v>
       </c>
       <c r="C3791" s="0" t="s">
-        <v>7191</v>
+        <v>7189</v>
       </c>
       <c r="D3791" s="0" t="s">
         <v>15</v>
@@ -74819,10 +74813,10 @@
         <v>3803</v>
       </c>
       <c r="B3792" s="0" t="s">
-        <v>7192</v>
+        <v>7190</v>
       </c>
       <c r="C3792" s="0" t="s">
-        <v>7193</v>
+        <v>7191</v>
       </c>
       <c r="D3792" s="0" t="s">
         <v>15</v>
@@ -74833,10 +74827,10 @@
         <v>3804</v>
       </c>
       <c r="B3793" s="0" t="s">
-        <v>7194</v>
+        <v>7192</v>
       </c>
       <c r="C3793" s="0" t="s">
-        <v>7195</v>
+        <v>7193</v>
       </c>
       <c r="D3793" s="0" t="s">
         <v>15</v>
@@ -74847,10 +74841,10 @@
         <v>3805</v>
       </c>
       <c r="B3794" s="0" t="s">
-        <v>7196</v>
+        <v>7194</v>
       </c>
       <c r="C3794" s="0" t="s">
-        <v>7197</v>
+        <v>7195</v>
       </c>
       <c r="D3794" s="0" t="s">
         <v>15</v>
@@ -74861,10 +74855,10 @@
         <v>3806</v>
       </c>
       <c r="B3795" s="0" t="s">
-        <v>7198</v>
+        <v>7196</v>
       </c>
       <c r="C3795" s="0" t="s">
-        <v>7199</v>
+        <v>7197</v>
       </c>
       <c r="D3795" s="0" t="s">
         <v>15</v>
@@ -74875,10 +74869,10 @@
         <v>3807</v>
       </c>
       <c r="B3796" s="0" t="s">
-        <v>7200</v>
+        <v>7198</v>
       </c>
       <c r="C3796" s="0" t="s">
-        <v>7201</v>
+        <v>7199</v>
       </c>
       <c r="D3796" s="0" t="s">
         <v>15</v>
@@ -74889,10 +74883,10 @@
         <v>3808</v>
       </c>
       <c r="B3797" s="0" t="s">
-        <v>7202</v>
+        <v>7200</v>
       </c>
       <c r="C3797" s="0" t="s">
-        <v>7203</v>
+        <v>7201</v>
       </c>
       <c r="D3797" s="0" t="s">
         <v>15</v>
@@ -74903,10 +74897,10 @@
         <v>3809</v>
       </c>
       <c r="B3798" s="0" t="s">
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="C3798" s="0" t="s">
-        <v>7204</v>
+        <v>7202</v>
       </c>
       <c r="D3798" s="0" t="s">
         <v>15</v>
@@ -74917,10 +74911,10 @@
         <v>3810</v>
       </c>
       <c r="B3799" s="0" t="s">
-        <v>7205</v>
+        <v>7203</v>
       </c>
       <c r="C3799" s="0" t="s">
-        <v>7206</v>
+        <v>7204</v>
       </c>
       <c r="D3799" s="0" t="s">
         <v>15</v>
@@ -74931,10 +74925,10 @@
         <v>3811</v>
       </c>
       <c r="B3800" s="0" t="s">
-        <v>7207</v>
+        <v>7205</v>
       </c>
       <c r="C3800" s="0" t="s">
-        <v>7208</v>
+        <v>7206</v>
       </c>
       <c r="D3800" s="0" t="s">
         <v>15</v>
@@ -74945,10 +74939,10 @@
         <v>3812</v>
       </c>
       <c r="B3801" s="0" t="s">
-        <v>7209</v>
+        <v>7207</v>
       </c>
       <c r="C3801" s="0" t="s">
-        <v>7210</v>
+        <v>7208</v>
       </c>
       <c r="D3801" s="0" t="s">
         <v>15</v>
@@ -74959,10 +74953,10 @@
         <v>3813</v>
       </c>
       <c r="B3802" s="0" t="s">
-        <v>7211</v>
+        <v>7209</v>
       </c>
       <c r="C3802" s="0" t="s">
-        <v>7211</v>
+        <v>7209</v>
       </c>
       <c r="D3802" s="0" t="s">
         <v>15</v>
@@ -74973,10 +74967,10 @@
         <v>3814</v>
       </c>
       <c r="B3803" s="0" t="s">
-        <v>7212</v>
+        <v>7210</v>
       </c>
       <c r="C3803" s="0" t="s">
-        <v>7213</v>
+        <v>7211</v>
       </c>
       <c r="D3803" s="0" t="s">
         <v>15</v>
@@ -74987,10 +74981,10 @@
         <v>3815</v>
       </c>
       <c r="B3804" s="0" t="s">
-        <v>7214</v>
+        <v>7212</v>
       </c>
       <c r="C3804" s="0" t="s">
-        <v>7215</v>
+        <v>7213</v>
       </c>
       <c r="D3804" s="0" t="s">
         <v>15</v>
@@ -75001,10 +74995,10 @@
         <v>3816</v>
       </c>
       <c r="B3805" s="0" t="s">
-        <v>7216</v>
+        <v>7214</v>
       </c>
       <c r="C3805" s="0" t="s">
-        <v>7217</v>
+        <v>7215</v>
       </c>
       <c r="D3805" s="0" t="s">
         <v>15</v>
@@ -75015,10 +75009,10 @@
         <v>3817</v>
       </c>
       <c r="B3806" s="0" t="s">
-        <v>7218</v>
+        <v>7216</v>
       </c>
       <c r="C3806" s="0" t="s">
-        <v>7219</v>
+        <v>7217</v>
       </c>
       <c r="D3806" s="0" t="s">
         <v>15</v>
@@ -75029,10 +75023,10 @@
         <v>3818</v>
       </c>
       <c r="B3807" s="0" t="s">
-        <v>7220</v>
+        <v>7218</v>
       </c>
       <c r="C3807" s="0" t="s">
-        <v>7221</v>
+        <v>7219</v>
       </c>
       <c r="D3807" s="0" t="s">
         <v>15</v>
@@ -75043,10 +75037,10 @@
         <v>3819</v>
       </c>
       <c r="B3808" s="0" t="s">
-        <v>7222</v>
+        <v>7220</v>
       </c>
       <c r="C3808" s="0" t="s">
-        <v>7223</v>
+        <v>7221</v>
       </c>
       <c r="D3808" s="0" t="s">
         <v>15</v>
@@ -75057,10 +75051,10 @@
         <v>3820</v>
       </c>
       <c r="B3809" s="0" t="s">
-        <v>7224</v>
+        <v>7222</v>
       </c>
       <c r="C3809" s="0" t="s">
-        <v>7225</v>
+        <v>7223</v>
       </c>
       <c r="D3809" s="0" t="s">
         <v>15</v>
